--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>9486.160000000002</v>
+        <v>9486.16</v>
       </c>
       <c r="G3" t="n">
         <v>422.8774117512465</v>
@@ -1478,13 +1478,13 @@
         <v>3784.92</v>
       </c>
       <c r="G14" t="n">
-        <v>1545.515585818207</v>
+        <v>1545.515585818208</v>
       </c>
       <c r="H14" t="n">
         <v>26</v>
       </c>
       <c r="I14" t="n">
-        <v>7569.84</v>
+        <v>7569.839999999999</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1493,13 +1493,13 @@
         <v>1571.515585818207</v>
       </c>
       <c r="L14" t="n">
-        <v>421.911642321413</v>
+        <v>421.9116423214131</v>
       </c>
       <c r="M14" t="n">
         <v>23.76</v>
       </c>
       <c r="N14" t="n">
-        <v>398.151642321413</v>
+        <v>398.1516423214131</v>
       </c>
       <c r="O14" t="n">
         <v>0.5418999999999999</v>
@@ -1508,7 +1508,7 @@
         <v>7626</v>
       </c>
       <c r="Q14" t="n">
-        <v>1645373.367551523</v>
+        <v>1645373.367551524</v>
       </c>
       <c r="R14" t="n">
         <v>13020</v>
@@ -1554,28 +1554,28 @@
         <v>3481.55</v>
       </c>
       <c r="G15" t="n">
-        <v>1677.726524922671</v>
+        <v>1677.726524922672</v>
       </c>
       <c r="H15" t="n">
         <v>26</v>
       </c>
       <c r="I15" t="n">
-        <v>6963.1</v>
+        <v>6963.099999999999</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1703.726524922671</v>
+        <v>1703.726524922672</v>
       </c>
       <c r="L15" t="n">
-        <v>428.6292245428052</v>
+        <v>428.6292245428053</v>
       </c>
       <c r="M15" t="n">
         <v>23.76</v>
       </c>
       <c r="N15" t="n">
-        <v>404.8692245428052</v>
+        <v>404.8692245428053</v>
       </c>
       <c r="O15" t="n">
         <v>0.6274999999999999</v>
@@ -1584,7 +1584,7 @@
         <v>6888</v>
       </c>
       <c r="Q15" t="n">
-        <v>1749933.859703403</v>
+        <v>1749933.859703404</v>
       </c>
       <c r="R15" t="n">
         <v>11760</v>
@@ -1627,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>4596.979999999999</v>
+        <v>4596.98</v>
       </c>
       <c r="G16" t="n">
         <v>1759.92968074823</v>
@@ -1636,22 +1636,22 @@
         <v>26</v>
       </c>
       <c r="I16" t="n">
-        <v>9193.959999999997</v>
+        <v>9193.960000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>1785.92968074823</v>
       </c>
       <c r="L16" t="n">
-        <v>478.3227420477098</v>
+        <v>478.3227420477095</v>
       </c>
       <c r="M16" t="n">
         <v>23.76</v>
       </c>
       <c r="N16" t="n">
-        <v>454.5627420477098</v>
+        <v>454.5627420477095</v>
       </c>
       <c r="O16" t="n">
         <v>0.6564</v>
@@ -1660,7 +1660,7 @@
         <v>7595</v>
       </c>
       <c r="Q16" t="n">
-        <v>2266158.002569486</v>
+        <v>2266158.002569485</v>
       </c>
       <c r="R16" t="n">
         <v>13020</v>
@@ -1712,7 +1712,7 @@
         <v>26</v>
       </c>
       <c r="I17" t="n">
-        <v>5819.879999999999</v>
+        <v>5819.88</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1721,13 +1721,13 @@
         <v>1371.197397099404</v>
       </c>
       <c r="L17" t="n">
-        <v>420.5802789017197</v>
+        <v>420.5802789017196</v>
       </c>
       <c r="M17" t="n">
         <v>23.76</v>
       </c>
       <c r="N17" t="n">
-        <v>396.8202789017197</v>
+        <v>396.8202789017196</v>
       </c>
       <c r="O17" t="n">
         <v>0.4906</v>
@@ -1782,7 +1782,7 @@
         <v>4072.74</v>
       </c>
       <c r="G18" t="n">
-        <v>1626.422592219223</v>
+        <v>1626.422592219222</v>
       </c>
       <c r="H18" t="n">
         <v>26</v>
@@ -1794,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1652.422592219223</v>
+        <v>1652.422592219222</v>
       </c>
       <c r="L18" t="n">
         <v>445.3649248122161</v>
@@ -1855,31 +1855,31 @@
         <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>3564.059999999999</v>
+        <v>3564.06</v>
       </c>
       <c r="G19" t="n">
-        <v>1686.697912827887</v>
+        <v>1686.697912827886</v>
       </c>
       <c r="H19" t="n">
         <v>26</v>
       </c>
       <c r="I19" t="n">
-        <v>7128.119999999999</v>
+        <v>7128.120000000001</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1712.697912827887</v>
+        <v>1712.697912827886</v>
       </c>
       <c r="L19" t="n">
-        <v>452.388654763709</v>
+        <v>452.3886547637089</v>
       </c>
       <c r="M19" t="n">
         <v>23.76</v>
       </c>
       <c r="N19" t="n">
-        <v>428.6286547637091</v>
+        <v>428.6286547637089</v>
       </c>
       <c r="O19" t="n">
         <v>0.5284</v>
@@ -1888,7 +1888,7 @@
         <v>7380</v>
       </c>
       <c r="Q19" t="n">
-        <v>1671476.873087322</v>
+        <v>1671476.873087321</v>
       </c>
       <c r="R19" t="n">
         <v>12600</v>
@@ -2086,7 +2086,7 @@
         <v>4185.190000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>1775.646611692671</v>
+        <v>1775.646611692672</v>
       </c>
       <c r="H22" t="n">
         <v>26</v>
@@ -2095,10 +2095,10 @@
         <v>8370.380000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>1801.646611692671</v>
+        <v>1801.646611692672</v>
       </c>
       <c r="L22" t="n">
         <v>582.7978129662546</v>
@@ -2238,7 +2238,7 @@
         <v>4361.37</v>
       </c>
       <c r="G24" t="n">
-        <v>2067.2391747369</v>
+        <v>2067.239174736901</v>
       </c>
       <c r="H24" t="n">
         <v>26</v>
@@ -2314,7 +2314,7 @@
         <v>3455.79</v>
       </c>
       <c r="G25" t="n">
-        <v>1867.026115339781</v>
+        <v>1867.026115339782</v>
       </c>
       <c r="H25" t="n">
         <v>26</v>
@@ -2326,16 +2326,16 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1893.026115339781</v>
+        <v>1893.026115339782</v>
       </c>
       <c r="L25" t="n">
-        <v>462.2621087765416</v>
+        <v>462.2621087765417</v>
       </c>
       <c r="M25" t="n">
         <v>23.76</v>
       </c>
       <c r="N25" t="n">
-        <v>438.5021087765416</v>
+        <v>438.5021087765417</v>
       </c>
       <c r="O25" t="n">
         <v>0.5374</v>
@@ -2344,7 +2344,7 @@
         <v>7626</v>
       </c>
       <c r="Q25" t="n">
-        <v>1797074.779614171</v>
+        <v>1797074.779614172</v>
       </c>
       <c r="R25" t="n">
         <v>13020</v>
@@ -2387,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>8104.410000000002</v>
+        <v>8104.410000000001</v>
       </c>
       <c r="G26" t="n">
         <v>208.5796055008992</v>
@@ -2420,7 +2420,7 @@
         <v>8671</v>
       </c>
       <c r="Q26" t="n">
-        <v>779423.9003557651</v>
+        <v>779423.9003557654</v>
       </c>
       <c r="R26" t="n">
         <v>10120</v>
@@ -2463,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>7669.239999999999</v>
+        <v>7669.24</v>
       </c>
       <c r="G27" t="n">
         <v>160.0296385162291</v>
@@ -2475,7 +2475,7 @@
         <v>15338.48</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>232.0296385162291</v>
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>7702.970000000001</v>
+        <v>7702.969999999999</v>
       </c>
       <c r="G35" t="n">
         <v>1443.35615960896</v>
@@ -3089,13 +3089,13 @@
         <v>1471.35615960896</v>
       </c>
       <c r="L35" t="n">
-        <v>303.4118900747066</v>
+        <v>303.4118900747067</v>
       </c>
       <c r="M35" t="n">
         <v>60</v>
       </c>
       <c r="N35" t="n">
-        <v>243.4118900747066</v>
+        <v>243.4118900747067</v>
       </c>
       <c r="O35" t="n">
         <v>0.7071999999999999</v>
@@ -3302,7 +3302,7 @@
         <v>2528.13</v>
       </c>
       <c r="G38" t="n">
-        <v>896.2349217296294</v>
+        <v>896.2349217296295</v>
       </c>
       <c r="H38" t="n">
         <v>28</v>
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>924.2349217296294</v>
+        <v>924.2349217296295</v>
       </c>
       <c r="L38" t="n">
         <v>251.5127305680064</v>
@@ -3378,7 +3378,7 @@
         <v>1658.22</v>
       </c>
       <c r="G39" t="n">
-        <v>853.0950919052515</v>
+        <v>853.0950919052514</v>
       </c>
       <c r="H39" t="n">
         <v>28</v>
@@ -3390,16 +3390,16 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>881.0950919052515</v>
+        <v>881.0950919052514</v>
       </c>
       <c r="L39" t="n">
-        <v>304.188855932925</v>
+        <v>304.1888559329249</v>
       </c>
       <c r="M39" t="n">
         <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>244.188855932925</v>
+        <v>244.1888559329249</v>
       </c>
       <c r="O39" t="n">
         <v>0.4433</v>
@@ -3408,7 +3408,7 @@
         <v>3770</v>
       </c>
       <c r="Q39" t="n">
-        <v>408098.4277781976</v>
+        <v>408098.4277781973</v>
       </c>
       <c r="R39" t="n">
         <v>5720</v>
@@ -3469,13 +3469,13 @@
         <v>967.5932412909507</v>
       </c>
       <c r="L40" t="n">
-        <v>310.5825169462245</v>
+        <v>310.5825169462246</v>
       </c>
       <c r="M40" t="n">
         <v>60</v>
       </c>
       <c r="N40" t="n">
-        <v>250.5825169462245</v>
+        <v>250.5825169462246</v>
       </c>
       <c r="O40" t="n">
         <v>0.429</v>
@@ -3484,7 +3484,7 @@
         <v>3190</v>
       </c>
       <c r="Q40" t="n">
-        <v>342924.6802660777</v>
+        <v>342924.6802660778</v>
       </c>
       <c r="R40" t="n">
         <v>4840</v>
@@ -3530,7 +3530,7 @@
         <v>1741.5</v>
       </c>
       <c r="G41" t="n">
-        <v>983.1176150058773</v>
+        <v>983.1176150058775</v>
       </c>
       <c r="H41" t="n">
         <v>28</v>
@@ -3545,13 +3545,13 @@
         <v>1011.117615005877</v>
       </c>
       <c r="L41" t="n">
-        <v>406.1145286749554</v>
+        <v>406.1145286749556</v>
       </c>
       <c r="M41" t="n">
         <v>60</v>
       </c>
       <c r="N41" t="n">
-        <v>346.1145286749554</v>
+        <v>346.1145286749556</v>
       </c>
       <c r="O41" t="n">
         <v>0.6236</v>
@@ -3560,7 +3560,7 @@
         <v>2320</v>
       </c>
       <c r="Q41" t="n">
-        <v>500741.8865895491</v>
+        <v>500741.8865895494</v>
       </c>
       <c r="R41" t="n">
         <v>3520</v>
@@ -3679,7 +3679,7 @@
         <v>9</v>
       </c>
       <c r="F43" t="n">
-        <v>821.3500000000001</v>
+        <v>821.35</v>
       </c>
       <c r="G43" t="n">
         <v>938.8657931570843</v>
@@ -3697,13 +3697,13 @@
         <v>966.8657931570843</v>
       </c>
       <c r="L43" t="n">
-        <v>394.7445055629775</v>
+        <v>394.7445055629776</v>
       </c>
       <c r="M43" t="n">
         <v>60</v>
       </c>
       <c r="N43" t="n">
-        <v>334.7445055629775</v>
+        <v>334.7445055629776</v>
       </c>
       <c r="O43" t="n">
         <v>0.2379</v>
@@ -3712,7 +3712,7 @@
         <v>3480</v>
       </c>
       <c r="Q43" t="n">
-        <v>277132.2981995446</v>
+        <v>277132.2981995447</v>
       </c>
       <c r="R43" t="n">
         <v>5280</v>
@@ -3758,7 +3758,7 @@
         <v>1134.98</v>
       </c>
       <c r="G44" t="n">
-        <v>1330.536417297203</v>
+        <v>1330.536417297202</v>
       </c>
       <c r="H44" t="n">
         <v>28</v>
@@ -3770,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>1358.536417297203</v>
+        <v>1358.536417297202</v>
       </c>
       <c r="L44" t="n">
         <v>382.2498231811138</v>
@@ -3788,7 +3788,7 @@
         <v>3190</v>
       </c>
       <c r="Q44" t="n">
-        <v>137646.1117234041</v>
+        <v>137646.1117234042</v>
       </c>
       <c r="R44" t="n">
         <v>4840</v>
@@ -3840,7 +3840,7 @@
         <v>28</v>
       </c>
       <c r="I45" t="n">
-        <v>3466.959999999999</v>
+        <v>3466.96</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -3916,7 +3916,7 @@
         <v>28</v>
       </c>
       <c r="I46" t="n">
-        <v>8435.999999999998</v>
+        <v>8436</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -3940,7 +3940,7 @@
         <v>11178</v>
       </c>
       <c r="Q46" t="n">
-        <v>618838.4088576684</v>
+        <v>618838.4088576683</v>
       </c>
       <c r="R46" t="n">
         <v>19619</v>
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>8318.900000000003</v>
+        <v>8318.900000000001</v>
       </c>
       <c r="G47" t="n">
         <v>1145.358505178797</v>
@@ -3992,22 +3992,22 @@
         <v>22</v>
       </c>
       <c r="I47" t="n">
-        <v>16637.80000000001</v>
+        <v>16637.8</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
         <v>1167.358505178797</v>
       </c>
       <c r="L47" t="n">
-        <v>421.3896213371567</v>
+        <v>421.3896213371568</v>
       </c>
       <c r="M47" t="n">
         <v>60</v>
       </c>
       <c r="N47" t="n">
-        <v>361.3896213371567</v>
+        <v>361.3896213371568</v>
       </c>
       <c r="O47" t="n">
         <v>0.8454</v>
@@ -4016,7 +4016,7 @@
         <v>23542</v>
       </c>
       <c r="Q47" t="n">
-        <v>7192523.257150052</v>
+        <v>7192523.257150055</v>
       </c>
       <c r="R47" t="n">
         <v>33180</v>
@@ -4059,10 +4059,10 @@
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>5592.569999999999</v>
+        <v>5592.57</v>
       </c>
       <c r="G48" t="n">
-        <v>1126.651843515091</v>
+        <v>1126.65184351509</v>
       </c>
       <c r="H48" t="n">
         <v>22</v>
@@ -4074,16 +4074,16 @@
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1148.651843515091</v>
+        <v>1148.65184351509</v>
       </c>
       <c r="L48" t="n">
-        <v>421.2737166825708</v>
+        <v>421.2737166825707</v>
       </c>
       <c r="M48" t="n">
         <v>60</v>
       </c>
       <c r="N48" t="n">
-        <v>361.2737166825708</v>
+        <v>361.2737166825707</v>
       </c>
       <c r="O48" t="n">
         <v>0.6565000000000001</v>
@@ -4092,7 +4092,7 @@
         <v>21456</v>
       </c>
       <c r="Q48" t="n">
-        <v>5088852.439965224</v>
+        <v>5088852.439965223</v>
       </c>
       <c r="R48" t="n">
         <v>30240</v>
@@ -4135,7 +4135,7 @@
         <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>5742.969999999998</v>
+        <v>5742.969999999999</v>
       </c>
       <c r="G49" t="n">
         <v>1161.737155827104</v>
@@ -4153,13 +4153,13 @@
         <v>1183.737155827104</v>
       </c>
       <c r="L49" t="n">
-        <v>422.7970224836682</v>
+        <v>422.7970224836681</v>
       </c>
       <c r="M49" t="n">
         <v>60</v>
       </c>
       <c r="N49" t="n">
-        <v>362.7970224836682</v>
+        <v>362.7970224836681</v>
       </c>
       <c r="O49" t="n">
         <v>0.6818000000000001</v>
@@ -4168,7 +4168,7 @@
         <v>23840</v>
       </c>
       <c r="Q49" t="n">
-        <v>5896943.436716061</v>
+        <v>5896943.43671606</v>
       </c>
       <c r="R49" t="n">
         <v>33600</v>
@@ -4214,7 +4214,7 @@
         <v>6515.83</v>
       </c>
       <c r="G50" t="n">
-        <v>1210.268629035014</v>
+        <v>1210.268629035013</v>
       </c>
       <c r="H50" t="n">
         <v>22</v>
@@ -4226,16 +4226,16 @@
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>1232.268629035014</v>
+        <v>1232.268629035013</v>
       </c>
       <c r="L50" t="n">
-        <v>416.9437266061728</v>
+        <v>416.9437266061729</v>
       </c>
       <c r="M50" t="n">
         <v>60</v>
       </c>
       <c r="N50" t="n">
-        <v>356.9437266061728</v>
+        <v>356.9437266061729</v>
       </c>
       <c r="O50" t="n">
         <v>0.7521</v>
@@ -4375,19 +4375,19 @@
         <v>8609.82</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v>1208.209360184758</v>
       </c>
       <c r="L52" t="n">
-        <v>433.4718201662686</v>
+        <v>433.4718201662687</v>
       </c>
       <c r="M52" t="n">
         <v>60</v>
       </c>
       <c r="N52" t="n">
-        <v>373.4718201662686</v>
+        <v>373.4718201662687</v>
       </c>
       <c r="O52" t="n">
         <v>0.3737</v>
@@ -4396,7 +4396,7 @@
         <v>20562</v>
       </c>
       <c r="Q52" t="n">
-        <v>2869764.711510919</v>
+        <v>2869764.71151092</v>
       </c>
       <c r="R52" t="n">
         <v>28980</v>
@@ -4515,7 +4515,7 @@
         <v>8</v>
       </c>
       <c r="F54" t="n">
-        <v>9661.189999999999</v>
+        <v>9661.190000000001</v>
       </c>
       <c r="G54" t="n">
         <v>1365.377829003535</v>
@@ -4591,7 +4591,7 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>3620.989999999999</v>
+        <v>3620.99</v>
       </c>
       <c r="G55" t="n">
         <v>1188.934990607302</v>
@@ -4600,7 +4600,7 @@
         <v>22</v>
       </c>
       <c r="I55" t="n">
-        <v>7241.979999999998</v>
+        <v>7241.98</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -4609,13 +4609,13 @@
         <v>1210.934990607302</v>
       </c>
       <c r="L55" t="n">
-        <v>422.1908101845312</v>
+        <v>422.190810184531</v>
       </c>
       <c r="M55" t="n">
         <v>60</v>
       </c>
       <c r="N55" t="n">
-        <v>362.1908101845312</v>
+        <v>362.190810184531</v>
       </c>
       <c r="O55" t="n">
         <v>0.4699</v>
@@ -4624,7 +4624,7 @@
         <v>14766</v>
       </c>
       <c r="Q55" t="n">
-        <v>2513076.655546532</v>
+        <v>2513076.655546531</v>
       </c>
       <c r="R55" t="n">
         <v>20520</v>
@@ -4676,7 +4676,7 @@
         <v>22</v>
       </c>
       <c r="I56" t="n">
-        <v>6219.380000000002</v>
+        <v>6219.380000000001</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -4685,13 +4685,13 @@
         <v>1072.336960133333</v>
       </c>
       <c r="L56" t="n">
-        <v>383.7917000614158</v>
+        <v>383.7917000614159</v>
       </c>
       <c r="M56" t="n">
         <v>60</v>
       </c>
       <c r="N56" t="n">
-        <v>323.7917000614158</v>
+        <v>323.7917000614159</v>
       </c>
       <c r="O56" t="n">
         <v>0.2327</v>
@@ -4700,7 +4700,7 @@
         <v>21559</v>
       </c>
       <c r="Q56" t="n">
-        <v>1624391.498379919</v>
+        <v>1624391.49837992</v>
       </c>
       <c r="R56" t="n">
         <v>28140</v>
@@ -4819,7 +4819,7 @@
         <v>12</v>
       </c>
       <c r="F58" t="n">
-        <v>4060.059999999999</v>
+        <v>4060.06</v>
       </c>
       <c r="G58" t="n">
         <v>1221.599867069141</v>
@@ -4828,7 +4828,7 @@
         <v>22</v>
       </c>
       <c r="I58" t="n">
-        <v>8120.119999999998</v>
+        <v>8120.120000000001</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -4837,13 +4837,13 @@
         <v>1243.599867069141</v>
       </c>
       <c r="L58" t="n">
-        <v>436.2008441882926</v>
+        <v>436.2008441882924</v>
       </c>
       <c r="M58" t="n">
         <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>376.2008441882926</v>
+        <v>376.2008441882924</v>
       </c>
       <c r="O58" t="n">
         <v>0.3236</v>
@@ -4852,7 +4852,7 @@
         <v>28098</v>
       </c>
       <c r="Q58" t="n">
-        <v>3420610.991152856</v>
+        <v>3420610.991152854</v>
       </c>
       <c r="R58" t="n">
         <v>34530</v>
@@ -5135,7 +5135,7 @@
         <v>16870.04</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>691.2373924720769</v>
@@ -5883,10 +5883,10 @@
         <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>5963.259999999998</v>
+        <v>5963.26</v>
       </c>
       <c r="G72" t="n">
-        <v>958.8335028824122</v>
+        <v>958.8335028824121</v>
       </c>
       <c r="H72" t="n">
         <v>28</v>
@@ -5895,10 +5895,10 @@
         <v>17889.78</v>
       </c>
       <c r="J72" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>986.8335028824122</v>
+        <v>986.8335028824121</v>
       </c>
       <c r="L72" t="n">
         <v>252.4077314222951</v>
@@ -5962,7 +5962,7 @@
         <v>10993.73</v>
       </c>
       <c r="G73" t="n">
-        <v>1239.912737421155</v>
+        <v>1239.912737421156</v>
       </c>
       <c r="H73" t="n">
         <v>28</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>1267.912737421155</v>
+        <v>1267.912737421156</v>
       </c>
       <c r="L73" t="n">
         <v>302.0677795194989</v>
@@ -6038,7 +6038,7 @@
         <v>8085.629999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>998.5112315353554</v>
+        <v>998.5112315353557</v>
       </c>
       <c r="H74" t="n">
         <v>28</v>
@@ -6050,7 +6050,7 @@
         <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>1026.511231535355</v>
+        <v>1026.511231535356</v>
       </c>
       <c r="L74" t="n">
         <v>257.0448355663071</v>
@@ -6111,7 +6111,7 @@
         <v>5</v>
       </c>
       <c r="F75" t="n">
-        <v>6912.540000000003</v>
+        <v>6912.54</v>
       </c>
       <c r="G75" t="n">
         <v>1193.759172510737</v>
@@ -6120,7 +6120,7 @@
         <v>28</v>
       </c>
       <c r="I75" t="n">
-        <v>20737.62000000001</v>
+        <v>20737.62</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -6187,7 +6187,7 @@
         <v>6</v>
       </c>
       <c r="F76" t="n">
-        <v>6105.029999999999</v>
+        <v>6105.03</v>
       </c>
       <c r="G76" t="n">
         <v>1103.960535770705</v>
@@ -6199,7 +6199,7 @@
         <v>18315.09</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
         <v>1131.960535770705</v>
@@ -6263,7 +6263,7 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>5517.070000000002</v>
+        <v>5517.070000000001</v>
       </c>
       <c r="G77" t="n">
         <v>1158.12398317528</v>
@@ -6272,7 +6272,7 @@
         <v>28</v>
       </c>
       <c r="I77" t="n">
-        <v>16551.21000000001</v>
+        <v>16551.21</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -6281,13 +6281,13 @@
         <v>1186.12398317528</v>
       </c>
       <c r="L77" t="n">
-        <v>302.0934866150155</v>
+        <v>302.0934866150156</v>
       </c>
       <c r="M77" t="n">
         <v>32.88</v>
       </c>
       <c r="N77" t="n">
-        <v>269.2134866150155</v>
+        <v>269.2134866150156</v>
       </c>
       <c r="O77" t="n">
         <v>0.6645</v>
@@ -6339,7 +6339,7 @@
         <v>8</v>
       </c>
       <c r="F78" t="n">
-        <v>9437.690000000002</v>
+        <v>9437.690000000001</v>
       </c>
       <c r="G78" t="n">
         <v>1176.791706585599</v>
@@ -6348,7 +6348,7 @@
         <v>28</v>
       </c>
       <c r="I78" t="n">
-        <v>28313.07000000001</v>
+        <v>28313.07</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -6357,13 +6357,13 @@
         <v>1204.791706585599</v>
       </c>
       <c r="L78" t="n">
-        <v>289.2510941841859</v>
+        <v>289.251094184186</v>
       </c>
       <c r="M78" t="n">
         <v>32.88</v>
       </c>
       <c r="N78" t="n">
-        <v>256.3710941841859</v>
+        <v>256.371094184186</v>
       </c>
       <c r="O78" t="n">
         <v>0.8231000000000001</v>
@@ -6372,7 +6372,7 @@
         <v>12056</v>
       </c>
       <c r="Q78" t="n">
-        <v>2544045.638142929</v>
+        <v>2544045.63814293</v>
       </c>
       <c r="R78" t="n">
         <v>18480</v>
@@ -6415,7 +6415,7 @@
         <v>9</v>
       </c>
       <c r="F79" t="n">
-        <v>6990.389999999999</v>
+        <v>6990.39</v>
       </c>
       <c r="G79" t="n">
         <v>1067.251076872856</v>
@@ -6567,7 +6567,7 @@
         <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>7404.500000000002</v>
+        <v>7404.5</v>
       </c>
       <c r="G81" t="n">
         <v>1326.154019276188</v>
@@ -6576,7 +6576,7 @@
         <v>28</v>
       </c>
       <c r="I81" t="n">
-        <v>22213.50000000001</v>
+        <v>22213.5</v>
       </c>
       <c r="J81" t="n">
         <v>0.9999999999999999</v>
@@ -6585,13 +6585,13 @@
         <v>1354.154019276188</v>
       </c>
       <c r="L81" t="n">
-        <v>340.7418655760692</v>
+        <v>340.7418655760694</v>
       </c>
       <c r="M81" t="n">
         <v>32.88</v>
       </c>
       <c r="N81" t="n">
-        <v>307.8618655760692</v>
+        <v>307.8618655760694</v>
       </c>
       <c r="O81" t="n">
         <v>0.8841</v>
@@ -6600,7 +6600,7 @@
         <v>8692</v>
       </c>
       <c r="Q81" t="n">
-        <v>2365794.430192637</v>
+        <v>2365794.430192639</v>
       </c>
       <c r="R81" t="n">
         <v>13200</v>
@@ -6643,7 +6643,7 @@
         <v>12</v>
       </c>
       <c r="F82" t="n">
-        <v>6780.869999999998</v>
+        <v>6780.87</v>
       </c>
       <c r="G82" t="n">
         <v>1418.866924033816</v>
@@ -6652,7 +6652,7 @@
         <v>28</v>
       </c>
       <c r="I82" t="n">
-        <v>20342.60999999999</v>
+        <v>20342.61</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -6795,7 +6795,7 @@
         <v>12</v>
       </c>
       <c r="F84" t="n">
-        <v>5908.849999999999</v>
+        <v>5908.85</v>
       </c>
       <c r="G84" t="n">
         <v>1401.802078587453</v>
@@ -6883,7 +6883,7 @@
         <v>17885.88</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K85" t="n">
         <v>2978.604096140322</v>
@@ -6904,7 +6904,7 @@
         <v>6293</v>
       </c>
       <c r="Q85" t="n">
-        <v>2450595.560788635</v>
+        <v>2450595.560788634</v>
       </c>
       <c r="R85" t="n">
         <v>13020</v>
@@ -6947,10 +6947,10 @@
         <v>2</v>
       </c>
       <c r="F86" t="n">
-        <v>4460.639999999999</v>
+        <v>4460.64</v>
       </c>
       <c r="G86" t="n">
-        <v>2120.380114334059</v>
+        <v>2120.380114334058</v>
       </c>
       <c r="H86" t="n">
         <v>24</v>
@@ -6962,16 +6962,16 @@
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>2144.380114334059</v>
+        <v>2144.380114334058</v>
       </c>
       <c r="L86" t="n">
-        <v>455.9321393620698</v>
+        <v>455.9321393620696</v>
       </c>
       <c r="M86" t="n">
         <v>25.92</v>
       </c>
       <c r="N86" t="n">
-        <v>430.0121393620698</v>
+        <v>430.0121393620696</v>
       </c>
       <c r="O86" t="n">
         <v>0.9389</v>
@@ -6980,7 +6980,7 @@
         <v>5684</v>
       </c>
       <c r="Q86" t="n">
-        <v>2294849.052225817</v>
+        <v>2294849.052225816</v>
       </c>
       <c r="R86" t="n">
         <v>11760</v>
@@ -7023,10 +7023,10 @@
         <v>3</v>
       </c>
       <c r="F87" t="n">
-        <v>5071.440000000001</v>
+        <v>5071.44</v>
       </c>
       <c r="G87" t="n">
-        <v>3362.38391612708</v>
+        <v>3362.383916127079</v>
       </c>
       <c r="H87" t="n">
         <v>24</v>
@@ -7038,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>3386.38391612708</v>
+        <v>3386.383916127079</v>
       </c>
       <c r="L87" t="n">
         <v>530.2551254952957</v>
@@ -7102,7 +7102,7 @@
         <v>4368.28</v>
       </c>
       <c r="G88" t="n">
-        <v>2020.03904597817</v>
+        <v>2020.039045978171</v>
       </c>
       <c r="H88" t="n">
         <v>24</v>
@@ -7114,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>2044.03904597817</v>
+        <v>2044.039045978171</v>
       </c>
       <c r="L88" t="n">
         <v>519.8108708578359</v>
@@ -7175,7 +7175,7 @@
         <v>5</v>
       </c>
       <c r="F89" t="n">
-        <v>3710.900000000001</v>
+        <v>3710.9</v>
       </c>
       <c r="G89" t="n">
         <v>2969.512847056343</v>
@@ -7187,19 +7187,19 @@
         <v>14843.6</v>
       </c>
       <c r="J89" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>2993.512847056343</v>
       </c>
       <c r="L89" t="n">
-        <v>476.4711741616301</v>
+        <v>476.4711741616302</v>
       </c>
       <c r="M89" t="n">
         <v>25.92</v>
       </c>
       <c r="N89" t="n">
-        <v>450.5511741616301</v>
+        <v>450.5511741616302</v>
       </c>
       <c r="O89" t="n">
         <v>0.7687999999999999</v>
@@ -7208,7 +7208,7 @@
         <v>6293</v>
       </c>
       <c r="Q89" t="n">
-        <v>2179792.892782537</v>
+        <v>2179792.892782538</v>
       </c>
       <c r="R89" t="n">
         <v>13020</v>
@@ -7251,7 +7251,7 @@
         <v>6</v>
       </c>
       <c r="F90" t="n">
-        <v>3470.239999999999</v>
+        <v>3470.24</v>
       </c>
       <c r="G90" t="n">
         <v>3399.523200107554</v>
@@ -7269,13 +7269,13 @@
         <v>3423.523200107554</v>
       </c>
       <c r="L90" t="n">
-        <v>528.6438566611743</v>
+        <v>528.6438566611741</v>
       </c>
       <c r="M90" t="n">
         <v>25.92</v>
       </c>
       <c r="N90" t="n">
-        <v>502.7238566611742</v>
+        <v>502.7238566611741</v>
       </c>
       <c r="O90" t="n">
         <v>0.7835</v>
@@ -7284,7 +7284,7 @@
         <v>6090</v>
       </c>
       <c r="Q90" t="n">
-        <v>2398754.422916643</v>
+        <v>2398754.422916642</v>
       </c>
       <c r="R90" t="n">
         <v>12600</v>
@@ -7327,7 +7327,7 @@
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>4251.900000000001</v>
+        <v>4251.9</v>
       </c>
       <c r="G91" t="n">
         <v>3278.357390446029</v>
@@ -7339,19 +7339,19 @@
         <v>17007.6</v>
       </c>
       <c r="J91" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
         <v>3302.357390446029</v>
       </c>
       <c r="L91" t="n">
-        <v>567.9502320581439</v>
+        <v>567.950232058144</v>
       </c>
       <c r="M91" t="n">
         <v>25.92</v>
       </c>
       <c r="N91" t="n">
-        <v>542.030232058144</v>
+        <v>542.0302320581441</v>
       </c>
       <c r="O91" t="n">
         <v>0.8654999999999999</v>
@@ -7360,7 +7360,7 @@
         <v>6293</v>
       </c>
       <c r="Q91" t="n">
-        <v>2952217.254670914</v>
+        <v>2952217.254670915</v>
       </c>
       <c r="R91" t="n">
         <v>13020</v>
@@ -7415,19 +7415,19 @@
         <v>19881.8</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K92" t="n">
         <v>2916.034308687887</v>
       </c>
       <c r="L92" t="n">
-        <v>542.3222024381295</v>
+        <v>542.3222024381296</v>
       </c>
       <c r="M92" t="n">
         <v>25.92</v>
       </c>
       <c r="N92" t="n">
-        <v>516.4022024381295</v>
+        <v>516.4022024381296</v>
       </c>
       <c r="O92" t="n">
         <v>0.9342</v>
@@ -7491,19 +7491,19 @@
         <v>19374.64</v>
       </c>
       <c r="J93" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
         <v>3682.704098254521</v>
       </c>
       <c r="L93" t="n">
-        <v>532.3214728481307</v>
+        <v>532.3214728481308</v>
       </c>
       <c r="M93" t="n">
         <v>25.92</v>
       </c>
       <c r="N93" t="n">
-        <v>506.4014728481307</v>
+        <v>506.4014728481308</v>
       </c>
       <c r="O93" t="n">
         <v>0.9274</v>
@@ -7555,7 +7555,7 @@
         <v>10</v>
       </c>
       <c r="F94" t="n">
-        <v>4641.099999999999</v>
+        <v>4641.1</v>
       </c>
       <c r="G94" t="n">
         <v>1990.830330747147</v>
@@ -7567,19 +7567,19 @@
         <v>18564.4</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K94" t="n">
         <v>2014.830330747147</v>
       </c>
       <c r="L94" t="n">
-        <v>557.8847188397572</v>
+        <v>557.8847188397571</v>
       </c>
       <c r="M94" t="n">
         <v>25.92</v>
       </c>
       <c r="N94" t="n">
-        <v>531.9647188397572</v>
+        <v>531.9647188397571</v>
       </c>
       <c r="O94" t="n">
         <v>0.8713</v>
@@ -7588,7 +7588,7 @@
         <v>6293</v>
       </c>
       <c r="Q94" t="n">
-        <v>2916810.908991331</v>
+        <v>2916810.90899133</v>
       </c>
       <c r="R94" t="n">
         <v>13020</v>
@@ -7643,19 +7643,19 @@
         <v>18299.04</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K95" t="n">
         <v>2154.87999352408</v>
       </c>
       <c r="L95" t="n">
-        <v>576.9189186635507</v>
+        <v>576.9189186635508</v>
       </c>
       <c r="M95" t="n">
         <v>25.92</v>
       </c>
       <c r="N95" t="n">
-        <v>550.9989186635507</v>
+        <v>550.9989186635509</v>
       </c>
       <c r="O95" t="n">
         <v>0.8909999999999999</v>
@@ -7664,7 +7664,7 @@
         <v>6090</v>
       </c>
       <c r="Q95" t="n">
-        <v>2989824.822462972</v>
+        <v>2989824.822462973</v>
       </c>
       <c r="R95" t="n">
         <v>12600</v>
@@ -7707,10 +7707,10 @@
         <v>12</v>
       </c>
       <c r="F96" t="n">
-        <v>3695.040000000001</v>
+        <v>3695.04</v>
       </c>
       <c r="G96" t="n">
-        <v>2074.674696416173</v>
+        <v>2074.674696416174</v>
       </c>
       <c r="H96" t="n">
         <v>24</v>
@@ -7719,19 +7719,19 @@
         <v>11085.12</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>2098.674696416173</v>
+        <v>2098.674696416174</v>
       </c>
       <c r="L96" t="n">
-        <v>570.6935750208418</v>
+        <v>570.6935750208419</v>
       </c>
       <c r="M96" t="n">
         <v>25.92</v>
       </c>
       <c r="N96" t="n">
-        <v>544.7735750208418</v>
+        <v>544.7735750208419</v>
       </c>
       <c r="O96" t="n">
         <v>0.8401999999999999</v>
@@ -7801,13 +7801,13 @@
         <v>1192.664942821936</v>
       </c>
       <c r="L97" t="n">
-        <v>269.539192687284</v>
+        <v>269.5391926872839</v>
       </c>
       <c r="M97" t="n">
         <v>25.92</v>
       </c>
       <c r="N97" t="n">
-        <v>243.619192687284</v>
+        <v>243.6191926872839</v>
       </c>
       <c r="O97" t="n">
         <v>0.7448999999999999</v>
@@ -7816,7 +7816,7 @@
         <v>21680</v>
       </c>
       <c r="Q97" t="n">
-        <v>3934311.586198189</v>
+        <v>3934311.586198188</v>
       </c>
       <c r="R97" t="n">
         <v>36563</v>
@@ -7944,16 +7944,16 @@
         <v>28</v>
       </c>
       <c r="I99" t="n">
-        <v>51561.84000000001</v>
+        <v>51561.84</v>
       </c>
       <c r="J99" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>1495.318341821238</v>
       </c>
       <c r="L99" t="n">
-        <v>374.5937910527902</v>
+        <v>374.5937910527903</v>
       </c>
       <c r="M99" t="n">
         <v>25.92</v>
@@ -8044,7 +8044,7 @@
         <v>20602</v>
       </c>
       <c r="Q100" t="n">
-        <v>3671272.729955831</v>
+        <v>3671272.72995583</v>
       </c>
       <c r="R100" t="n">
         <v>34830</v>
@@ -8056,7 +8056,7 @@
         <v>1.690612561887195</v>
       </c>
       <c r="U100" t="n">
-        <v>7.181738018962561</v>
+        <v>7.18173801896256</v>
       </c>
       <c r="V100" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>28</v>
       </c>
       <c r="I101" t="n">
-        <v>30040.98000000001</v>
+        <v>30040.98</v>
       </c>
       <c r="J101" t="n">
         <v>0.9999999999999999</v>
@@ -8175,13 +8175,13 @@
         <v>25154.61</v>
       </c>
       <c r="J102" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K102" t="n">
         <v>1402.851993977595</v>
       </c>
       <c r="L102" t="n">
-        <v>305.9936214318202</v>
+        <v>305.9936214318203</v>
       </c>
       <c r="M102" t="n">
         <v>25.92</v>
@@ -8239,7 +8239,7 @@
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>9301.570000000003</v>
+        <v>9301.57</v>
       </c>
       <c r="G103" t="n">
         <v>1383.333915020353</v>
@@ -8248,22 +8248,22 @@
         <v>28</v>
       </c>
       <c r="I103" t="n">
-        <v>27904.71000000001</v>
+        <v>27904.71</v>
       </c>
       <c r="J103" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
         <v>1411.333915020353</v>
       </c>
       <c r="L103" t="n">
-        <v>325.213387627537</v>
+        <v>325.2133876275371</v>
       </c>
       <c r="M103" t="n">
         <v>25.92</v>
       </c>
       <c r="N103" t="n">
-        <v>299.293387627537</v>
+        <v>299.2933876275371</v>
       </c>
       <c r="O103" t="n">
         <v>0.6792</v>
@@ -8394,28 +8394,28 @@
         <v>11586.75</v>
       </c>
       <c r="G105" t="n">
-        <v>1382.251469116803</v>
+        <v>1382.251469116804</v>
       </c>
       <c r="H105" t="n">
         <v>28</v>
       </c>
       <c r="I105" t="n">
-        <v>34760.25000000001</v>
+        <v>34760.25</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>1410.251469116803</v>
+        <v>1410.251469116804</v>
       </c>
       <c r="L105" t="n">
-        <v>333.1707546417913</v>
+        <v>333.1707546417915</v>
       </c>
       <c r="M105" t="n">
         <v>25.92</v>
       </c>
       <c r="N105" t="n">
-        <v>307.2507546417913</v>
+        <v>307.2507546417914</v>
       </c>
       <c r="O105" t="n">
         <v>0.8615</v>
@@ -8424,7 +8424,7 @@
         <v>14602</v>
       </c>
       <c r="Q105" t="n">
-        <v>3865098.659859235</v>
+        <v>3865098.659859237</v>
       </c>
       <c r="R105" t="n">
         <v>22440</v>
@@ -8485,13 +8485,13 @@
         <v>1436.959617052085</v>
       </c>
       <c r="L106" t="n">
-        <v>354.0682861573086</v>
+        <v>354.0682861573087</v>
       </c>
       <c r="M106" t="n">
         <v>25.92</v>
       </c>
       <c r="N106" t="n">
-        <v>328.1482861573086</v>
+        <v>328.1482861573087</v>
       </c>
       <c r="O106" t="n">
         <v>0.8332999999999999</v>
@@ -8546,7 +8546,7 @@
         <v>12525.31</v>
       </c>
       <c r="G107" t="n">
-        <v>1406.503085550596</v>
+        <v>1406.503085550597</v>
       </c>
       <c r="H107" t="n">
         <v>28</v>
@@ -8558,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>1434.503085550596</v>
+        <v>1434.503085550597</v>
       </c>
       <c r="L107" t="n">
         <v>388.4957004053541</v>
@@ -8628,10 +8628,10 @@
         <v>28</v>
       </c>
       <c r="I108" t="n">
-        <v>35751.75000000001</v>
+        <v>35751.75</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K108" t="n">
         <v>1498.911259581936</v>
@@ -8780,7 +8780,7 @@
         <v>26</v>
       </c>
       <c r="I110" t="n">
-        <v>4979.320000000001</v>
+        <v>4979.32</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -8789,13 +8789,13 @@
         <v>1336.40383101464</v>
       </c>
       <c r="L110" t="n">
-        <v>403.0883796267244</v>
+        <v>403.0883796267245</v>
       </c>
       <c r="M110" t="n">
         <v>25.92</v>
       </c>
       <c r="N110" t="n">
-        <v>377.1683796267244</v>
+        <v>377.1683796267245</v>
       </c>
       <c r="O110" t="n">
         <v>0.7572</v>
@@ -8804,7 +8804,7 @@
         <v>6720</v>
       </c>
       <c r="Q110" t="n">
-        <v>1919177.54819855</v>
+        <v>1919177.548198551</v>
       </c>
       <c r="R110" t="n">
         <v>10668</v>
@@ -8847,7 +8847,7 @@
         <v>3</v>
       </c>
       <c r="F111" t="n">
-        <v>3253.039999999999</v>
+        <v>3253.04</v>
       </c>
       <c r="G111" t="n">
         <v>1625.655659940132</v>
@@ -8856,7 +8856,7 @@
         <v>26</v>
       </c>
       <c r="I111" t="n">
-        <v>6506.079999999998</v>
+        <v>6506.08</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
@@ -8865,13 +8865,13 @@
         <v>1651.655659940132</v>
       </c>
       <c r="L111" t="n">
-        <v>500.5890573645711</v>
+        <v>500.5890573645709</v>
       </c>
       <c r="M111" t="n">
         <v>25.92</v>
       </c>
       <c r="N111" t="n">
-        <v>474.6690573645711</v>
+        <v>474.6690573645709</v>
       </c>
       <c r="O111" t="n">
         <v>0.7437999999999999</v>
@@ -8880,7 +8880,7 @@
         <v>7440</v>
       </c>
       <c r="Q111" t="n">
-        <v>2626757.805816194</v>
+        <v>2626757.805816192</v>
       </c>
       <c r="R111" t="n">
         <v>11811</v>
@@ -8926,7 +8926,7 @@
         <v>2582.05</v>
       </c>
       <c r="G112" t="n">
-        <v>1547.505858264346</v>
+        <v>1547.505858264345</v>
       </c>
       <c r="H112" t="n">
         <v>26</v>
@@ -8938,7 +8938,7 @@
         <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>1573.505858264346</v>
+        <v>1573.505858264345</v>
       </c>
       <c r="L112" t="n">
         <v>458.3344788851184</v>
@@ -9151,7 +9151,7 @@
         <v>7</v>
       </c>
       <c r="F115" t="n">
-        <v>2515.599999999999</v>
+        <v>2515.6</v>
       </c>
       <c r="G115" t="n">
         <v>1436.813119708154</v>
@@ -9160,7 +9160,7 @@
         <v>26</v>
       </c>
       <c r="I115" t="n">
-        <v>5031.199999999999</v>
+        <v>5031.2</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
@@ -9169,13 +9169,13 @@
         <v>1462.813119708154</v>
       </c>
       <c r="L115" t="n">
-        <v>401.356315660962</v>
+        <v>401.3563156609619</v>
       </c>
       <c r="M115" t="n">
         <v>25.92</v>
       </c>
       <c r="N115" t="n">
-        <v>375.436315660962</v>
+        <v>375.4363156609618</v>
       </c>
       <c r="O115" t="n">
         <v>0.7985</v>
@@ -9184,7 +9184,7 @@
         <v>7626</v>
       </c>
       <c r="Q115" t="n">
-        <v>2286167.258569551</v>
+        <v>2286167.25856955</v>
       </c>
       <c r="R115" t="n">
         <v>13020</v>
@@ -9303,7 +9303,7 @@
         <v>9</v>
       </c>
       <c r="F117" t="n">
-        <v>2697.089999999999</v>
+        <v>2697.09</v>
       </c>
       <c r="G117" t="n">
         <v>1587.114627066492</v>
@@ -9312,7 +9312,7 @@
         <v>26</v>
       </c>
       <c r="I117" t="n">
-        <v>5394.179999999998</v>
+        <v>5394.18</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
@@ -9321,13 +9321,13 @@
         <v>1613.114627066492</v>
       </c>
       <c r="L117" t="n">
-        <v>492.9807722377541</v>
+        <v>492.980772237754</v>
       </c>
       <c r="M117" t="n">
         <v>25.92</v>
       </c>
       <c r="N117" t="n">
-        <v>467.0607722377541</v>
+        <v>467.060772237754</v>
       </c>
       <c r="O117" t="n">
         <v>0.8371999999999999</v>
@@ -9336,7 +9336,7 @@
         <v>6450</v>
       </c>
       <c r="Q117" t="n">
-        <v>2522100.146437538</v>
+        <v>2522100.146437537</v>
       </c>
       <c r="R117" t="n">
         <v>12600</v>
@@ -9388,22 +9388,22 @@
         <v>26</v>
       </c>
       <c r="I118" t="n">
-        <v>8378.790000000001</v>
+        <v>8378.789999999999</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>2057.990719480866</v>
+        <v>2057.990719480865</v>
       </c>
       <c r="L118" t="n">
-        <v>435.2686727579151</v>
+        <v>435.2686727579152</v>
       </c>
       <c r="M118" t="n">
         <v>25.92</v>
       </c>
       <c r="N118" t="n">
-        <v>409.3486727579151</v>
+        <v>409.3486727579152</v>
       </c>
       <c r="O118" t="n">
         <v>0.7254</v>
@@ -9412,7 +9412,7 @@
         <v>7533</v>
       </c>
       <c r="Q118" t="n">
-        <v>2236860.52453765</v>
+        <v>2236860.524537651</v>
       </c>
       <c r="R118" t="n">
         <v>13020</v>
@@ -9467,7 +9467,7 @@
         <v>12423.48</v>
       </c>
       <c r="J119" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K119" t="n">
         <v>2145.551664563788</v>
@@ -9531,7 +9531,7 @@
         <v>12</v>
       </c>
       <c r="F120" t="n">
-        <v>3467.09</v>
+        <v>3467.090000000001</v>
       </c>
       <c r="G120" t="n">
         <v>2163.898575886591</v>
@@ -9549,13 +9549,13 @@
         <v>2189.898575886591</v>
       </c>
       <c r="L120" t="n">
-        <v>399.6206803051143</v>
+        <v>399.6206803051142</v>
       </c>
       <c r="M120" t="n">
         <v>25.92</v>
       </c>
       <c r="N120" t="n">
-        <v>373.7006803051143</v>
+        <v>373.7006803051142</v>
       </c>
       <c r="O120" t="n">
         <v>0.8423</v>
@@ -9616,7 +9616,7 @@
         <v>25</v>
       </c>
       <c r="I121" t="n">
-        <v>4767.6</v>
+        <v>4767.599999999999</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -9692,7 +9692,7 @@
         <v>25</v>
       </c>
       <c r="I122" t="n">
-        <v>3914.280000000001</v>
+        <v>3914.28</v>
       </c>
       <c r="J122" t="n">
         <v>0.9999999999999999</v>
@@ -9701,7 +9701,7 @@
         <v>1358.71006112044</v>
       </c>
       <c r="L122" t="n">
-        <v>251.4820062498649</v>
+        <v>251.482006249865</v>
       </c>
       <c r="M122" t="n">
         <v>34.08</v>
@@ -10248,7 +10248,7 @@
         <v>5418</v>
       </c>
       <c r="Q129" t="n">
-        <v>655484.0094783726</v>
+        <v>655484.0094783729</v>
       </c>
       <c r="R129" t="n">
         <v>7920</v>
@@ -10291,10 +10291,10 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>6781.19</v>
+        <v>6781.190000000001</v>
       </c>
       <c r="G130" t="n">
-        <v>310.0710628041375</v>
+        <v>310.0710628041374</v>
       </c>
       <c r="H130" t="n">
         <v>72</v>
@@ -10306,7 +10306,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>382.0710628041375</v>
+        <v>382.0710628041374</v>
       </c>
       <c r="L130" t="n">
         <v>187.8357074601304</v>
@@ -10315,7 +10315,7 @@
         <v>34.08</v>
       </c>
       <c r="N130" t="n">
-        <v>153.7557074601305</v>
+        <v>153.7557074601304</v>
       </c>
       <c r="O130" t="n">
         <v>0.5913</v>
@@ -10367,7 +10367,7 @@
         <v>2</v>
       </c>
       <c r="F131" t="n">
-        <v>7206.889999999999</v>
+        <v>7206.89</v>
       </c>
       <c r="G131" t="n">
         <v>331.19433453968</v>
@@ -11127,7 +11127,7 @@
         <v>12</v>
       </c>
       <c r="F141" t="n">
-        <v>9106.520000000002</v>
+        <v>9106.52</v>
       </c>
       <c r="G141" t="n">
         <v>315.1315772447076</v>
@@ -11145,7 +11145,7 @@
         <v>387.1315772447076</v>
       </c>
       <c r="L141" t="n">
-        <v>176.5226299730701</v>
+        <v>176.5226299730702</v>
       </c>
       <c r="M141" t="n">
         <v>34.08</v>
@@ -11227,7 +11227,7 @@
         <v>34.08</v>
       </c>
       <c r="N142" t="n">
-        <v>197.0751845992806</v>
+        <v>197.0751845992807</v>
       </c>
       <c r="O142" t="n">
         <v>0.7898999999999999</v>
@@ -11236,7 +11236,7 @@
         <v>8990</v>
       </c>
       <c r="Q142" t="n">
-        <v>1399470.497951596</v>
+        <v>1399470.497951597</v>
       </c>
       <c r="R142" t="n">
         <v>13640</v>
@@ -11279,22 +11279,22 @@
         <v>2</v>
       </c>
       <c r="F143" t="n">
-        <v>7107.700000000003</v>
+        <v>7107.7</v>
       </c>
       <c r="G143" t="n">
-        <v>962.4738240010813</v>
+        <v>962.4738240010817</v>
       </c>
       <c r="H143" t="n">
         <v>28</v>
       </c>
       <c r="I143" t="n">
-        <v>14215.40000000001</v>
+        <v>14215.4</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>990.4738240010813</v>
+        <v>990.4738240010817</v>
       </c>
       <c r="L143" t="n">
         <v>273.7360103088153</v>
@@ -11431,10 +11431,10 @@
         <v>4</v>
       </c>
       <c r="F145" t="n">
-        <v>7628.440000000001</v>
+        <v>7628.44</v>
       </c>
       <c r="G145" t="n">
-        <v>935.7240962723495</v>
+        <v>935.7240962723492</v>
       </c>
       <c r="H145" t="n">
         <v>28</v>
@@ -11443,10 +11443,10 @@
         <v>22885.32</v>
       </c>
       <c r="J145" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K145" t="n">
-        <v>963.7240962723495</v>
+        <v>963.7240962723492</v>
       </c>
       <c r="L145" t="n">
         <v>233.5264580266301</v>
@@ -11507,10 +11507,10 @@
         <v>5</v>
       </c>
       <c r="F146" t="n">
-        <v>6579.509999999999</v>
+        <v>6579.51</v>
       </c>
       <c r="G146" t="n">
-        <v>706.1213269182761</v>
+        <v>706.1213269182757</v>
       </c>
       <c r="H146" t="n">
         <v>28</v>
@@ -11522,7 +11522,7 @@
         <v>1</v>
       </c>
       <c r="K146" t="n">
-        <v>734.1213269182761</v>
+        <v>734.1213269182757</v>
       </c>
       <c r="L146" t="n">
         <v>224.2169651589178</v>
@@ -11583,10 +11583,10 @@
         <v>6</v>
       </c>
       <c r="F147" t="n">
-        <v>5522.319999999999</v>
+        <v>5522.320000000001</v>
       </c>
       <c r="G147" t="n">
-        <v>803.0349149705899</v>
+        <v>803.0349149705896</v>
       </c>
       <c r="H147" t="n">
         <v>28</v>
@@ -11595,19 +11595,19 @@
         <v>11044.64</v>
       </c>
       <c r="J147" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K147" t="n">
-        <v>831.0349149705899</v>
+        <v>831.0349149705896</v>
       </c>
       <c r="L147" t="n">
-        <v>249.3952386311841</v>
+        <v>249.395238631184</v>
       </c>
       <c r="M147" t="n">
         <v>34.08</v>
       </c>
       <c r="N147" t="n">
-        <v>215.3152386311841</v>
+        <v>215.315238631184</v>
       </c>
       <c r="O147" t="n">
         <v>0.6639</v>
@@ -11616,7 +11616,7 @@
         <v>8700</v>
       </c>
       <c r="Q147" t="n">
-        <v>1243645.746267016</v>
+        <v>1243645.746267015</v>
       </c>
       <c r="R147" t="n">
         <v>13200</v>
@@ -11659,10 +11659,10 @@
         <v>7</v>
       </c>
       <c r="F148" t="n">
-        <v>6407.719999999998</v>
+        <v>6407.719999999999</v>
       </c>
       <c r="G148" t="n">
-        <v>850.4558869167832</v>
+        <v>850.4558869167835</v>
       </c>
       <c r="H148" t="n">
         <v>28</v>
@@ -11674,16 +11674,16 @@
         <v>1</v>
       </c>
       <c r="K148" t="n">
-        <v>878.4558869167832</v>
+        <v>878.4558869167835</v>
       </c>
       <c r="L148" t="n">
-        <v>241.3991993434261</v>
+        <v>241.399199343426</v>
       </c>
       <c r="M148" t="n">
         <v>34.08</v>
       </c>
       <c r="N148" t="n">
-        <v>207.3191993434261</v>
+        <v>207.319199343426</v>
       </c>
       <c r="O148" t="n">
         <v>0.7570999999999999</v>
@@ -11692,7 +11692,7 @@
         <v>8990</v>
       </c>
       <c r="Q148" t="n">
-        <v>1411082.678747942</v>
+        <v>1411082.678747941</v>
       </c>
       <c r="R148" t="n">
         <v>13640</v>
@@ -11738,7 +11738,7 @@
         <v>7806.66</v>
       </c>
       <c r="G149" t="n">
-        <v>877.628416191361</v>
+        <v>877.6284161913611</v>
       </c>
       <c r="H149" t="n">
         <v>28</v>
@@ -11750,7 +11750,7 @@
         <v>1</v>
       </c>
       <c r="K149" t="n">
-        <v>905.628416191361</v>
+        <v>905.6284161913611</v>
       </c>
       <c r="L149" t="n">
         <v>255.7756231464645</v>
@@ -11811,10 +11811,10 @@
         <v>9</v>
       </c>
       <c r="F150" t="n">
-        <v>6991.389999999999</v>
+        <v>6991.39</v>
       </c>
       <c r="G150" t="n">
-        <v>738.4799193847625</v>
+        <v>738.4799193847624</v>
       </c>
       <c r="H150" t="n">
         <v>28</v>
@@ -11826,7 +11826,7 @@
         <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>766.4799193847625</v>
+        <v>766.4799193847624</v>
       </c>
       <c r="L150" t="n">
         <v>217.2684143469973</v>
@@ -11887,7 +11887,7 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>7174.989999999998</v>
+        <v>7174.99</v>
       </c>
       <c r="G151" t="n">
         <v>838.0200781631465</v>
@@ -11905,13 +11905,13 @@
         <v>866.0200781631465</v>
       </c>
       <c r="L151" t="n">
-        <v>239.7175455779459</v>
+        <v>239.7175455779458</v>
       </c>
       <c r="M151" t="n">
         <v>34.08</v>
       </c>
       <c r="N151" t="n">
-        <v>205.6375455779459</v>
+        <v>205.6375455779458</v>
       </c>
       <c r="O151" t="n">
         <v>0.8451000000000001</v>
@@ -11963,7 +11963,7 @@
         <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>6848.199999999997</v>
+        <v>6848.2</v>
       </c>
       <c r="G152" t="n">
         <v>751.2153370763009</v>
@@ -11972,7 +11972,7 @@
         <v>28</v>
       </c>
       <c r="I152" t="n">
-        <v>13696.39999999999</v>
+        <v>13696.4</v>
       </c>
       <c r="J152" t="n">
         <v>1</v>
@@ -11996,7 +11996,7 @@
         <v>8700</v>
       </c>
       <c r="Q152" t="n">
-        <v>1263911.770765767</v>
+        <v>1263911.770765766</v>
       </c>
       <c r="R152" t="n">
         <v>13200</v>
@@ -12039,10 +12039,10 @@
         <v>12</v>
       </c>
       <c r="F153" t="n">
-        <v>7419.450000000002</v>
+        <v>7419.449999999999</v>
       </c>
       <c r="G153" t="n">
-        <v>646.1212820548728</v>
+        <v>646.1212820548729</v>
       </c>
       <c r="H153" t="n">
         <v>28</v>
@@ -12054,7 +12054,7 @@
         <v>1</v>
       </c>
       <c r="K153" t="n">
-        <v>674.1212820548728</v>
+        <v>674.1212820548729</v>
       </c>
       <c r="L153" t="n">
         <v>214.5019936884333</v>
@@ -12063,7 +12063,7 @@
         <v>34.08</v>
       </c>
       <c r="N153" t="n">
-        <v>180.4219936884332</v>
+        <v>180.4219936884334</v>
       </c>
       <c r="O153" t="n">
         <v>0.8665999999999999</v>
@@ -12072,7 +12072,7 @@
         <v>8700</v>
       </c>
       <c r="Q153" t="n">
-        <v>1360277.187654447</v>
+        <v>1360277.187654448</v>
       </c>
       <c r="R153" t="n">
         <v>13200</v>
@@ -13039,19 +13039,19 @@
         <v>26024</v>
       </c>
       <c r="J166" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K166" t="n">
         <v>1304.138176945046</v>
       </c>
       <c r="L166" t="n">
-        <v>236.9210841057452</v>
+        <v>236.9210841057451</v>
       </c>
       <c r="M166" t="n">
         <v>38.1</v>
       </c>
       <c r="N166" t="n">
-        <v>198.8210841057452</v>
+        <v>198.8210841057451</v>
       </c>
       <c r="O166" t="n">
         <v>0.8479000000000001</v>
@@ -13212,7 +13212,7 @@
         <v>8767</v>
       </c>
       <c r="Q168" t="n">
-        <v>861960.6072320208</v>
+        <v>861960.6072320211</v>
       </c>
       <c r="R168" t="n">
         <v>10423</v>
@@ -13258,7 +13258,7 @@
         <v>7034</v>
       </c>
       <c r="G169" t="n">
-        <v>940.0237862011077</v>
+        <v>940.0237862011076</v>
       </c>
       <c r="H169" t="n">
         <v>28</v>
@@ -13270,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="K169" t="n">
-        <v>968.0237862011077</v>
+        <v>968.0237862011076</v>
       </c>
       <c r="L169" t="n">
         <v>214.4036486525677</v>
@@ -13562,7 +13562,7 @@
         <v>6335</v>
       </c>
       <c r="G173" t="n">
-        <v>1320.331273250001</v>
+        <v>1320.33127325</v>
       </c>
       <c r="H173" t="n">
         <v>28</v>
@@ -13574,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="K173" t="n">
-        <v>1348.331273250001</v>
+        <v>1348.33127325</v>
       </c>
       <c r="L173" t="n">
         <v>234.3924803060225</v>
@@ -13647,7 +13647,7 @@
         <v>22936</v>
       </c>
       <c r="J174" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K174" t="n">
         <v>1202.167727809256</v>
@@ -14039,7 +14039,7 @@
         <v>38.1</v>
       </c>
       <c r="N179" t="n">
-        <v>146.3409841970296</v>
+        <v>146.3409841970297</v>
       </c>
       <c r="O179" t="n">
         <v>0.8813</v>
@@ -14048,7 +14048,7 @@
         <v>9306</v>
       </c>
       <c r="Q179" t="n">
-        <v>1200197.699023669</v>
+        <v>1200197.69902367</v>
       </c>
       <c r="R179" t="n">
         <v>10987</v>
@@ -14200,7 +14200,7 @@
         <v>10242</v>
       </c>
       <c r="Q181" t="n">
-        <v>886713.6117221887</v>
+        <v>886713.6117221885</v>
       </c>
       <c r="R181" t="n">
         <v>12239</v>
@@ -14398,7 +14398,7 @@
         <v>7895</v>
       </c>
       <c r="G184" t="n">
-        <v>575.7054923529421</v>
+        <v>575.705492352942</v>
       </c>
       <c r="H184" t="n">
         <v>21</v>
@@ -14410,7 +14410,7 @@
         <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>596.7054923529421</v>
+        <v>596.705492352942</v>
       </c>
       <c r="L184" t="n">
         <v>148.9909663807713</v>
@@ -14571,7 +14571,7 @@
         <v>38.1</v>
       </c>
       <c r="N186" t="n">
-        <v>77.13118397007412</v>
+        <v>77.13118397007415</v>
       </c>
       <c r="O186" t="n">
         <v>0.7418</v>
@@ -14580,7 +14580,7 @@
         <v>10278</v>
       </c>
       <c r="Q186" t="n">
-        <v>588065.1463007921</v>
+        <v>588065.1463007923</v>
       </c>
       <c r="R186" t="n">
         <v>12301</v>
@@ -14808,7 +14808,7 @@
         <v>10584</v>
       </c>
       <c r="Q189" t="n">
-        <v>852412.4230877688</v>
+        <v>852412.4230877686</v>
       </c>
       <c r="R189" t="n">
         <v>12648</v>
@@ -14851,31 +14851,31 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>13033.73999999999</v>
+        <v>13033.74</v>
       </c>
       <c r="G190" t="n">
-        <v>268.4025341985525</v>
+        <v>268.4025341985524</v>
       </c>
       <c r="H190" t="n">
         <v>72</v>
       </c>
       <c r="I190" t="n">
-        <v>26067.47999999999</v>
+        <v>26067.48</v>
       </c>
       <c r="J190" t="n">
         <v>1</v>
       </c>
       <c r="K190" t="n">
-        <v>340.4025341985525</v>
+        <v>340.4025341985524</v>
       </c>
       <c r="L190" t="n">
-        <v>199.4855113435386</v>
+        <v>199.4855113435385</v>
       </c>
       <c r="M190" t="n">
         <v>56.16</v>
       </c>
       <c r="N190" t="n">
-        <v>143.3255113435386</v>
+        <v>143.3255113435385</v>
       </c>
       <c r="O190" t="n">
         <v>0.5872999999999999</v>
@@ -14884,7 +14884,7 @@
         <v>22620</v>
       </c>
       <c r="Q190" t="n">
-        <v>1904040.147008803</v>
+        <v>1904040.147008801</v>
       </c>
       <c r="R190" t="n">
         <v>26400</v>
@@ -14936,16 +14936,16 @@
         <v>72</v>
       </c>
       <c r="I191" t="n">
-        <v>26876.91999999999</v>
+        <v>26876.92</v>
       </c>
       <c r="J191" t="n">
         <v>1</v>
       </c>
       <c r="K191" t="n">
-        <v>341.8910277719252</v>
+        <v>341.8910277719251</v>
       </c>
       <c r="L191" t="n">
-        <v>184.2619343128874</v>
+        <v>184.2619343128873</v>
       </c>
       <c r="M191" t="n">
         <v>56.16</v>
@@ -15079,10 +15079,10 @@
         <v>4</v>
       </c>
       <c r="F193" t="n">
-        <v>9151.1</v>
+        <v>9151.099999999999</v>
       </c>
       <c r="G193" t="n">
-        <v>287.3045127152215</v>
+        <v>287.3045127152216</v>
       </c>
       <c r="H193" t="n">
         <v>72</v>
@@ -15094,7 +15094,7 @@
         <v>1</v>
       </c>
       <c r="K193" t="n">
-        <v>359.3045127152215</v>
+        <v>359.3045127152216</v>
       </c>
       <c r="L193" t="n">
         <v>198.1544975978703</v>
@@ -15231,10 +15231,10 @@
         <v>6</v>
       </c>
       <c r="F195" t="n">
-        <v>7853.429999999998</v>
+        <v>7853.43</v>
       </c>
       <c r="G195" t="n">
-        <v>239.338855028718</v>
+        <v>239.3388550287179</v>
       </c>
       <c r="H195" t="n">
         <v>72</v>
@@ -15316,7 +15316,7 @@
         <v>72</v>
       </c>
       <c r="I196" t="n">
-        <v>36776.72</v>
+        <v>36776.71999999999</v>
       </c>
       <c r="J196" t="n">
         <v>1</v>
@@ -15383,16 +15383,16 @@
         <v>8</v>
       </c>
       <c r="F197" t="n">
-        <v>9206.410000000003</v>
+        <v>9206.41</v>
       </c>
       <c r="G197" t="n">
-        <v>245.0184440631811</v>
+        <v>245.0184440631812</v>
       </c>
       <c r="H197" t="n">
         <v>72</v>
       </c>
       <c r="I197" t="n">
-        <v>18412.82000000001</v>
+        <v>18412.82</v>
       </c>
       <c r="J197" t="n">
         <v>1</v>
@@ -15401,13 +15401,13 @@
         <v>317.0184440631812</v>
       </c>
       <c r="L197" t="n">
-        <v>185.2543659346358</v>
+        <v>185.2543659346359</v>
       </c>
       <c r="M197" t="n">
         <v>56.16</v>
       </c>
       <c r="N197" t="n">
-        <v>129.0943659346358</v>
+        <v>129.0943659346359</v>
       </c>
       <c r="O197" t="n">
         <v>0.8026000000000001</v>
@@ -15416,7 +15416,7 @@
         <v>11687</v>
       </c>
       <c r="Q197" t="n">
-        <v>1210903.370964634</v>
+        <v>1210903.370964635</v>
       </c>
       <c r="R197" t="n">
         <v>13640</v>
@@ -15459,7 +15459,7 @@
         <v>9</v>
       </c>
       <c r="F198" t="n">
-        <v>8573.169999999998</v>
+        <v>8573.17</v>
       </c>
       <c r="G198" t="n">
         <v>225.7107448536278</v>
@@ -15690,28 +15690,28 @@
         <v>13706.83</v>
       </c>
       <c r="G201" t="n">
-        <v>310.244171319734</v>
+        <v>310.2441713197339</v>
       </c>
       <c r="H201" t="n">
         <v>72</v>
       </c>
       <c r="I201" t="n">
-        <v>27413.65999999999</v>
+        <v>27413.66</v>
       </c>
       <c r="J201" t="n">
         <v>1</v>
       </c>
       <c r="K201" t="n">
-        <v>382.2441713197341</v>
+        <v>382.2441713197339</v>
       </c>
       <c r="L201" t="n">
-        <v>242.2234876893447</v>
+        <v>242.2234876893446</v>
       </c>
       <c r="M201" t="n">
         <v>56.16</v>
       </c>
       <c r="N201" t="n">
-        <v>186.0634876893447</v>
+        <v>186.0634876893446</v>
       </c>
       <c r="O201" t="n">
         <v>0.5975</v>
@@ -15720,7 +15720,7 @@
         <v>23374</v>
       </c>
       <c r="Q201" t="n">
-        <v>2598556.156847319</v>
+        <v>2598556.156847318</v>
       </c>
       <c r="R201" t="n">
         <v>27280</v>
@@ -15857,13 +15857,13 @@
         <v>1521.566661262791</v>
       </c>
       <c r="L203" t="n">
-        <v>279.3749023919812</v>
+        <v>279.3749023919813</v>
       </c>
       <c r="M203" t="n">
         <v>56.16</v>
       </c>
       <c r="N203" t="n">
-        <v>223.2149023919812</v>
+        <v>223.2149023919813</v>
       </c>
       <c r="O203" t="n">
         <v>0.9366</v>
@@ -15872,7 +15872,7 @@
         <v>16136</v>
       </c>
       <c r="Q203" t="n">
-        <v>3373441.819836197</v>
+        <v>3373441.819836199</v>
       </c>
       <c r="R203" t="n">
         <v>24640</v>
@@ -15939,7 +15939,7 @@
         <v>56.16</v>
       </c>
       <c r="N204" t="n">
-        <v>211.4926623251309</v>
+        <v>211.4926623251308</v>
       </c>
       <c r="O204" t="n">
         <v>0.8090999999999999</v>
@@ -15948,7 +15948,7 @@
         <v>17856</v>
       </c>
       <c r="Q204" t="n">
-        <v>3055495.740886175</v>
+        <v>3055495.740886174</v>
       </c>
       <c r="R204" t="n">
         <v>27280</v>
@@ -15960,7 +15960,7 @@
         <v>1.527777777777778</v>
       </c>
       <c r="U204" t="n">
-        <v>8.332017249103945</v>
+        <v>8.332017249103943</v>
       </c>
       <c r="V204" t="inlineStr">
         <is>
@@ -15994,19 +15994,19 @@
         <v>14307.67</v>
       </c>
       <c r="G205" t="n">
-        <v>2007.061938121905</v>
+        <v>2007.061938121904</v>
       </c>
       <c r="H205" t="n">
         <v>28</v>
       </c>
       <c r="I205" t="n">
-        <v>42923.01000000001</v>
+        <v>42923.01</v>
       </c>
       <c r="J205" t="n">
         <v>1</v>
       </c>
       <c r="K205" t="n">
-        <v>2035.061938121905</v>
+        <v>2035.061938121904</v>
       </c>
       <c r="L205" t="n">
         <v>308.0406911150059</v>
@@ -16024,7 +16024,7 @@
         <v>17280</v>
       </c>
       <c r="Q205" t="n">
-        <v>3789720.306786279</v>
+        <v>3789720.30678628</v>
       </c>
       <c r="R205" t="n">
         <v>26400</v>
@@ -16067,7 +16067,7 @@
         <v>5</v>
       </c>
       <c r="F206" t="n">
-        <v>14975.95999999999</v>
+        <v>14975.96</v>
       </c>
       <c r="G206" t="n">
         <v>1147.273678711619</v>
@@ -16076,7 +16076,7 @@
         <v>28</v>
       </c>
       <c r="I206" t="n">
-        <v>29951.91999999999</v>
+        <v>29951.92</v>
       </c>
       <c r="J206" t="n">
         <v>1</v>
@@ -16085,13 +16085,13 @@
         <v>1175.273678711619</v>
       </c>
       <c r="L206" t="n">
-        <v>275.2226474631494</v>
+        <v>275.2226474631493</v>
       </c>
       <c r="M206" t="n">
         <v>56.16</v>
       </c>
       <c r="N206" t="n">
-        <v>219.0626474631494</v>
+        <v>219.0626474631493</v>
       </c>
       <c r="O206" t="n">
         <v>0.8865000000000001</v>
@@ -16100,7 +16100,7 @@
         <v>17980</v>
       </c>
       <c r="Q206" t="n">
-        <v>3491698.684829953</v>
+        <v>3491698.684829952</v>
       </c>
       <c r="R206" t="n">
         <v>27280</v>
@@ -16152,7 +16152,7 @@
         <v>28</v>
       </c>
       <c r="I207" t="n">
-        <v>33369.09000000001</v>
+        <v>33369.09</v>
       </c>
       <c r="J207" t="n">
         <v>1</v>
@@ -16161,13 +16161,13 @@
         <v>2353.503517761459</v>
       </c>
       <c r="L207" t="n">
-        <v>293.7620859557229</v>
+        <v>293.762085955723</v>
       </c>
       <c r="M207" t="n">
         <v>56.16</v>
       </c>
       <c r="N207" t="n">
-        <v>237.6020859557229</v>
+        <v>237.602085955723</v>
       </c>
       <c r="O207" t="n">
         <v>0.6878</v>
@@ -16176,7 +16176,7 @@
         <v>17384</v>
       </c>
       <c r="Q207" t="n">
-        <v>2840940.472698498</v>
+        <v>2840940.472698499</v>
       </c>
       <c r="R207" t="n">
         <v>26400</v>
@@ -16237,13 +16237,13 @@
         <v>1631.907600119413</v>
       </c>
       <c r="L208" t="n">
-        <v>305.8580743582276</v>
+        <v>305.8580743582275</v>
       </c>
       <c r="M208" t="n">
         <v>56.16</v>
       </c>
       <c r="N208" t="n">
-        <v>249.6980743582276</v>
+        <v>249.6980743582275</v>
       </c>
       <c r="O208" t="n">
         <v>0.9396</v>
@@ -16252,7 +16252,7 @@
         <v>17980</v>
       </c>
       <c r="Q208" t="n">
-        <v>4218401.265792492</v>
+        <v>4218401.26579249</v>
       </c>
       <c r="R208" t="n">
         <v>27280</v>
@@ -16298,7 +16298,7 @@
         <v>14898.89</v>
       </c>
       <c r="G209" t="n">
-        <v>1566.316644694421</v>
+        <v>1566.31664469442</v>
       </c>
       <c r="H209" t="n">
         <v>28</v>
@@ -16310,16 +16310,16 @@
         <v>1</v>
       </c>
       <c r="K209" t="n">
-        <v>1594.316644694421</v>
+        <v>1594.31664469442</v>
       </c>
       <c r="L209" t="n">
-        <v>275.4468992388322</v>
+        <v>275.4468992388323</v>
       </c>
       <c r="M209" t="n">
         <v>56.16</v>
       </c>
       <c r="N209" t="n">
-        <v>219.2868992388322</v>
+        <v>219.2868992388323</v>
       </c>
       <c r="O209" t="n">
         <v>0.8941</v>
@@ -16328,7 +16328,7 @@
         <v>17976</v>
       </c>
       <c r="Q209" t="n">
-        <v>3524453.952971291</v>
+        <v>3524453.952971292</v>
       </c>
       <c r="R209" t="n">
         <v>27280</v>
@@ -16374,19 +16374,19 @@
         <v>13067.67</v>
       </c>
       <c r="G210" t="n">
-        <v>2464.573711798946</v>
+        <v>2464.573711798945</v>
       </c>
       <c r="H210" t="n">
         <v>28</v>
       </c>
       <c r="I210" t="n">
-        <v>39203.01000000001</v>
+        <v>39203.01</v>
       </c>
       <c r="J210" t="n">
         <v>1</v>
       </c>
       <c r="K210" t="n">
-        <v>2492.573711798946</v>
+        <v>2492.573711798945</v>
       </c>
       <c r="L210" t="n">
         <v>280.4268400313916</v>
@@ -16450,7 +16450,7 @@
         <v>14824.92</v>
       </c>
       <c r="G211" t="n">
-        <v>1301.494827987167</v>
+        <v>1301.494827987168</v>
       </c>
       <c r="H211" t="n">
         <v>28</v>
@@ -16462,16 +16462,16 @@
         <v>1</v>
       </c>
       <c r="K211" t="n">
-        <v>1329.494827987167</v>
+        <v>1329.494827987168</v>
       </c>
       <c r="L211" t="n">
-        <v>307.6296566622747</v>
+        <v>307.6296566622746</v>
       </c>
       <c r="M211" t="n">
         <v>56.16</v>
       </c>
       <c r="N211" t="n">
-        <v>251.4696566622747</v>
+        <v>251.4696566622746</v>
       </c>
       <c r="O211" t="n">
         <v>0.9167000000000001</v>
@@ -16480,7 +16480,7 @@
         <v>17980</v>
       </c>
       <c r="Q211" t="n">
-        <v>4144789.772036284</v>
+        <v>4144789.772036283</v>
       </c>
       <c r="R211" t="n">
         <v>27280</v>
@@ -16608,22 +16608,22 @@
         <v>28</v>
       </c>
       <c r="I213" t="n">
-        <v>35288.99999999999</v>
+        <v>35289.00000000001</v>
       </c>
       <c r="J213" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K213" t="n">
         <v>3024.263848409693</v>
       </c>
       <c r="L213" t="n">
-        <v>313.6441515105224</v>
+        <v>313.6441515105223</v>
       </c>
       <c r="M213" t="n">
         <v>56.16</v>
       </c>
       <c r="N213" t="n">
-        <v>257.4841515105225</v>
+        <v>257.4841515105223</v>
       </c>
       <c r="O213" t="n">
         <v>0.6534</v>
@@ -16632,7 +16632,7 @@
         <v>18496</v>
       </c>
       <c r="Q213" t="n">
-        <v>3111769.714465656</v>
+        <v>3111769.714465655</v>
       </c>
       <c r="R213" t="n">
         <v>28519</v>
@@ -16675,7 +16675,7 @@
         <v>1</v>
       </c>
       <c r="F214" t="n">
-        <v>3083.829999999999</v>
+        <v>3083.83</v>
       </c>
       <c r="G214" t="n">
         <v>1191.637601163942</v>
@@ -16684,7 +16684,7 @@
         <v>22</v>
       </c>
       <c r="I214" t="n">
-        <v>6167.659999999999</v>
+        <v>6167.66</v>
       </c>
       <c r="J214" t="n">
         <v>1</v>
@@ -16699,7 +16699,7 @@
         <v>95.11899999999999</v>
       </c>
       <c r="N214" t="n">
-        <v>301.2241704494525</v>
+        <v>301.2241704494524</v>
       </c>
       <c r="O214" t="n">
         <v>0.8661</v>
@@ -16708,7 +16708,7 @@
         <v>5066</v>
       </c>
       <c r="Q214" t="n">
-        <v>1321670.026897088</v>
+        <v>1321670.026897087</v>
       </c>
       <c r="R214" t="n">
         <v>7140</v>
@@ -16836,7 +16836,7 @@
         <v>22</v>
       </c>
       <c r="I216" t="n">
-        <v>5028.76</v>
+        <v>5028.759999999999</v>
       </c>
       <c r="J216" t="n">
         <v>1</v>
@@ -16845,13 +16845,13 @@
         <v>1257.911720349925</v>
       </c>
       <c r="L216" t="n">
-        <v>382.5345185211651</v>
+        <v>382.5345185211652</v>
       </c>
       <c r="M216" t="n">
         <v>95.11899999999999</v>
       </c>
       <c r="N216" t="n">
-        <v>287.4155185211651</v>
+        <v>287.4155185211652</v>
       </c>
       <c r="O216" t="n">
         <v>0.6717</v>
@@ -16991,19 +16991,19 @@
         <v>3079.94</v>
       </c>
       <c r="J218" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K218" t="n">
         <v>1233.249875294398</v>
       </c>
       <c r="L218" t="n">
-        <v>468.2078719764741</v>
+        <v>468.2078719764739</v>
       </c>
       <c r="M218" t="n">
         <v>95.11899999999999</v>
       </c>
       <c r="N218" t="n">
-        <v>373.0888719764741</v>
+        <v>373.088871976474</v>
       </c>
       <c r="O218" t="n">
         <v>0.4217</v>
@@ -17012,7 +17012,7 @@
         <v>5364</v>
       </c>
       <c r="Q218" t="n">
-        <v>843926.5807041381</v>
+        <v>843926.5807041378</v>
       </c>
       <c r="R218" t="n">
         <v>7560</v>
@@ -17055,7 +17055,7 @@
         <v>6</v>
       </c>
       <c r="F219" t="n">
-        <v>767.3199999999999</v>
+        <v>767.3200000000001</v>
       </c>
       <c r="G219" t="n">
         <v>1212.704990349152</v>
@@ -17073,13 +17073,13 @@
         <v>1234.704990349152</v>
       </c>
       <c r="L219" t="n">
-        <v>453.538260484503</v>
+        <v>453.5382604845029</v>
       </c>
       <c r="M219" t="n">
         <v>95.11899999999999</v>
       </c>
       <c r="N219" t="n">
-        <v>358.419260484503</v>
+        <v>358.4192604845029</v>
       </c>
       <c r="O219" t="n">
         <v>0.2824</v>
@@ -17088,7 +17088,7 @@
         <v>3576</v>
       </c>
       <c r="Q219" t="n">
-        <v>361954.1345991053</v>
+        <v>361954.1345991052</v>
       </c>
       <c r="R219" t="n">
         <v>5040</v>
@@ -17210,7 +17210,7 @@
         <v>1160.99</v>
       </c>
       <c r="G221" t="n">
-        <v>1195.903692625369</v>
+        <v>1195.90369262537</v>
       </c>
       <c r="H221" t="n">
         <v>22</v>
@@ -17222,10 +17222,10 @@
         <v>1</v>
       </c>
       <c r="K221" t="n">
-        <v>1217.903692625369</v>
+        <v>1217.90369262537</v>
       </c>
       <c r="L221" t="n">
-        <v>418.5018376131712</v>
+        <v>418.5018376131713</v>
       </c>
       <c r="M221" t="n">
         <v>95.11899999999999</v>
@@ -17240,7 +17240,7 @@
         <v>2980</v>
       </c>
       <c r="Q221" t="n">
-        <v>572619.1646870442</v>
+        <v>572619.1646870443</v>
       </c>
       <c r="R221" t="n">
         <v>4200</v>
@@ -17283,7 +17283,7 @@
         <v>9</v>
       </c>
       <c r="F222" t="n">
-        <v>718.1800000000002</v>
+        <v>718.1799999999999</v>
       </c>
       <c r="G222" t="n">
         <v>1256.756884642369</v>
@@ -17301,13 +17301,13 @@
         <v>1278.756884642369</v>
       </c>
       <c r="L222" t="n">
-        <v>463.4228873904171</v>
+        <v>463.4228873904173</v>
       </c>
       <c r="M222" t="n">
         <v>95.11899999999999</v>
       </c>
       <c r="N222" t="n">
-        <v>368.3038873904171</v>
+        <v>368.3038873904173</v>
       </c>
       <c r="O222" t="n">
         <v>0.415</v>
@@ -17316,7 +17316,7 @@
         <v>2384</v>
       </c>
       <c r="Q222" t="n">
-        <v>364385.1340285831</v>
+        <v>364385.1340285832</v>
       </c>
       <c r="R222" t="n">
         <v>3360</v>
@@ -17447,7 +17447,7 @@
         <v>3614.22</v>
       </c>
       <c r="J224" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K224" t="n">
         <v>1151.052493486004</v>
@@ -17596,7 +17596,7 @@
         <v>68</v>
       </c>
       <c r="I226" t="n">
-        <v>7338.32</v>
+        <v>7338.320000000001</v>
       </c>
       <c r="J226" t="n">
         <v>0.9999999999999999</v>
@@ -17663,7 +17663,7 @@
         <v>2</v>
       </c>
       <c r="F227" t="n">
-        <v>3551.179999999999</v>
+        <v>3551.18</v>
       </c>
       <c r="G227" t="n">
         <v>944.0950782260313</v>
@@ -17672,7 +17672,7 @@
         <v>68</v>
       </c>
       <c r="I227" t="n">
-        <v>7102.359999999999</v>
+        <v>7102.36</v>
       </c>
       <c r="J227" t="n">
         <v>1</v>
@@ -17739,7 +17739,7 @@
         <v>3</v>
       </c>
       <c r="F228" t="n">
-        <v>3571.009999999999</v>
+        <v>3571.01</v>
       </c>
       <c r="G228" t="n">
         <v>1359.210009754073</v>
@@ -17748,7 +17748,7 @@
         <v>68</v>
       </c>
       <c r="I228" t="n">
-        <v>7142.019999999998</v>
+        <v>7142.02</v>
       </c>
       <c r="J228" t="n">
         <v>1</v>
@@ -17757,13 +17757,13 @@
         <v>1427.210009754073</v>
       </c>
       <c r="L228" t="n">
-        <v>308.4658535938744</v>
+        <v>308.4658535938743</v>
       </c>
       <c r="M228" t="n">
         <v>95.11899999999999</v>
       </c>
       <c r="N228" t="n">
-        <v>213.3468535938745</v>
+        <v>213.3468535938744</v>
       </c>
       <c r="O228" t="n">
         <v>0.82</v>
@@ -17772,7 +17772,7 @@
         <v>4355</v>
       </c>
       <c r="Q228" t="n">
-        <v>761882.9488690851</v>
+        <v>761882.9488690846</v>
       </c>
       <c r="R228" t="n">
         <v>4953</v>
@@ -18119,7 +18119,7 @@
         <v>8</v>
       </c>
       <c r="F233" t="n">
-        <v>3099.719999999998</v>
+        <v>3099.72</v>
       </c>
       <c r="G233" t="n">
         <v>1175.931768865357</v>
@@ -18128,7 +18128,7 @@
         <v>68</v>
       </c>
       <c r="I233" t="n">
-        <v>6199.439999999995</v>
+        <v>6199.44</v>
       </c>
       <c r="J233" t="n">
         <v>1</v>
@@ -18137,13 +18137,13 @@
         <v>1243.931768865357</v>
       </c>
       <c r="L233" t="n">
-        <v>312.9940376459003</v>
+        <v>312.9940376459001</v>
       </c>
       <c r="M233" t="n">
         <v>95.11899999999999</v>
       </c>
       <c r="N233" t="n">
-        <v>217.8750376459004</v>
+        <v>217.8750376459001</v>
       </c>
       <c r="O233" t="n">
         <v>0.9396</v>
@@ -18152,7 +18152,7 @@
         <v>3308</v>
       </c>
       <c r="Q233" t="n">
-        <v>677198.494810867</v>
+        <v>677198.4948108663</v>
       </c>
       <c r="R233" t="n">
         <v>3810</v>
@@ -18195,7 +18195,7 @@
         <v>9</v>
       </c>
       <c r="F234" t="n">
-        <v>2786.099999999999</v>
+        <v>2786.1</v>
       </c>
       <c r="G234" t="n">
         <v>1193.004949659178</v>
@@ -18204,7 +18204,7 @@
         <v>68</v>
       </c>
       <c r="I234" t="n">
-        <v>5572.199999999999</v>
+        <v>5572.200000000001</v>
       </c>
       <c r="J234" t="n">
         <v>1</v>
@@ -18213,13 +18213,13 @@
         <v>1261.004949659178</v>
       </c>
       <c r="L234" t="n">
-        <v>309.9199835988144</v>
+        <v>309.9199835988143</v>
       </c>
       <c r="M234" t="n">
         <v>95.11899999999999</v>
       </c>
       <c r="N234" t="n">
-        <v>214.8009835988145</v>
+        <v>214.8009835988144</v>
       </c>
       <c r="O234" t="n">
         <v>0.9398000000000001</v>
@@ -18228,7 +18228,7 @@
         <v>2973</v>
       </c>
       <c r="Q234" t="n">
-        <v>600159.4041200711</v>
+        <v>600159.4041200707</v>
       </c>
       <c r="R234" t="n">
         <v>3429</v>
@@ -18347,10 +18347,10 @@
         <v>11</v>
       </c>
       <c r="F236" t="n">
-        <v>5354.769999999999</v>
+        <v>5354.77</v>
       </c>
       <c r="G236" t="n">
-        <v>748.8038353839235</v>
+        <v>748.8038353839233</v>
       </c>
       <c r="H236" t="n">
         <v>68</v>
@@ -18362,16 +18362,16 @@
         <v>1</v>
       </c>
       <c r="K236" t="n">
-        <v>816.8038353839235</v>
+        <v>816.8038353839233</v>
       </c>
       <c r="L236" t="n">
-        <v>328.1653597222459</v>
+        <v>328.1653597222458</v>
       </c>
       <c r="M236" t="n">
         <v>95.11899999999999</v>
       </c>
       <c r="N236" t="n">
-        <v>233.0463597222459</v>
+        <v>233.0463597222458</v>
       </c>
       <c r="O236" t="n">
         <v>0.9146</v>
@@ -18426,7 +18426,7 @@
         <v>5496.490000000001</v>
       </c>
       <c r="G237" t="n">
-        <v>762.825267978077</v>
+        <v>762.8252679780771</v>
       </c>
       <c r="H237" t="n">
         <v>68</v>
@@ -18438,7 +18438,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="K237" t="n">
-        <v>830.825267978077</v>
+        <v>830.8252679780771</v>
       </c>
       <c r="L237" t="n">
         <v>340.2068562903784</v>
@@ -18459,7 +18459,7 @@
         <v>1337455.019571987</v>
       </c>
       <c r="R237" t="n">
-        <v>7209</v>
+        <v>7209.000000000001</v>
       </c>
       <c r="S237" t="n">
         <v>63840</v>
@@ -18499,7 +18499,7 @@
         <v>1</v>
       </c>
       <c r="F238" t="n">
-        <v>19826.66000000001</v>
+        <v>19826.66</v>
       </c>
       <c r="G238" t="n">
         <v>3028.013850009694</v>
@@ -18508,7 +18508,7 @@
         <v>29</v>
       </c>
       <c r="I238" t="n">
-        <v>59479.98000000003</v>
+        <v>59479.98</v>
       </c>
       <c r="J238" t="n">
         <v>1</v>
@@ -18517,13 +18517,13 @@
         <v>3057.013850009694</v>
       </c>
       <c r="L238" t="n">
-        <v>397.507499282472</v>
+        <v>397.5074992824721</v>
       </c>
       <c r="M238" t="n">
         <v>30.295</v>
       </c>
       <c r="N238" t="n">
-        <v>367.212499282472</v>
+        <v>367.2124992824721</v>
       </c>
       <c r="O238" t="n">
         <v>0.8427</v>
@@ -18532,7 +18532,7 @@
         <v>24182</v>
       </c>
       <c r="Q238" t="n">
-        <v>7483119.25060059</v>
+        <v>7483119.250600593</v>
       </c>
       <c r="R238" t="n">
         <v>40762</v>
@@ -18575,7 +18575,7 @@
         <v>2</v>
       </c>
       <c r="F239" t="n">
-        <v>17569.15000000001</v>
+        <v>17569.15</v>
       </c>
       <c r="G239" t="n">
         <v>3209.35642449868</v>
@@ -18584,22 +18584,22 @@
         <v>29</v>
       </c>
       <c r="I239" t="n">
-        <v>52707.45000000001</v>
+        <v>52707.45</v>
       </c>
       <c r="J239" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K239" t="n">
         <v>3238.35642449868</v>
       </c>
       <c r="L239" t="n">
-        <v>399.4086781393879</v>
+        <v>399.408678139388</v>
       </c>
       <c r="M239" t="n">
         <v>30.295</v>
       </c>
       <c r="N239" t="n">
-        <v>369.1136781393879</v>
+        <v>369.113678139388</v>
       </c>
       <c r="O239" t="n">
         <v>0.8340000000000001</v>
@@ -18608,7 +18608,7 @@
         <v>21784</v>
       </c>
       <c r="Q239" t="n">
-        <v>6706004.152066748</v>
+        <v>6706004.15206675</v>
       </c>
       <c r="R239" t="n">
         <v>35644</v>
@@ -18651,31 +18651,31 @@
         <v>3</v>
       </c>
       <c r="F240" t="n">
-        <v>21566.95999999998</v>
+        <v>21566.96</v>
       </c>
       <c r="G240" t="n">
-        <v>5004.146049893116</v>
+        <v>5004.146049893114</v>
       </c>
       <c r="H240" t="n">
         <v>29</v>
       </c>
       <c r="I240" t="n">
-        <v>64700.87999999995</v>
+        <v>64700.88</v>
       </c>
       <c r="J240" t="n">
         <v>1</v>
       </c>
       <c r="K240" t="n">
-        <v>5033.146049893116</v>
+        <v>5033.146049893114</v>
       </c>
       <c r="L240" t="n">
-        <v>517.7142422766293</v>
+        <v>517.7142422766289</v>
       </c>
       <c r="M240" t="n">
         <v>30.295</v>
       </c>
       <c r="N240" t="n">
-        <v>487.4192422766293</v>
+        <v>487.4192422766288</v>
       </c>
       <c r="O240" t="n">
         <v>0.9379999999999999</v>
@@ -18684,7 +18684,7 @@
         <v>24014</v>
       </c>
       <c r="Q240" t="n">
-        <v>10979182.77162106</v>
+        <v>10979182.77162104</v>
       </c>
       <c r="R240" t="n">
         <v>39030</v>
@@ -18727,7 +18727,7 @@
         <v>4</v>
       </c>
       <c r="F241" t="n">
-        <v>15234.23000000001</v>
+        <v>15234.23</v>
       </c>
       <c r="G241" t="n">
         <v>1691.110678737111</v>
@@ -18736,10 +18736,10 @@
         <v>29</v>
       </c>
       <c r="I241" t="n">
-        <v>45702.69000000002</v>
+        <v>45702.69</v>
       </c>
       <c r="J241" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K241" t="n">
         <v>1720.110678737111</v>
@@ -18760,7 +18760,7 @@
         <v>21360</v>
       </c>
       <c r="Q241" t="n">
-        <v>6346141.933837859</v>
+        <v>6346141.933837861</v>
       </c>
       <c r="R241" t="n">
         <v>26960</v>
@@ -18803,31 +18803,31 @@
         <v>5</v>
       </c>
       <c r="F242" t="n">
-        <v>21903.72000000001</v>
+        <v>21903.72</v>
       </c>
       <c r="G242" t="n">
-        <v>2992.656959414349</v>
+        <v>2992.65695941435</v>
       </c>
       <c r="H242" t="n">
         <v>29</v>
       </c>
       <c r="I242" t="n">
-        <v>87614.88000000003</v>
+        <v>87614.88</v>
       </c>
       <c r="J242" t="n">
         <v>1</v>
       </c>
       <c r="K242" t="n">
-        <v>3021.656959414349</v>
+        <v>3021.65695941435</v>
       </c>
       <c r="L242" t="n">
-        <v>378.4800841953313</v>
+        <v>378.4800841953315</v>
       </c>
       <c r="M242" t="n">
         <v>30.295</v>
       </c>
       <c r="N242" t="n">
-        <v>348.1850841953313</v>
+        <v>348.1850841953315</v>
       </c>
       <c r="O242" t="n">
         <v>0.7673000000000001</v>
@@ -18836,7 +18836,7 @@
         <v>29729</v>
       </c>
       <c r="Q242" t="n">
-        <v>7942471.438599397</v>
+        <v>7942471.438599402</v>
       </c>
       <c r="R242" t="n">
         <v>39680</v>
@@ -18888,7 +18888,7 @@
         <v>29</v>
       </c>
       <c r="I243" t="n">
-        <v>66416.55</v>
+        <v>66416.54999999999</v>
       </c>
       <c r="J243" t="n">
         <v>1</v>
@@ -18964,7 +18964,7 @@
         <v>29</v>
       </c>
       <c r="I244" t="n">
-        <v>60722.24999999999</v>
+        <v>60722.25</v>
       </c>
       <c r="J244" t="n">
         <v>1</v>
@@ -19031,7 +19031,7 @@
         <v>8</v>
       </c>
       <c r="F245" t="n">
-        <v>25821.62999999999</v>
+        <v>25821.63</v>
       </c>
       <c r="G245" t="n">
         <v>1697.536574058235</v>
@@ -19043,19 +19043,19 @@
         <v>103286.52</v>
       </c>
       <c r="J245" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K245" t="n">
         <v>1726.536574058235</v>
       </c>
       <c r="L245" t="n">
-        <v>402.3699687895639</v>
+        <v>402.3699687895638</v>
       </c>
       <c r="M245" t="n">
         <v>30.295</v>
       </c>
       <c r="N245" t="n">
-        <v>372.0749687895639</v>
+        <v>372.0749687895638</v>
       </c>
       <c r="O245" t="n">
         <v>0.9378</v>
@@ -19107,31 +19107,31 @@
         <v>9</v>
       </c>
       <c r="F246" t="n">
-        <v>24662.73999999999</v>
+        <v>24662.74</v>
       </c>
       <c r="G246" t="n">
-        <v>1532.766653187309</v>
+        <v>1532.76665318731</v>
       </c>
       <c r="H246" t="n">
         <v>29</v>
       </c>
       <c r="I246" t="n">
-        <v>73988.21999999997</v>
+        <v>73988.22</v>
       </c>
       <c r="J246" t="n">
         <v>1</v>
       </c>
       <c r="K246" t="n">
-        <v>1561.766653187309</v>
+        <v>1561.76665318731</v>
       </c>
       <c r="L246" t="n">
-        <v>364.3060640154349</v>
+        <v>364.3060640154347</v>
       </c>
       <c r="M246" t="n">
         <v>30.295</v>
       </c>
       <c r="N246" t="n">
-        <v>334.0110640154348</v>
+        <v>334.0110640154347</v>
       </c>
       <c r="O246" t="n">
         <v>0.9165000000000001</v>
@@ -19140,7 +19140,7 @@
         <v>28770</v>
       </c>
       <c r="Q246" t="n">
-        <v>8807105.202695103</v>
+        <v>8807105.2026951</v>
       </c>
       <c r="R246" t="n">
         <v>38400</v>
@@ -19183,7 +19183,7 @@
         <v>10</v>
       </c>
       <c r="F247" t="n">
-        <v>25805.54000000001</v>
+        <v>25805.54</v>
       </c>
       <c r="G247" t="n">
         <v>2766.292909072572</v>
@@ -19195,19 +19195,19 @@
         <v>103222.16</v>
       </c>
       <c r="J247" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K247" t="n">
         <v>2795.292909072572</v>
       </c>
       <c r="L247" t="n">
-        <v>426.5485046726874</v>
+        <v>426.5485046726876</v>
       </c>
       <c r="M247" t="n">
         <v>30.295</v>
       </c>
       <c r="N247" t="n">
-        <v>396.2535046726874</v>
+        <v>396.2535046726875</v>
       </c>
       <c r="O247" t="n">
         <v>0.9023</v>
@@ -19216,7 +19216,7 @@
         <v>29729</v>
       </c>
       <c r="Q247" t="n">
-        <v>10629292.90338584</v>
+        <v>10629292.90338585</v>
       </c>
       <c r="R247" t="n">
         <v>39680</v>
@@ -19259,31 +19259,31 @@
         <v>11</v>
       </c>
       <c r="F248" t="n">
-        <v>25453.41000000001</v>
+        <v>25453.41</v>
       </c>
       <c r="G248" t="n">
-        <v>1946.071162990734</v>
+        <v>1946.071162990733</v>
       </c>
       <c r="H248" t="n">
         <v>29</v>
       </c>
       <c r="I248" t="n">
-        <v>76360.23000000003</v>
+        <v>76360.23</v>
       </c>
       <c r="J248" t="n">
         <v>1</v>
       </c>
       <c r="K248" t="n">
-        <v>1975.071162990734</v>
+        <v>1975.071162990733</v>
       </c>
       <c r="L248" t="n">
-        <v>444.7178750871967</v>
+        <v>444.7178750871969</v>
       </c>
       <c r="M248" t="n">
         <v>30.295</v>
       </c>
       <c r="N248" t="n">
-        <v>414.4228750871967</v>
+        <v>414.4228750871969</v>
       </c>
       <c r="O248" t="n">
         <v>0.9370000000000001</v>
@@ -19292,7 +19292,7 @@
         <v>28770</v>
       </c>
       <c r="Q248" t="n">
-        <v>11171800.51093435</v>
+        <v>11171800.51093436</v>
       </c>
       <c r="R248" t="n">
         <v>38400</v>
@@ -19338,28 +19338,28 @@
         <v>24069.95</v>
       </c>
       <c r="G249" t="n">
-        <v>2923.496586300089</v>
+        <v>2923.49658630009</v>
       </c>
       <c r="H249" t="n">
         <v>29</v>
       </c>
       <c r="I249" t="n">
-        <v>96279.79999999999</v>
+        <v>96279.8</v>
       </c>
       <c r="J249" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K249" t="n">
-        <v>2952.496586300089</v>
+        <v>2952.49658630009</v>
       </c>
       <c r="L249" t="n">
-        <v>498.7809855970609</v>
+        <v>498.7809855970608</v>
       </c>
       <c r="M249" t="n">
         <v>30.295</v>
       </c>
       <c r="N249" t="n">
-        <v>468.4859855970609</v>
+        <v>468.4859855970608</v>
       </c>
       <c r="O249" t="n">
         <v>0.8425</v>
@@ -19368,7 +19368,7 @@
         <v>29939</v>
       </c>
       <c r="Q249" t="n">
-        <v>11816906.61995092</v>
+        <v>11816906.61995091</v>
       </c>
       <c r="R249" t="n">
         <v>41845</v>
@@ -19414,7 +19414,7 @@
         <v>3922.88</v>
       </c>
       <c r="G250" t="n">
-        <v>1162.33749245299</v>
+        <v>1162.337492452989</v>
       </c>
       <c r="H250" t="n">
         <v>68</v>
@@ -19426,7 +19426,7 @@
         <v>1</v>
       </c>
       <c r="K250" t="n">
-        <v>1230.33749245299</v>
+        <v>1230.337492452989</v>
       </c>
       <c r="L250" t="n">
         <v>327.762140519307</v>
@@ -19490,7 +19490,7 @@
         <v>4030.35</v>
       </c>
       <c r="G251" t="n">
-        <v>843.4935906894632</v>
+        <v>843.4935906894631</v>
       </c>
       <c r="H251" t="n">
         <v>102</v>
@@ -19502,7 +19502,7 @@
         <v>1</v>
       </c>
       <c r="K251" t="n">
-        <v>945.4935906894632</v>
+        <v>945.4935906894631</v>
       </c>
       <c r="L251" t="n">
         <v>296.2330100906149</v>
@@ -19572,7 +19572,7 @@
         <v>68</v>
       </c>
       <c r="I252" t="n">
-        <v>9250.960000000001</v>
+        <v>9250.959999999999</v>
       </c>
       <c r="J252" t="n">
         <v>1</v>
@@ -19581,13 +19581,13 @@
         <v>1875.413287199803</v>
       </c>
       <c r="L252" t="n">
-        <v>410.0657318872704</v>
+        <v>410.0657318872705</v>
       </c>
       <c r="M252" t="n">
         <v>30.295</v>
       </c>
       <c r="N252" t="n">
-        <v>379.7707318872704</v>
+        <v>379.7707318872705</v>
       </c>
       <c r="O252" t="n">
         <v>0.8001999999999999</v>
@@ -19596,7 +19596,7 @@
         <v>5922</v>
       </c>
       <c r="Q252" t="n">
-        <v>1799651.619843979</v>
+        <v>1799651.61984398</v>
       </c>
       <c r="R252" t="n">
         <v>6858</v>
@@ -19639,7 +19639,7 @@
         <v>4</v>
       </c>
       <c r="F253" t="n">
-        <v>4631.809999999999</v>
+        <v>4631.81</v>
       </c>
       <c r="G253" t="n">
         <v>1798.509396564304</v>
@@ -19648,7 +19648,7 @@
         <v>68</v>
       </c>
       <c r="I253" t="n">
-        <v>9263.619999999999</v>
+        <v>9263.620000000001</v>
       </c>
       <c r="J253" t="n">
         <v>1</v>
@@ -19663,7 +19663,7 @@
         <v>30.295</v>
       </c>
       <c r="N253" t="n">
-        <v>408.1491850406573</v>
+        <v>408.1491850406572</v>
       </c>
       <c r="O253" t="n">
         <v>0.7026</v>
@@ -20134,13 +20134,13 @@
         <v>6135</v>
       </c>
       <c r="S259" t="n">
-        <v>35792.50000000001</v>
+        <v>35792.5</v>
       </c>
       <c r="T259" t="n">
         <v>1.137374860956619</v>
       </c>
       <c r="U259" t="n">
-        <v>6.635613644790509</v>
+        <v>6.635613644790508</v>
       </c>
       <c r="V259" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>5014.45</v>
       </c>
       <c r="G262" t="n">
-        <v>3449.12132056969</v>
+        <v>3449.121320569689</v>
       </c>
       <c r="H262" t="n">
         <v>23</v>
@@ -20338,16 +20338,16 @@
         <v>1</v>
       </c>
       <c r="K262" t="n">
-        <v>3472.12132056969</v>
+        <v>3472.121320569689</v>
       </c>
       <c r="L262" t="n">
-        <v>375.2974371126936</v>
+        <v>375.2974371126935</v>
       </c>
       <c r="M262" t="n">
         <v>46.72</v>
       </c>
       <c r="N262" t="n">
-        <v>328.5774371126936</v>
+        <v>328.5774371126935</v>
       </c>
       <c r="O262" t="n">
         <v>0.6879999999999999</v>
@@ -20356,7 +20356,7 @@
         <v>13262</v>
       </c>
       <c r="Q262" t="n">
-        <v>2998024.652040117</v>
+        <v>2998024.652040116</v>
       </c>
       <c r="R262" t="n">
         <v>21292</v>
@@ -20399,7 +20399,7 @@
         <v>2</v>
       </c>
       <c r="F263" t="n">
-        <v>4376.089999999998</v>
+        <v>4376.09</v>
       </c>
       <c r="G263" t="n">
         <v>3081.502902918624</v>
@@ -20408,7 +20408,7 @@
         <v>23</v>
       </c>
       <c r="I263" t="n">
-        <v>13128.26999999999</v>
+        <v>13128.27</v>
       </c>
       <c r="J263" t="n">
         <v>1</v>
@@ -20417,13 +20417,13 @@
         <v>3104.502902918624</v>
       </c>
       <c r="L263" t="n">
-        <v>302.1996944286267</v>
+        <v>302.1996944286266</v>
       </c>
       <c r="M263" t="n">
         <v>46.72</v>
       </c>
       <c r="N263" t="n">
-        <v>255.4796944286267</v>
+        <v>255.4796944286266</v>
       </c>
       <c r="O263" t="n">
         <v>0.7043</v>
@@ -20432,7 +20432,7 @@
         <v>9912</v>
       </c>
       <c r="Q263" t="n">
-        <v>1783509.265167643</v>
+        <v>1783509.265167642</v>
       </c>
       <c r="R263" t="n">
         <v>15400</v>
@@ -20478,7 +20478,7 @@
         <v>2800.01</v>
       </c>
       <c r="G264" t="n">
-        <v>3187.643290574829</v>
+        <v>3187.643290574828</v>
       </c>
       <c r="H264" t="n">
         <v>23</v>
@@ -20490,7 +20490,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="K264" t="n">
-        <v>3210.643290574829</v>
+        <v>3210.643290574828</v>
       </c>
       <c r="L264" t="n">
         <v>368.0990222949423</v>
@@ -20551,7 +20551,7 @@
         <v>4</v>
       </c>
       <c r="F265" t="n">
-        <v>3597.989999999999</v>
+        <v>3597.99</v>
       </c>
       <c r="G265" t="n">
         <v>3215.181030892214</v>
@@ -20630,7 +20630,7 @@
         <v>2797.06</v>
       </c>
       <c r="G266" t="n">
-        <v>3372.174198597343</v>
+        <v>3372.174198597342</v>
       </c>
       <c r="H266" t="n">
         <v>23</v>
@@ -20642,7 +20642,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="K266" t="n">
-        <v>3395.174198597343</v>
+        <v>3395.174198597342</v>
       </c>
       <c r="L266" t="n">
         <v>352.001940707793</v>
@@ -20651,7 +20651,7 @@
         <v>46.72</v>
       </c>
       <c r="N266" t="n">
-        <v>305.2819407077931</v>
+        <v>305.281940707793</v>
       </c>
       <c r="O266" t="n">
         <v>0.3407</v>
@@ -20703,7 +20703,7 @@
         <v>6</v>
       </c>
       <c r="F267" t="n">
-        <v>2477.949999999999</v>
+        <v>2477.95</v>
       </c>
       <c r="G267" t="n">
         <v>2864.291640936509</v>
@@ -20855,7 +20855,7 @@
         <v>8</v>
       </c>
       <c r="F269" t="n">
-        <v>3091.689999999999</v>
+        <v>3091.69</v>
       </c>
       <c r="G269" t="n">
         <v>3154.067305829307</v>
@@ -20864,22 +20864,22 @@
         <v>23</v>
       </c>
       <c r="I269" t="n">
-        <v>9275.069999999998</v>
+        <v>9275.07</v>
       </c>
       <c r="J269" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K269" t="n">
         <v>3177.067305829307</v>
       </c>
       <c r="L269" t="n">
-        <v>370.1399579266463</v>
+        <v>370.1399579266462</v>
       </c>
       <c r="M269" t="n">
         <v>46.72</v>
       </c>
       <c r="N269" t="n">
-        <v>323.4199579266462</v>
+        <v>323.4199579266461</v>
       </c>
       <c r="O269" t="n">
         <v>0.5241</v>
@@ -20888,7 +20888,7 @@
         <v>10974</v>
       </c>
       <c r="Q269" t="n">
-        <v>1860141.285044225</v>
+        <v>1860141.285044224</v>
       </c>
       <c r="R269" t="n">
         <v>17050</v>
@@ -20931,7 +20931,7 @@
         <v>9</v>
       </c>
       <c r="F270" t="n">
-        <v>3110.290000000001</v>
+        <v>3110.29</v>
       </c>
       <c r="G270" t="n">
         <v>3046.896131978236</v>
@@ -20940,10 +20940,10 @@
         <v>23</v>
       </c>
       <c r="I270" t="n">
-        <v>9330.870000000003</v>
+        <v>9330.870000000001</v>
       </c>
       <c r="J270" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K270" t="n">
         <v>3069.896131978236</v>
@@ -21019,19 +21019,19 @@
         <v>11014.05</v>
       </c>
       <c r="J271" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K271" t="n">
         <v>3191.169413720175</v>
       </c>
       <c r="L271" t="n">
-        <v>367.7532114609041</v>
+        <v>367.753211460904</v>
       </c>
       <c r="M271" t="n">
         <v>46.72</v>
       </c>
       <c r="N271" t="n">
-        <v>321.0332114609041</v>
+        <v>321.033211460904</v>
       </c>
       <c r="O271" t="n">
         <v>0.7633</v>
@@ -21040,7 +21040,7 @@
         <v>10974</v>
       </c>
       <c r="Q271" t="n">
-        <v>2689119.992481178</v>
+        <v>2689119.992481177</v>
       </c>
       <c r="R271" t="n">
         <v>17050</v>
@@ -21083,7 +21083,7 @@
         <v>11</v>
       </c>
       <c r="F272" t="n">
-        <v>3340.050000000001</v>
+        <v>3340.05</v>
       </c>
       <c r="G272" t="n">
         <v>3276.349027006478</v>
@@ -21095,19 +21095,19 @@
         <v>10020.15</v>
       </c>
       <c r="J272" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="K272" t="n">
         <v>3299.349027006478</v>
       </c>
       <c r="L272" t="n">
-        <v>358.3041820784169</v>
+        <v>358.3041820784171</v>
       </c>
       <c r="M272" t="n">
         <v>46.72</v>
       </c>
       <c r="N272" t="n">
-        <v>311.5841820784169</v>
+        <v>311.584182078417</v>
       </c>
       <c r="O272" t="n">
         <v>0.3947</v>
@@ -21116,7 +21116,7 @@
         <v>10620</v>
       </c>
       <c r="Q272" t="n">
-        <v>1306071.778196649</v>
+        <v>1306071.77819665</v>
       </c>
       <c r="R272" t="n">
         <v>16500</v>
@@ -21253,7 +21253,7 @@
         <v>1052.716141665023</v>
       </c>
       <c r="L274" t="n">
-        <v>314.9769507940597</v>
+        <v>314.9769507940598</v>
       </c>
       <c r="M274" t="n">
         <v>46.72</v>
@@ -21387,7 +21387,7 @@
         <v>3</v>
       </c>
       <c r="F276" t="n">
-        <v>2426.459999999998</v>
+        <v>2426.46</v>
       </c>
       <c r="G276" t="n">
         <v>1112.451535577737</v>
@@ -21396,7 +21396,7 @@
         <v>35</v>
       </c>
       <c r="I276" t="n">
-        <v>4852.919999999996</v>
+        <v>4852.92</v>
       </c>
       <c r="J276" t="n">
         <v>1</v>
@@ -21405,13 +21405,13 @@
         <v>1147.451535577737</v>
       </c>
       <c r="L276" t="n">
-        <v>264.325215531653</v>
+        <v>264.3252155316528</v>
       </c>
       <c r="M276" t="n">
         <v>46.72</v>
       </c>
       <c r="N276" t="n">
-        <v>217.605215531653</v>
+        <v>217.6052155316528</v>
       </c>
       <c r="O276" t="n">
         <v>0.8454999999999999</v>
@@ -21420,7 +21420,7 @@
         <v>3015</v>
       </c>
       <c r="Q276" t="n">
-        <v>554715.407342018</v>
+        <v>554715.4073420175</v>
       </c>
       <c r="R276" t="n">
         <v>3780</v>
@@ -21463,7 +21463,7 @@
         <v>4</v>
       </c>
       <c r="F277" t="n">
-        <v>2398.589999999999</v>
+        <v>2398.59</v>
       </c>
       <c r="G277" t="n">
         <v>4000.800711941853</v>
@@ -21472,7 +21472,7 @@
         <v>35</v>
       </c>
       <c r="I277" t="n">
-        <v>4797.179999999998</v>
+        <v>4797.179999999999</v>
       </c>
       <c r="J277" t="n">
         <v>1</v>
@@ -21481,7 +21481,7 @@
         <v>4035.800711941853</v>
       </c>
       <c r="L277" t="n">
-        <v>422.9536137057926</v>
+        <v>422.9536137057925</v>
       </c>
       <c r="M277" t="n">
         <v>46.72</v>
@@ -21694,7 +21694,7 @@
         <v>2213.82</v>
       </c>
       <c r="G280" t="n">
-        <v>927.7441610468377</v>
+        <v>927.7441610468378</v>
       </c>
       <c r="H280" t="n">
         <v>35</v>
@@ -21706,16 +21706,16 @@
         <v>1</v>
       </c>
       <c r="K280" t="n">
-        <v>962.7441610468377</v>
+        <v>962.7441610468378</v>
       </c>
       <c r="L280" t="n">
-        <v>238.5217835536282</v>
+        <v>238.5217835536283</v>
       </c>
       <c r="M280" t="n">
         <v>46.72</v>
       </c>
       <c r="N280" t="n">
-        <v>191.8017835536282</v>
+        <v>191.8017835536283</v>
       </c>
       <c r="O280" t="n">
         <v>0.9375</v>
@@ -21724,7 +21724,7 @@
         <v>2680</v>
       </c>
       <c r="Q280" t="n">
-        <v>481901.9811784909</v>
+        <v>481901.981178491</v>
       </c>
       <c r="R280" t="n">
         <v>3360</v>
@@ -21770,7 +21770,7 @@
         <v>2400.27</v>
       </c>
       <c r="G281" t="n">
-        <v>769.8912024386475</v>
+        <v>769.8912024386476</v>
       </c>
       <c r="H281" t="n">
         <v>35</v>
@@ -21782,7 +21782,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="K281" t="n">
-        <v>804.8912024386475</v>
+        <v>804.8912024386476</v>
       </c>
       <c r="L281" t="n">
         <v>195.9976842549645</v>
@@ -21852,7 +21852,7 @@
         <v>35</v>
       </c>
       <c r="I282" t="n">
-        <v>4744.04</v>
+        <v>4744.039999999999</v>
       </c>
       <c r="J282" t="n">
         <v>1</v>
@@ -21928,7 +21928,7 @@
         <v>35</v>
       </c>
       <c r="I283" t="n">
-        <v>5071.759999999999</v>
+        <v>5071.76</v>
       </c>
       <c r="J283" t="n">
         <v>1</v>
@@ -21952,7 +21952,7 @@
         <v>3015</v>
       </c>
       <c r="Q283" t="n">
-        <v>584247.7150469159</v>
+        <v>584247.7150469158</v>
       </c>
       <c r="R283" t="n">
         <v>3585</v>
@@ -21995,31 +21995,31 @@
         <v>11</v>
       </c>
       <c r="F284" t="n">
-        <v>2219.969999999999</v>
+        <v>2219.97</v>
       </c>
       <c r="G284" t="n">
-        <v>591.7541612138725</v>
+        <v>591.7541612138724</v>
       </c>
       <c r="H284" t="n">
         <v>35</v>
       </c>
       <c r="I284" t="n">
-        <v>4439.939999999999</v>
+        <v>4439.940000000001</v>
       </c>
       <c r="J284" t="n">
         <v>1</v>
       </c>
       <c r="K284" t="n">
-        <v>626.7541612138725</v>
+        <v>626.7541612138724</v>
       </c>
       <c r="L284" t="n">
-        <v>207.3583774676582</v>
+        <v>207.3583774676581</v>
       </c>
       <c r="M284" t="n">
         <v>46.72</v>
       </c>
       <c r="N284" t="n">
-        <v>160.6383774676582</v>
+        <v>160.6383774676581</v>
       </c>
       <c r="O284" t="n">
         <v>0.8856000000000001</v>
@@ -22028,7 +22028,7 @@
         <v>2680</v>
       </c>
       <c r="Q284" t="n">
-        <v>381260.4101887596</v>
+        <v>381260.4101887594</v>
       </c>
       <c r="R284" t="n">
         <v>3048</v>
@@ -22080,7 +22080,7 @@
         <v>35</v>
       </c>
       <c r="I285" t="n">
-        <v>592.0799999999999</v>
+        <v>592.08</v>
       </c>
       <c r="J285" t="n">
         <v>1</v>
@@ -22104,7 +22104,7 @@
         <v>335</v>
       </c>
       <c r="Q285" t="n">
-        <v>53182.98482396386</v>
+        <v>53182.98482396385</v>
       </c>
       <c r="R285" t="n">
         <v>381.0000000000001</v>
@@ -22150,13 +22150,13 @@
         <v>13812.29</v>
       </c>
       <c r="G286" t="n">
-        <v>3725.589807279463</v>
+        <v>3725.589807279464</v>
       </c>
       <c r="H286" t="n">
         <v>41.15</v>
       </c>
       <c r="I286" t="n">
-        <v>55249.16000000001</v>
+        <v>55249.16</v>
       </c>
       <c r="J286" t="n">
         <v>1</v>
@@ -22165,13 +22165,13 @@
         <v>3766.739807279464</v>
       </c>
       <c r="L286" t="n">
-        <v>509.8121072138699</v>
+        <v>509.81210721387</v>
       </c>
       <c r="M286" t="n">
         <v>46.72</v>
       </c>
       <c r="N286" t="n">
-        <v>463.0921072138699</v>
+        <v>463.09210721387</v>
       </c>
       <c r="O286" t="n">
         <v>0.8347</v>
@@ -22180,7 +22180,7 @@
         <v>24046</v>
       </c>
       <c r="Q286" t="n">
-        <v>9294812.542561017</v>
+        <v>9294812.542561021</v>
       </c>
       <c r="R286" t="n">
         <v>39913</v>
@@ -22223,7 +22223,7 @@
         <v>2</v>
       </c>
       <c r="F287" t="n">
-        <v>13632.47999999999</v>
+        <v>13632.48</v>
       </c>
       <c r="G287" t="n">
         <v>3627.686869271174</v>
@@ -22232,7 +22232,7 @@
         <v>41.15</v>
       </c>
       <c r="I287" t="n">
-        <v>54529.91999999997</v>
+        <v>54529.92000000001</v>
       </c>
       <c r="J287" t="n">
         <v>1</v>
@@ -22241,13 +22241,13 @@
         <v>3668.836869271174</v>
       </c>
       <c r="L287" t="n">
-        <v>397.4085134864364</v>
+        <v>397.4085134864361</v>
       </c>
       <c r="M287" t="n">
         <v>46.72</v>
       </c>
       <c r="N287" t="n">
-        <v>350.6885134864365</v>
+        <v>350.6885134864361</v>
       </c>
       <c r="O287" t="n">
         <v>0.9392</v>
@@ -22256,7 +22256,7 @@
         <v>21381</v>
       </c>
       <c r="Q287" t="n">
-        <v>7042188.383556806</v>
+        <v>7042188.383556799</v>
       </c>
       <c r="R287" t="n">
         <v>35628</v>
@@ -22317,7 +22317,7 @@
         <v>3626.910093334539</v>
       </c>
       <c r="L288" t="n">
-        <v>416.5810550077462</v>
+        <v>416.5810550077461</v>
       </c>
       <c r="M288" t="n">
         <v>46.72</v>
@@ -22378,7 +22378,7 @@
         <v>11167.61</v>
       </c>
       <c r="G289" t="n">
-        <v>3770.020525775838</v>
+        <v>3770.020525775837</v>
       </c>
       <c r="H289" t="n">
         <v>41.15</v>
@@ -22390,16 +22390,16 @@
         <v>1</v>
       </c>
       <c r="K289" t="n">
-        <v>3811.170525775838</v>
+        <v>3811.170525775837</v>
       </c>
       <c r="L289" t="n">
-        <v>455.5746750957829</v>
+        <v>455.5746750957828</v>
       </c>
       <c r="M289" t="n">
         <v>46.72</v>
       </c>
       <c r="N289" t="n">
-        <v>408.8546750957829</v>
+        <v>408.8546750957828</v>
       </c>
       <c r="O289" t="n">
         <v>0.7619</v>
@@ -22408,7 +22408,7 @@
         <v>21917</v>
       </c>
       <c r="Q289" t="n">
-        <v>6827285.263733189</v>
+        <v>6827285.263733188</v>
       </c>
       <c r="R289" t="n">
         <v>37770</v>
@@ -22475,7 +22475,7 @@
         <v>46.72</v>
       </c>
       <c r="N290" t="n">
-        <v>382.3509039715231</v>
+        <v>382.3509039715232</v>
       </c>
       <c r="O290" t="n">
         <v>0.8416</v>
@@ -22484,7 +22484,7 @@
         <v>21314</v>
       </c>
       <c r="Q290" t="n">
-        <v>6858557.903956794</v>
+        <v>6858557.903956796</v>
       </c>
       <c r="R290" t="n">
         <v>36323</v>
@@ -22536,22 +22536,22 @@
         <v>41.15</v>
       </c>
       <c r="I291" t="n">
-        <v>45667.48000000001</v>
+        <v>45667.48</v>
       </c>
       <c r="J291" t="n">
         <v>1</v>
       </c>
       <c r="K291" t="n">
-        <v>3514.679726050232</v>
+        <v>3514.679726050233</v>
       </c>
       <c r="L291" t="n">
-        <v>428.0717557452753</v>
+        <v>428.0717557452755</v>
       </c>
       <c r="M291" t="n">
         <v>46.72</v>
       </c>
       <c r="N291" t="n">
-        <v>381.3517557452753</v>
+        <v>381.3517557452755</v>
       </c>
       <c r="O291" t="n">
         <v>0.7806999999999999</v>
@@ -22560,7 +22560,7 @@
         <v>22513</v>
       </c>
       <c r="Q291" t="n">
-        <v>6702599.980586804</v>
+        <v>6702599.980586806</v>
       </c>
       <c r="R291" t="n">
         <v>37872</v>
@@ -22603,16 +22603,16 @@
         <v>7</v>
       </c>
       <c r="F292" t="n">
-        <v>12748.23999999999</v>
+        <v>12748.24</v>
       </c>
       <c r="G292" t="n">
-        <v>3641.825255032598</v>
+        <v>3641.825255032599</v>
       </c>
       <c r="H292" t="n">
         <v>41.15</v>
       </c>
       <c r="I292" t="n">
-        <v>50992.95999999996</v>
+        <v>50992.96000000001</v>
       </c>
       <c r="J292" t="n">
         <v>1</v>
@@ -22621,13 +22621,13 @@
         <v>3682.975255032598</v>
       </c>
       <c r="L292" t="n">
-        <v>500.4019874905042</v>
+        <v>500.4019874905037</v>
       </c>
       <c r="M292" t="n">
         <v>46.72</v>
       </c>
       <c r="N292" t="n">
-        <v>453.6819874905042</v>
+        <v>453.6819874905037</v>
       </c>
       <c r="O292" t="n">
         <v>0.8989</v>
@@ -22636,7 +22636,7 @@
         <v>23124</v>
       </c>
       <c r="Q292" t="n">
-        <v>9430308.014350774</v>
+        <v>9430308.014350764</v>
       </c>
       <c r="R292" t="n">
         <v>39029</v>
@@ -22648,7 +22648,7 @@
         <v>1.687813527071441</v>
       </c>
       <c r="U292" t="n">
-        <v>7.362595860001154</v>
+        <v>7.362595860001153</v>
       </c>
       <c r="V292" t="inlineStr">
         <is>
@@ -22682,28 +22682,28 @@
         <v>11544.89</v>
       </c>
       <c r="G293" t="n">
-        <v>3494.487247113537</v>
+        <v>3494.487247113538</v>
       </c>
       <c r="H293" t="n">
         <v>41.15</v>
       </c>
       <c r="I293" t="n">
-        <v>46179.55999999999</v>
+        <v>46179.56</v>
       </c>
       <c r="J293" t="n">
         <v>1</v>
       </c>
       <c r="K293" t="n">
-        <v>3535.637247113537</v>
+        <v>3535.637247113538</v>
       </c>
       <c r="L293" t="n">
-        <v>413.0094722844304</v>
+        <v>413.0094722844303</v>
       </c>
       <c r="M293" t="n">
         <v>46.72</v>
       </c>
       <c r="N293" t="n">
-        <v>366.2894722844304</v>
+        <v>366.2894722844303</v>
       </c>
       <c r="O293" t="n">
         <v>0.8571</v>
@@ -22712,7 +22712,7 @@
         <v>23107</v>
       </c>
       <c r="Q293" t="n">
-        <v>7254366.551601026</v>
+        <v>7254366.551601023</v>
       </c>
       <c r="R293" t="n">
         <v>39029</v>
@@ -22755,31 +22755,31 @@
         <v>9</v>
       </c>
       <c r="F294" t="n">
-        <v>11533.92999999999</v>
+        <v>11533.93</v>
       </c>
       <c r="G294" t="n">
-        <v>3686.059218993665</v>
+        <v>3686.059218993666</v>
       </c>
       <c r="H294" t="n">
         <v>41.15</v>
       </c>
       <c r="I294" t="n">
-        <v>46135.71999999996</v>
+        <v>46135.71999999999</v>
       </c>
       <c r="J294" t="n">
         <v>1</v>
       </c>
       <c r="K294" t="n">
-        <v>3727.209218993666</v>
+        <v>3727.209218993665</v>
       </c>
       <c r="L294" t="n">
-        <v>457.2334653620738</v>
+        <v>457.2334653620734</v>
       </c>
       <c r="M294" t="n">
         <v>46.72</v>
       </c>
       <c r="N294" t="n">
-        <v>410.5134653620738</v>
+        <v>410.5134653620734</v>
       </c>
       <c r="O294" t="n">
         <v>0.8428</v>
@@ -22788,7 +22788,7 @@
         <v>21817</v>
       </c>
       <c r="Q294" t="n">
-        <v>7548261.992362319</v>
+        <v>7548261.99236231</v>
       </c>
       <c r="R294" t="n">
         <v>36958</v>
@@ -22831,7 +22831,7 @@
         <v>10</v>
       </c>
       <c r="F295" t="n">
-        <v>12476.14000000001</v>
+        <v>12476.14</v>
       </c>
       <c r="G295" t="n">
         <v>3901.727296047937</v>
@@ -22840,22 +22840,22 @@
         <v>41.15</v>
       </c>
       <c r="I295" t="n">
-        <v>49904.56000000004</v>
+        <v>49904.56</v>
       </c>
       <c r="J295" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K295" t="n">
         <v>3942.877296047937</v>
       </c>
       <c r="L295" t="n">
-        <v>496.4259713511453</v>
+        <v>496.4259713511457</v>
       </c>
       <c r="M295" t="n">
         <v>46.72</v>
       </c>
       <c r="N295" t="n">
-        <v>449.7059713511453</v>
+        <v>449.7059713511458</v>
       </c>
       <c r="O295" t="n">
         <v>0.8293</v>
@@ -22864,7 +22864,7 @@
         <v>22973</v>
       </c>
       <c r="Q295" t="n">
-        <v>8567577.315579491</v>
+        <v>8567577.3155795</v>
       </c>
       <c r="R295" t="n">
         <v>38854</v>
@@ -22910,7 +22910,7 @@
         <v>11675.95</v>
       </c>
       <c r="G296" t="n">
-        <v>3777.089523270222</v>
+        <v>3777.089523270223</v>
       </c>
       <c r="H296" t="n">
         <v>41.15</v>
@@ -22919,10 +22919,10 @@
         <v>46703.8</v>
       </c>
       <c r="J296" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K296" t="n">
-        <v>3818.239523270222</v>
+        <v>3818.239523270223</v>
       </c>
       <c r="L296" t="n">
         <v>463.1788721318729</v>
@@ -23001,13 +23001,13 @@
         <v>3774.612316058175</v>
       </c>
       <c r="L297" t="n">
-        <v>444.793273400104</v>
+        <v>444.7932734001039</v>
       </c>
       <c r="M297" t="n">
         <v>46.72</v>
       </c>
       <c r="N297" t="n">
-        <v>398.073273400104</v>
+        <v>398.0732734001039</v>
       </c>
       <c r="O297" t="n">
         <v>0.7362000000000001</v>
@@ -23016,7 +23016,7 @@
         <v>23485</v>
       </c>
       <c r="Q297" t="n">
-        <v>6882550.357955022</v>
+        <v>6882550.357955021</v>
       </c>
       <c r="R297" t="n">
         <v>39471</v>
@@ -23059,7 +23059,7 @@
         <v>1</v>
       </c>
       <c r="F298" t="n">
-        <v>29709.73999999999</v>
+        <v>29709.74</v>
       </c>
       <c r="G298" t="n">
         <v>3885.666048334891</v>
@@ -23077,13 +23077,13 @@
         <v>3914.666048334891</v>
       </c>
       <c r="L298" t="n">
-        <v>440.4242768809528</v>
+        <v>440.4242768809526</v>
       </c>
       <c r="M298" t="n">
         <v>46.72</v>
       </c>
       <c r="N298" t="n">
-        <v>393.7042768809528</v>
+        <v>393.7042768809525</v>
       </c>
       <c r="O298" t="n">
         <v>0.8431000000000001</v>
@@ -23092,7 +23092,7 @@
         <v>42404</v>
       </c>
       <c r="Q298" t="n">
-        <v>14075247.7438486</v>
+        <v>14075247.74384859</v>
       </c>
       <c r="R298" t="n">
         <v>81663</v>
@@ -23153,13 +23153,13 @@
         <v>3520.967595722668</v>
       </c>
       <c r="L299" t="n">
-        <v>394.7794713810396</v>
+        <v>394.7794713810394</v>
       </c>
       <c r="M299" t="n">
         <v>46.72</v>
       </c>
       <c r="N299" t="n">
-        <v>348.0594713810395</v>
+        <v>348.0594713810394</v>
       </c>
       <c r="O299" t="n">
         <v>0.856</v>
@@ -23168,7 +23168,7 @@
         <v>38472</v>
       </c>
       <c r="Q299" t="n">
-        <v>11462305.64942348</v>
+        <v>11462305.64942347</v>
       </c>
       <c r="R299" t="n">
         <v>74044</v>
@@ -23211,7 +23211,7 @@
         <v>3</v>
       </c>
       <c r="F300" t="n">
-        <v>26731.04999999998</v>
+        <v>26731.05</v>
       </c>
       <c r="G300" t="n">
         <v>3677.928882757754</v>
@@ -23220,7 +23220,7 @@
         <v>29</v>
       </c>
       <c r="I300" t="n">
-        <v>106924.1999999999</v>
+        <v>106924.2</v>
       </c>
       <c r="J300" t="n">
         <v>1</v>
@@ -23229,13 +23229,13 @@
         <v>3706.928882757754</v>
       </c>
       <c r="L300" t="n">
-        <v>407.835015584565</v>
+        <v>407.8350155845648</v>
       </c>
       <c r="M300" t="n">
         <v>46.72</v>
       </c>
       <c r="N300" t="n">
-        <v>361.1150155845651</v>
+        <v>361.1150155845648</v>
       </c>
       <c r="O300" t="n">
         <v>0.7406999999999999</v>
@@ -23244,7 +23244,7 @@
         <v>42608</v>
       </c>
       <c r="Q300" t="n">
-        <v>11396698.02418891</v>
+        <v>11396698.0241889</v>
       </c>
       <c r="R300" t="n">
         <v>82103</v>
@@ -23287,7 +23287,7 @@
         <v>4</v>
       </c>
       <c r="F301" t="n">
-        <v>26954.84000000001</v>
+        <v>26954.84</v>
       </c>
       <c r="G301" t="n">
         <v>3868.87933372602</v>
@@ -23299,7 +23299,7 @@
         <v>107819.36</v>
       </c>
       <c r="J301" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K301" t="n">
         <v>3897.87933372602</v>
@@ -23311,7 +23311,7 @@
         <v>46.72</v>
       </c>
       <c r="N301" t="n">
-        <v>364.741358059766</v>
+        <v>364.7413580597661</v>
       </c>
       <c r="O301" t="n">
         <v>0.8147</v>
@@ -23320,7 +23320,7 @@
         <v>40474</v>
       </c>
       <c r="Q301" t="n">
-        <v>12027042.7442626</v>
+        <v>12027042.74426261</v>
       </c>
       <c r="R301" t="n">
         <v>78058</v>
@@ -23375,19 +23375,19 @@
         <v>104464.28</v>
       </c>
       <c r="J302" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K302" t="n">
         <v>3751.849818441249</v>
       </c>
       <c r="L302" t="n">
-        <v>426.8962150388634</v>
+        <v>426.8962150388635</v>
       </c>
       <c r="M302" t="n">
         <v>46.72</v>
       </c>
       <c r="N302" t="n">
-        <v>380.1762150388635</v>
+        <v>380.1762150388636</v>
       </c>
       <c r="O302" t="n">
         <v>0.8497</v>
@@ -23396,7 +23396,7 @@
         <v>37183</v>
       </c>
       <c r="Q302" t="n">
-        <v>12011437.54556041</v>
+        <v>12011437.54556042</v>
       </c>
       <c r="R302" t="n">
         <v>72710</v>
@@ -23439,10 +23439,10 @@
         <v>6</v>
       </c>
       <c r="F303" t="n">
-        <v>27333.30999999999</v>
+        <v>27333.31</v>
       </c>
       <c r="G303" t="n">
-        <v>3506.925155527517</v>
+        <v>3506.925155527516</v>
       </c>
       <c r="H303" t="n">
         <v>29</v>
@@ -23451,19 +23451,19 @@
         <v>109333.24</v>
       </c>
       <c r="J303" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K303" t="n">
-        <v>3535.925155527517</v>
+        <v>3535.925155527516</v>
       </c>
       <c r="L303" t="n">
-        <v>406.213514520212</v>
+        <v>406.2135145202118</v>
       </c>
       <c r="M303" t="n">
         <v>46.72</v>
       </c>
       <c r="N303" t="n">
-        <v>359.493514520212</v>
+        <v>359.4935145202118</v>
       </c>
       <c r="O303" t="n">
         <v>0.7885</v>
@@ -23472,7 +23472,7 @@
         <v>41806</v>
       </c>
       <c r="Q303" t="n">
-        <v>11850355.35694322</v>
+        <v>11850355.35694321</v>
       </c>
       <c r="R303" t="n">
         <v>80252</v>
@@ -23515,10 +23515,10 @@
         <v>7</v>
       </c>
       <c r="F304" t="n">
-        <v>30425.01999999999</v>
+        <v>30425.02</v>
       </c>
       <c r="G304" t="n">
-        <v>3550.59770241564</v>
+        <v>3550.597702415642</v>
       </c>
       <c r="H304" t="n">
         <v>29</v>
@@ -23530,16 +23530,16 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="K304" t="n">
-        <v>3579.59770241564</v>
+        <v>3579.597702415642</v>
       </c>
       <c r="L304" t="n">
-        <v>445.0694130425722</v>
+        <v>445.0694130425721</v>
       </c>
       <c r="M304" t="n">
         <v>46.72</v>
       </c>
       <c r="N304" t="n">
-        <v>398.3494130425722</v>
+        <v>398.3494130425721</v>
       </c>
       <c r="O304" t="n">
         <v>0.8908</v>
@@ -23591,7 +23591,7 @@
         <v>8</v>
       </c>
       <c r="F305" t="n">
-        <v>24902.92000000001</v>
+        <v>24902.92</v>
       </c>
       <c r="G305" t="n">
         <v>3593.825952274135</v>
@@ -23600,7 +23600,7 @@
         <v>29</v>
       </c>
       <c r="I305" t="n">
-        <v>99611.68000000004</v>
+        <v>99611.68000000001</v>
       </c>
       <c r="J305" t="n">
         <v>1</v>
@@ -23609,13 +23609,13 @@
         <v>3622.825952274135</v>
       </c>
       <c r="L305" t="n">
-        <v>405.1451951226152</v>
+        <v>405.1451951226153</v>
       </c>
       <c r="M305" t="n">
         <v>46.72</v>
       </c>
       <c r="N305" t="n">
-        <v>358.4251951226153</v>
+        <v>358.4251951226154</v>
       </c>
       <c r="O305" t="n">
         <v>0.857</v>
@@ -23624,7 +23624,7 @@
         <v>37449</v>
       </c>
       <c r="Q305" t="n">
-        <v>11503224.01824982</v>
+        <v>11503224.01824983</v>
       </c>
       <c r="R305" t="n">
         <v>73150</v>
@@ -23667,7 +23667,7 @@
         <v>9</v>
       </c>
       <c r="F306" t="n">
-        <v>23902.05000000001</v>
+        <v>23902.05</v>
       </c>
       <c r="G306" t="n">
         <v>3630.114864962324</v>
@@ -23676,22 +23676,22 @@
         <v>29</v>
       </c>
       <c r="I306" t="n">
-        <v>95608.20000000004</v>
+        <v>95608.20000000001</v>
       </c>
       <c r="J306" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K306" t="n">
         <v>3659.114864962324</v>
       </c>
       <c r="L306" t="n">
-        <v>438.5907026064671</v>
+        <v>438.5907026064673</v>
       </c>
       <c r="M306" t="n">
         <v>46.72</v>
       </c>
       <c r="N306" t="n">
-        <v>391.8707026064671</v>
+        <v>391.8707026064673</v>
       </c>
       <c r="O306" t="n">
         <v>0.8462999999999999</v>
@@ -23700,7 +23700,7 @@
         <v>35872</v>
       </c>
       <c r="Q306" t="n">
-        <v>11896596.37969188</v>
+        <v>11896596.37969189</v>
       </c>
       <c r="R306" t="n">
         <v>70180</v>
@@ -23743,31 +23743,31 @@
         <v>10</v>
       </c>
       <c r="F307" t="n">
-        <v>24892.78999999998</v>
+        <v>24892.79</v>
       </c>
       <c r="G307" t="n">
-        <v>3848.681633251639</v>
+        <v>3848.681633251638</v>
       </c>
       <c r="H307" t="n">
         <v>29</v>
       </c>
       <c r="I307" t="n">
-        <v>99571.15999999993</v>
+        <v>99571.16</v>
       </c>
       <c r="J307" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="K307" t="n">
-        <v>3877.681633251639</v>
+        <v>3877.681633251638</v>
       </c>
       <c r="L307" t="n">
-        <v>457.3425515250599</v>
+        <v>457.3425515250596</v>
       </c>
       <c r="M307" t="n">
         <v>46.72</v>
       </c>
       <c r="N307" t="n">
-        <v>410.62255152506</v>
+        <v>410.6225515250596</v>
       </c>
       <c r="O307" t="n">
         <v>0.8486</v>
@@ -23776,7 +23776,7 @@
         <v>37789</v>
       </c>
       <c r="Q307" t="n">
-        <v>13167739.437804</v>
+        <v>13167739.43780399</v>
       </c>
       <c r="R307" t="n">
         <v>73785</v>
@@ -23819,7 +23819,7 @@
         <v>11</v>
       </c>
       <c r="F308" t="n">
-        <v>26890.60999999998</v>
+        <v>26890.61</v>
       </c>
       <c r="G308" t="n">
         <v>3617.760604442195</v>
@@ -23828,22 +23828,22 @@
         <v>29</v>
       </c>
       <c r="I308" t="n">
-        <v>107562.4399999999</v>
+        <v>107562.44</v>
       </c>
       <c r="J308" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K308" t="n">
         <v>3646.760604442195</v>
       </c>
       <c r="L308" t="n">
-        <v>423.0076333009461</v>
+        <v>423.0076333009458</v>
       </c>
       <c r="M308" t="n">
         <v>46.72</v>
       </c>
       <c r="N308" t="n">
-        <v>376.2876333009461</v>
+        <v>376.2876333009458</v>
       </c>
       <c r="O308" t="n">
         <v>0.8017</v>
@@ -23852,7 +23852,7 @@
         <v>41214</v>
       </c>
       <c r="Q308" t="n">
-        <v>12433018.95657423</v>
+        <v>12433018.95657421</v>
       </c>
       <c r="R308" t="n">
         <v>79710</v>
@@ -23895,7 +23895,7 @@
         <v>12</v>
       </c>
       <c r="F309" t="n">
-        <v>24530.60999999999</v>
+        <v>24530.61</v>
       </c>
       <c r="G309" t="n">
         <v>3650.424843523639</v>
@@ -23904,7 +23904,7 @@
         <v>29</v>
       </c>
       <c r="I309" t="n">
-        <v>98122.43999999997</v>
+        <v>98122.43999999999</v>
       </c>
       <c r="J309" t="n">
         <v>1</v>
@@ -23913,7 +23913,7 @@
         <v>3679.424843523639</v>
       </c>
       <c r="L309" t="n">
-        <v>439.8723338192058</v>
+        <v>439.8723338192057</v>
       </c>
       <c r="M309" t="n">
         <v>46.72</v>
@@ -23971,7 +23971,7 @@
         <v>1</v>
       </c>
       <c r="F310" t="n">
-        <v>8030.610000000002</v>
+        <v>8030.610000000001</v>
       </c>
       <c r="G310" t="n">
         <v>1442.606470586129</v>
@@ -23989,13 +23989,13 @@
         <v>1510.606470586129</v>
       </c>
       <c r="L310" t="n">
-        <v>350.6666151377619</v>
+        <v>350.666615137762</v>
       </c>
       <c r="M310" t="n">
         <v>46.72</v>
       </c>
       <c r="N310" t="n">
-        <v>303.9466151377619</v>
+        <v>303.946615137762</v>
       </c>
       <c r="O310" t="n">
         <v>0.7134</v>
@@ -24004,7 +24004,7 @@
         <v>11293</v>
       </c>
       <c r="Q310" t="n">
-        <v>2448723.473597181</v>
+        <v>2448723.473597182</v>
       </c>
       <c r="R310" t="n">
         <v>12708</v>
@@ -24363,19 +24363,19 @@
         <v>20439.22</v>
       </c>
       <c r="J315" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K315" t="n">
         <v>1138.259840584735</v>
       </c>
       <c r="L315" t="n">
-        <v>282.9232157515884</v>
+        <v>282.9232157515883</v>
       </c>
       <c r="M315" t="n">
         <v>46.72</v>
       </c>
       <c r="N315" t="n">
-        <v>236.2032157515884</v>
+        <v>236.2032157515883</v>
       </c>
       <c r="O315" t="n">
         <v>0.7091</v>
@@ -24384,7 +24384,7 @@
         <v>14422</v>
       </c>
       <c r="Q315" t="n">
-        <v>2415565.301574467</v>
+        <v>2415565.301574466</v>
       </c>
       <c r="R315" t="n">
         <v>16254</v>
@@ -24466,13 +24466,13 @@
         <v>15102</v>
       </c>
       <c r="S316" t="n">
-        <v>99793.00000000001</v>
+        <v>99793</v>
       </c>
       <c r="T316" t="n">
         <v>1.131575003746441</v>
       </c>
       <c r="U316" t="n">
-        <v>7.477371497077777</v>
+        <v>7.477371497077776</v>
       </c>
       <c r="V316" t="inlineStr">
         <is>
@@ -24503,31 +24503,31 @@
         <v>8</v>
       </c>
       <c r="F317" t="n">
-        <v>7976.990000000003</v>
+        <v>7976.99</v>
       </c>
       <c r="G317" t="n">
-        <v>814.9185676153313</v>
+        <v>814.9185676153314</v>
       </c>
       <c r="H317" t="n">
         <v>68</v>
       </c>
       <c r="I317" t="n">
-        <v>15953.98000000001</v>
+        <v>15953.98</v>
       </c>
       <c r="J317" t="n">
         <v>1</v>
       </c>
       <c r="K317" t="n">
-        <v>882.9185676153313</v>
+        <v>882.9185676153314</v>
       </c>
       <c r="L317" t="n">
-        <v>220.6464914344902</v>
+        <v>220.6464914344903</v>
       </c>
       <c r="M317" t="n">
         <v>46.72</v>
       </c>
       <c r="N317" t="n">
-        <v>173.9264914344902</v>
+        <v>173.9264914344903</v>
       </c>
       <c r="O317" t="n">
         <v>0.745</v>
@@ -24579,7 +24579,7 @@
         <v>9</v>
       </c>
       <c r="F318" t="n">
-        <v>8675.339999999998</v>
+        <v>8675.34</v>
       </c>
       <c r="G318" t="n">
         <v>811.2115895779654</v>
@@ -24655,7 +24655,7 @@
         <v>10</v>
       </c>
       <c r="F319" t="n">
-        <v>8551.760000000002</v>
+        <v>8551.76</v>
       </c>
       <c r="G319" t="n">
         <v>281.7516908744099</v>
@@ -24667,7 +24667,7 @@
         <v>17103.52</v>
       </c>
       <c r="J319" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K319" t="n">
         <v>349.7516908744099</v>
@@ -24688,7 +24688,7 @@
         <v>11456</v>
       </c>
       <c r="Q319" t="n">
-        <v>1365401.740867673</v>
+        <v>1365401.740867674</v>
       </c>
       <c r="R319" t="n">
         <v>12933</v>
@@ -24731,7 +24731,7 @@
         <v>11</v>
       </c>
       <c r="F320" t="n">
-        <v>9642.629999999997</v>
+        <v>9642.630000000001</v>
       </c>
       <c r="G320" t="n">
         <v>222.4857938427724</v>
@@ -24740,22 +24740,22 @@
         <v>68</v>
       </c>
       <c r="I320" t="n">
-        <v>19285.25999999999</v>
+        <v>19285.26</v>
       </c>
       <c r="J320" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K320" t="n">
         <v>290.4857938427724</v>
       </c>
       <c r="L320" t="n">
-        <v>149.8208606067025</v>
+        <v>149.8208606067024</v>
       </c>
       <c r="M320" t="n">
         <v>46.72</v>
       </c>
       <c r="N320" t="n">
-        <v>103.1008606067025</v>
+        <v>103.1008606067024</v>
       </c>
       <c r="O320" t="n">
         <v>0.7631</v>
@@ -24764,7 +24764,7 @@
         <v>12643</v>
       </c>
       <c r="Q320" t="n">
-        <v>994704.0402544265</v>
+        <v>994704.0402544263</v>
       </c>
       <c r="R320" t="n">
         <v>14271</v>
@@ -24883,7 +24883,7 @@
         <v>1</v>
       </c>
       <c r="F322" t="n">
-        <v>6191.970000000003</v>
+        <v>6191.97</v>
       </c>
       <c r="G322" t="n">
         <v>3915.647382034487</v>
@@ -24892,22 +24892,22 @@
         <v>41.15</v>
       </c>
       <c r="I322" t="n">
-        <v>24767.88000000001</v>
+        <v>24767.88</v>
       </c>
       <c r="J322" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K322" t="n">
         <v>3956.797382034487</v>
       </c>
       <c r="L322" t="n">
-        <v>416.7293352721395</v>
+        <v>416.7293352721398</v>
       </c>
       <c r="M322" t="n">
         <v>42.559</v>
       </c>
       <c r="N322" t="n">
-        <v>374.1703352721395</v>
+        <v>374.1703352721398</v>
       </c>
       <c r="O322" t="n">
         <v>0.6905</v>
@@ -24916,7 +24916,7 @@
         <v>10317</v>
       </c>
       <c r="Q322" t="n">
-        <v>2665547.748486339</v>
+        <v>2665547.748486341</v>
       </c>
       <c r="R322" t="n">
         <v>14733</v>
@@ -24983,7 +24983,7 @@
         <v>42.559</v>
       </c>
       <c r="N323" t="n">
-        <v>287.2843083330043</v>
+        <v>287.2843083330044</v>
       </c>
       <c r="O323" t="n">
         <v>0.9390000000000001</v>
@@ -24992,7 +24992,7 @@
         <v>7588</v>
       </c>
       <c r="Q323" t="n">
-        <v>2046938.618401356</v>
+        <v>2046938.618401357</v>
       </c>
       <c r="R323" t="n">
         <v>11368</v>
@@ -25035,7 +25035,7 @@
         <v>3</v>
       </c>
       <c r="F324" t="n">
-        <v>5923.179999999999</v>
+        <v>5923.18</v>
       </c>
       <c r="G324" t="n">
         <v>2886.132675521493</v>
@@ -25111,7 +25111,7 @@
         <v>4</v>
       </c>
       <c r="F325" t="n">
-        <v>5207.730000000002</v>
+        <v>5207.73</v>
       </c>
       <c r="G325" t="n">
         <v>2986.69897477214</v>
@@ -25120,22 +25120,22 @@
         <v>41.15</v>
       </c>
       <c r="I325" t="n">
-        <v>20830.92000000001</v>
+        <v>20830.92</v>
       </c>
       <c r="J325" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K325" t="n">
         <v>3027.84897477214</v>
       </c>
       <c r="L325" t="n">
-        <v>366.0400538016935</v>
+        <v>366.0400538016937</v>
       </c>
       <c r="M325" t="n">
         <v>42.559</v>
       </c>
       <c r="N325" t="n">
-        <v>323.4810538016935</v>
+        <v>323.4810538016937</v>
       </c>
       <c r="O325" t="n">
         <v>0.7166</v>
@@ -25144,7 +25144,7 @@
         <v>8130</v>
       </c>
       <c r="Q325" t="n">
-        <v>1884587.033244407</v>
+        <v>1884587.033244408</v>
       </c>
       <c r="R325" t="n">
         <v>12180</v>
@@ -25196,10 +25196,10 @@
         <v>41.15</v>
       </c>
       <c r="I326" t="n">
-        <v>23760.44000000001</v>
+        <v>23760.44</v>
       </c>
       <c r="J326" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="K326" t="n">
         <v>3070.759934288158</v>
@@ -25220,7 +25220,7 @@
         <v>8288</v>
       </c>
       <c r="Q326" t="n">
-        <v>1605407.774864131</v>
+        <v>1605407.774864132</v>
       </c>
       <c r="R326" t="n">
         <v>12586</v>
@@ -25263,10 +25263,10 @@
         <v>6</v>
       </c>
       <c r="F327" t="n">
-        <v>4252.529999999999</v>
+        <v>4252.53</v>
       </c>
       <c r="G327" t="n">
-        <v>3216.526791251143</v>
+        <v>3216.526791251142</v>
       </c>
       <c r="H327" t="n">
         <v>41.15</v>
@@ -25339,7 +25339,7 @@
         <v>7</v>
       </c>
       <c r="F328" t="n">
-        <v>4855.080000000002</v>
+        <v>4855.08</v>
       </c>
       <c r="G328" t="n">
         <v>3129.951942099435</v>
@@ -25348,7 +25348,7 @@
         <v>41.15</v>
       </c>
       <c r="I328" t="n">
-        <v>19420.32000000001</v>
+        <v>19420.32</v>
       </c>
       <c r="J328" t="n">
         <v>1</v>
@@ -25357,13 +25357,13 @@
         <v>3171.101942099434</v>
       </c>
       <c r="L328" t="n">
-        <v>391.5441658032537</v>
+        <v>391.5441658032539</v>
       </c>
       <c r="M328" t="n">
         <v>42.559</v>
       </c>
       <c r="N328" t="n">
-        <v>348.9851658032537</v>
+        <v>348.9851658032538</v>
       </c>
       <c r="O328" t="n">
         <v>0.7447</v>
@@ -25372,7 +25372,7 @@
         <v>8401</v>
       </c>
       <c r="Q328" t="n">
-        <v>2183329.614231911</v>
+        <v>2183329.614231912</v>
       </c>
       <c r="R328" t="n">
         <v>12586</v>
@@ -25415,7 +25415,7 @@
         <v>8</v>
       </c>
       <c r="F329" t="n">
-        <v>5419.94</v>
+        <v>5419.940000000001</v>
       </c>
       <c r="G329" t="n">
         <v>2957.513879764508</v>
@@ -25427,19 +25427,19 @@
         <v>21679.76</v>
       </c>
       <c r="J329" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K329" t="n">
         <v>2998.663879764508</v>
       </c>
       <c r="L329" t="n">
-        <v>294.1598147742013</v>
+        <v>294.1598147742012</v>
       </c>
       <c r="M329" t="n">
         <v>42.559</v>
       </c>
       <c r="N329" t="n">
-        <v>251.6008147742013</v>
+        <v>251.6008147742012</v>
       </c>
       <c r="O329" t="n">
         <v>0.7867000000000001</v>
@@ -25491,7 +25491,7 @@
         <v>9</v>
       </c>
       <c r="F330" t="n">
-        <v>5294.980000000003</v>
+        <v>5294.98</v>
       </c>
       <c r="G330" t="n">
         <v>2841.475377215614</v>
@@ -25500,22 +25500,22 @@
         <v>41.15</v>
       </c>
       <c r="I330" t="n">
-        <v>21179.92000000001</v>
+        <v>21179.92</v>
       </c>
       <c r="J330" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K330" t="n">
         <v>2882.625377215614</v>
       </c>
       <c r="L330" t="n">
-        <v>325.8406528630445</v>
+        <v>325.8406528630447</v>
       </c>
       <c r="M330" t="n">
         <v>42.559</v>
       </c>
       <c r="N330" t="n">
-        <v>283.2816528630445</v>
+        <v>283.2816528630447</v>
       </c>
       <c r="O330" t="n">
         <v>0.8181999999999999</v>
@@ -25524,7 +25524,7 @@
         <v>8130</v>
       </c>
       <c r="Q330" t="n">
-        <v>1884379.923268775</v>
+        <v>1884379.923268776</v>
       </c>
       <c r="R330" t="n">
         <v>12180</v>
@@ -25582,7 +25582,7 @@
         <v>1</v>
       </c>
       <c r="K331" t="n">
-        <v>3433.700642200597</v>
+        <v>3433.700642200596</v>
       </c>
       <c r="L331" t="n">
         <v>368.1586200619163</v>
@@ -25643,7 +25643,7 @@
         <v>11</v>
       </c>
       <c r="F332" t="n">
-        <v>5687.700000000001</v>
+        <v>5687.7</v>
       </c>
       <c r="G332" t="n">
         <v>2836.02107906011</v>
@@ -25667,7 +25667,7 @@
         <v>42.559</v>
       </c>
       <c r="N332" t="n">
-        <v>279.5682011462632</v>
+        <v>279.5682011462633</v>
       </c>
       <c r="O332" t="n">
         <v>0.8452</v>
@@ -25676,7 +25676,7 @@
         <v>8110</v>
       </c>
       <c r="Q332" t="n">
-        <v>1916320.363667543</v>
+        <v>1916320.363667544</v>
       </c>
       <c r="R332" t="n">
         <v>12180</v>
@@ -25719,7 +25719,7 @@
         <v>12</v>
       </c>
       <c r="F333" t="n">
-        <v>6210.220000000001</v>
+        <v>6210.22</v>
       </c>
       <c r="G333" t="n">
         <v>2829.274587797084</v>
@@ -25734,7 +25734,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="K333" t="n">
-        <v>2870.424587797085</v>
+        <v>2870.424587797084</v>
       </c>
       <c r="L333" t="n">
         <v>322.0908674176465</v>
@@ -25795,10 +25795,10 @@
         <v>1</v>
       </c>
       <c r="F334" t="n">
-        <v>27243.86999999999</v>
+        <v>27243.87</v>
       </c>
       <c r="G334" t="n">
-        <v>2395.058638927127</v>
+        <v>2395.058638927128</v>
       </c>
       <c r="H334" t="n">
         <v>29</v>
@@ -25810,10 +25810,10 @@
         <v>1</v>
       </c>
       <c r="K334" t="n">
-        <v>2424.058638927127</v>
+        <v>2424.058638927128</v>
       </c>
       <c r="L334" t="n">
-        <v>327.2060139886857</v>
+        <v>327.2060139886856</v>
       </c>
       <c r="M334" t="n">
         <v>42.559</v>
@@ -25874,7 +25874,7 @@
         <v>26833.89</v>
       </c>
       <c r="G335" t="n">
-        <v>2626.694808275594</v>
+        <v>2626.694808275593</v>
       </c>
       <c r="H335" t="n">
         <v>29</v>
@@ -25886,16 +25886,16 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="K335" t="n">
-        <v>2655.694808275594</v>
+        <v>2655.694808275593</v>
       </c>
       <c r="L335" t="n">
-        <v>290.9322992567195</v>
+        <v>290.9322992567194</v>
       </c>
       <c r="M335" t="n">
         <v>42.559</v>
       </c>
       <c r="N335" t="n">
-        <v>248.3732992567195</v>
+        <v>248.3732992567194</v>
       </c>
       <c r="O335" t="n">
         <v>0.9002</v>
@@ -25904,7 +25904,7 @@
         <v>32984</v>
       </c>
       <c r="Q335" t="n">
-        <v>7374748.881395811</v>
+        <v>7374748.881395807</v>
       </c>
       <c r="R335" t="n">
         <v>48720</v>
@@ -25956,7 +25956,7 @@
         <v>29</v>
       </c>
       <c r="I336" t="n">
-        <v>92102.15999999999</v>
+        <v>92102.16</v>
       </c>
       <c r="J336" t="n">
         <v>1</v>
@@ -25965,13 +25965,13 @@
         <v>2644.53819040365</v>
       </c>
       <c r="L336" t="n">
-        <v>285.636001008886</v>
+        <v>285.6360010088859</v>
       </c>
       <c r="M336" t="n">
         <v>42.559</v>
       </c>
       <c r="N336" t="n">
-        <v>243.077001008886</v>
+        <v>243.0770010088859</v>
       </c>
       <c r="O336" t="n">
         <v>0.6894</v>
@@ -25980,7 +25980,7 @@
         <v>36518</v>
       </c>
       <c r="Q336" t="n">
-        <v>6119587.275207618</v>
+        <v>6119587.275207615</v>
       </c>
       <c r="R336" t="n">
         <v>53940</v>
@@ -25992,7 +25992,7 @@
         <v>1.477079796264856</v>
       </c>
       <c r="U336" t="n">
-        <v>5.247311827956989</v>
+        <v>5.24731182795699</v>
       </c>
       <c r="V336" t="inlineStr">
         <is>
@@ -26023,25 +26023,25 @@
         <v>4</v>
       </c>
       <c r="F337" t="n">
-        <v>23259.67999999999</v>
+        <v>23259.68</v>
       </c>
       <c r="G337" t="n">
-        <v>2693.822664242548</v>
+        <v>2693.822664242549</v>
       </c>
       <c r="H337" t="n">
         <v>29</v>
       </c>
       <c r="I337" t="n">
-        <v>93038.71999999996</v>
+        <v>93038.71999999999</v>
       </c>
       <c r="J337" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K337" t="n">
-        <v>2722.822664242548</v>
+        <v>2722.822664242549</v>
       </c>
       <c r="L337" t="n">
-        <v>300.3041059365164</v>
+        <v>300.3041059365163</v>
       </c>
       <c r="M337" t="n">
         <v>42.559</v>
@@ -26138,13 +26138,13 @@
         <v>53940</v>
       </c>
       <c r="S338" t="n">
-        <v>186149.8333333334</v>
+        <v>186149.8333333333</v>
       </c>
       <c r="T338" t="n">
         <v>1.49712731410808</v>
       </c>
       <c r="U338" t="n">
-        <v>5.166666666666668</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="V338" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>19434.79</v>
       </c>
       <c r="G339" t="n">
-        <v>2444.944905946418</v>
+        <v>2444.944905946419</v>
       </c>
       <c r="H339" t="n">
         <v>29</v>
@@ -26190,7 +26190,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="K339" t="n">
-        <v>2473.944905946418</v>
+        <v>2473.944905946419</v>
       </c>
       <c r="L339" t="n">
         <v>289.7927616859649</v>
@@ -26251,7 +26251,7 @@
         <v>7</v>
       </c>
       <c r="F340" t="n">
-        <v>26285.82000000003</v>
+        <v>26285.82</v>
       </c>
       <c r="G340" t="n">
         <v>2593.030355048919</v>
@@ -26260,7 +26260,7 @@
         <v>29</v>
       </c>
       <c r="I340" t="n">
-        <v>105143.2800000001</v>
+        <v>105143.28</v>
       </c>
       <c r="J340" t="n">
         <v>1</v>
@@ -26269,13 +26269,13 @@
         <v>2622.030355048919</v>
       </c>
       <c r="L340" t="n">
-        <v>297.9796789373277</v>
+        <v>297.9796789373278</v>
       </c>
       <c r="M340" t="n">
         <v>42.559</v>
       </c>
       <c r="N340" t="n">
-        <v>255.4206789373277</v>
+        <v>255.4206789373278</v>
       </c>
       <c r="O340" t="n">
         <v>0.8003</v>
@@ -26284,7 +26284,7 @@
         <v>38068</v>
       </c>
       <c r="Q340" t="n">
-        <v>7781600.530950688</v>
+        <v>7781600.530950693</v>
       </c>
       <c r="R340" t="n">
         <v>53940</v>
@@ -26330,7 +26330,7 @@
         <v>24723.84</v>
       </c>
       <c r="G341" t="n">
-        <v>3313.998158420065</v>
+        <v>3313.998158420064</v>
       </c>
       <c r="H341" t="n">
         <v>29</v>
@@ -26342,7 +26342,7 @@
         <v>1</v>
       </c>
       <c r="K341" t="n">
-        <v>3342.998158420065</v>
+        <v>3342.998158420064</v>
       </c>
       <c r="L341" t="n">
         <v>279.2196561115651</v>
@@ -26403,31 +26403,31 @@
         <v>9</v>
       </c>
       <c r="F342" t="n">
-        <v>24776.20999999999</v>
+        <v>24776.21</v>
       </c>
       <c r="G342" t="n">
-        <v>2541.33543407087</v>
+        <v>2541.335434070871</v>
       </c>
       <c r="H342" t="n">
         <v>29</v>
       </c>
       <c r="I342" t="n">
-        <v>99104.83999999995</v>
+        <v>99104.84</v>
       </c>
       <c r="J342" t="n">
         <v>1</v>
       </c>
       <c r="K342" t="n">
-        <v>2570.33543407087</v>
+        <v>2570.335434070871</v>
       </c>
       <c r="L342" t="n">
-        <v>289.5634704597011</v>
+        <v>289.563470459701</v>
       </c>
       <c r="M342" t="n">
         <v>42.559</v>
       </c>
       <c r="N342" t="n">
-        <v>247.0044704597011</v>
+        <v>247.004470459701</v>
       </c>
       <c r="O342" t="n">
         <v>0.7544</v>
@@ -26436,7 +26436,7 @@
         <v>36840</v>
       </c>
       <c r="Q342" t="n">
-        <v>6864771.955445177</v>
+        <v>6864771.955445174</v>
       </c>
       <c r="R342" t="n">
         <v>52200</v>
@@ -26479,31 +26479,31 @@
         <v>10</v>
       </c>
       <c r="F343" t="n">
-        <v>30548.64000000001</v>
+        <v>30548.64</v>
       </c>
       <c r="G343" t="n">
-        <v>2283.009131622455</v>
+        <v>2283.009131622456</v>
       </c>
       <c r="H343" t="n">
         <v>29</v>
       </c>
       <c r="I343" t="n">
-        <v>122194.5600000001</v>
+        <v>122194.56</v>
       </c>
       <c r="J343" t="n">
         <v>1</v>
       </c>
       <c r="K343" t="n">
-        <v>2312.009131622455</v>
+        <v>2312.009131622456</v>
       </c>
       <c r="L343" t="n">
-        <v>301.6395471797038</v>
+        <v>301.6395471797039</v>
       </c>
       <c r="M343" t="n">
         <v>42.559</v>
       </c>
       <c r="N343" t="n">
-        <v>259.0805471797038</v>
+        <v>259.0805471797039</v>
       </c>
       <c r="O343" t="n">
         <v>0.8729</v>
@@ -26512,7 +26512,7 @@
         <v>39680</v>
       </c>
       <c r="Q343" t="n">
-        <v>8973687.934243925</v>
+        <v>8973687.934243929</v>
       </c>
       <c r="R343" t="n">
         <v>53320</v>
@@ -26573,13 +26573,13 @@
         <v>2357.235025775643</v>
       </c>
       <c r="L344" t="n">
-        <v>280.8219790888543</v>
+        <v>280.8219790888542</v>
       </c>
       <c r="M344" t="n">
         <v>42.559</v>
       </c>
       <c r="N344" t="n">
-        <v>238.2629790888543</v>
+        <v>238.2629790888542</v>
       </c>
       <c r="O344" t="n">
         <v>0.8390000000000001</v>
@@ -26588,7 +26588,7 @@
         <v>38400</v>
       </c>
       <c r="Q344" t="n">
-        <v>7676261.355093072</v>
+        <v>7676261.355093068</v>
       </c>
       <c r="R344" t="n">
         <v>51600</v>
@@ -26631,31 +26631,31 @@
         <v>12</v>
       </c>
       <c r="F345" t="n">
-        <v>24496.36000000002</v>
+        <v>24496.36</v>
       </c>
       <c r="G345" t="n">
-        <v>2401.798815971046</v>
+        <v>2401.798815971045</v>
       </c>
       <c r="H345" t="n">
         <v>29</v>
       </c>
       <c r="I345" t="n">
-        <v>97985.44000000006</v>
+        <v>97985.44</v>
       </c>
       <c r="J345" t="n">
         <v>1</v>
       </c>
       <c r="K345" t="n">
-        <v>2430.798815971046</v>
+        <v>2430.798815971045</v>
       </c>
       <c r="L345" t="n">
-        <v>294.5318567131376</v>
+        <v>294.5318567131378</v>
       </c>
       <c r="M345" t="n">
         <v>42.559</v>
       </c>
       <c r="N345" t="n">
-        <v>251.9728567131376</v>
+        <v>251.9728567131378</v>
       </c>
       <c r="O345" t="n">
         <v>0.7044</v>
@@ -26664,7 +26664,7 @@
         <v>39680</v>
       </c>
       <c r="Q345" t="n">
-        <v>7042790.51306337</v>
+        <v>7042790.513063375</v>
       </c>
       <c r="R345" t="n">
         <v>53320</v>
@@ -26725,13 +26725,13 @@
         <v>1448.654916769798</v>
       </c>
       <c r="L346" t="n">
-        <v>279.190694298034</v>
+        <v>279.1906942980341</v>
       </c>
       <c r="M346" t="n">
         <v>42.559</v>
       </c>
       <c r="N346" t="n">
-        <v>236.631694298034</v>
+        <v>236.6316942980341</v>
       </c>
       <c r="O346" t="n">
         <v>0.8326</v>
@@ -26740,7 +26740,7 @@
         <v>13766</v>
       </c>
       <c r="Q346" t="n">
-        <v>2712171.107026229</v>
+        <v>2712171.10702623</v>
       </c>
       <c r="R346" t="n">
         <v>15708</v>
@@ -26783,7 +26783,7 @@
         <v>2</v>
       </c>
       <c r="F347" t="n">
-        <v>11449.49000000001</v>
+        <v>11449.49</v>
       </c>
       <c r="G347" t="n">
         <v>1072.051105523505</v>
@@ -26792,22 +26792,22 @@
         <v>68</v>
       </c>
       <c r="I347" t="n">
-        <v>22898.98000000001</v>
+        <v>22898.98</v>
       </c>
       <c r="J347" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K347" t="n">
-        <v>1140.051105523505</v>
+        <v>1140.051105523506</v>
       </c>
       <c r="L347" t="n">
-        <v>208.2137351288251</v>
+        <v>208.2137351288252</v>
       </c>
       <c r="M347" t="n">
         <v>42.559</v>
       </c>
       <c r="N347" t="n">
-        <v>165.6547351288251</v>
+        <v>165.6547351288252</v>
       </c>
       <c r="O347" t="n">
         <v>0.9401</v>
@@ -26816,7 +26816,7 @@
         <v>12208</v>
       </c>
       <c r="Q347" t="n">
-        <v>1901176.457366181</v>
+        <v>1901176.457366182</v>
       </c>
       <c r="R347" t="n">
         <v>13989</v>
@@ -26944,10 +26944,10 @@
         <v>68</v>
       </c>
       <c r="I349" t="n">
-        <v>20446.24000000001</v>
+        <v>20446.24</v>
       </c>
       <c r="J349" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K349" t="n">
         <v>1229.641322843573</v>
@@ -26968,7 +26968,7 @@
         <v>7564</v>
       </c>
       <c r="Q349" t="n">
-        <v>1334018.535522758</v>
+        <v>1334018.535522759</v>
       </c>
       <c r="R349" t="n">
         <v>8520</v>
@@ -27011,7 +27011,7 @@
         <v>5</v>
       </c>
       <c r="F350" t="n">
-        <v>5804.01</v>
+        <v>5804.009999999999</v>
       </c>
       <c r="G350" t="n">
         <v>217.36778772534</v>
@@ -27047,7 +27047,7 @@
         <v>657983.8443682999</v>
       </c>
       <c r="R350" t="n">
-        <v>8031</v>
+        <v>8031.000000000001</v>
       </c>
       <c r="S350" t="n">
         <v>37386.16666666667</v>
@@ -27096,7 +27096,7 @@
         <v>68</v>
       </c>
       <c r="I351" t="n">
-        <v>20948.06000000001</v>
+        <v>20948.06</v>
       </c>
       <c r="J351" t="n">
         <v>1</v>
@@ -27105,13 +27105,13 @@
         <v>752.9664067604303</v>
       </c>
       <c r="L351" t="n">
-        <v>166.4904189681231</v>
+        <v>166.4904189681232</v>
       </c>
       <c r="M351" t="n">
         <v>42.559</v>
       </c>
       <c r="N351" t="n">
-        <v>123.9314189681231</v>
+        <v>123.9314189681232</v>
       </c>
       <c r="O351" t="n">
         <v>0.9164</v>
@@ -27120,7 +27120,7 @@
         <v>4471</v>
       </c>
       <c r="Q351" t="n">
-        <v>507774.8337228167</v>
+        <v>507774.833722817</v>
       </c>
       <c r="R351" t="n">
         <v>4908</v>
@@ -27172,7 +27172,7 @@
         <v>68</v>
       </c>
       <c r="I352" t="n">
-        <v>21537.73999999999</v>
+        <v>21537.74</v>
       </c>
       <c r="J352" t="n">
         <v>1</v>
@@ -27181,13 +27181,13 @@
         <v>1227.37700907716</v>
       </c>
       <c r="L352" t="n">
-        <v>257.0909889663995</v>
+        <v>257.0909889663994</v>
       </c>
       <c r="M352" t="n">
         <v>42.559</v>
       </c>
       <c r="N352" t="n">
-        <v>214.5319889663995</v>
+        <v>214.5319889663994</v>
       </c>
       <c r="O352" t="n">
         <v>0.9401</v>
@@ -27196,7 +27196,7 @@
         <v>8124</v>
       </c>
       <c r="Q352" t="n">
-        <v>1638460.691449084</v>
+        <v>1638460.691449083</v>
       </c>
       <c r="R352" t="n">
         <v>8946.000000000002</v>
@@ -27239,10 +27239,10 @@
         <v>8</v>
       </c>
       <c r="F353" t="n">
-        <v>8412.669999999998</v>
+        <v>8412.67</v>
       </c>
       <c r="G353" t="n">
-        <v>719.177897965636</v>
+        <v>719.1778979656359</v>
       </c>
       <c r="H353" t="n">
         <v>68</v>
@@ -27275,7 +27275,7 @@
         <v>900352.3649211174</v>
       </c>
       <c r="R353" t="n">
-        <v>7647</v>
+        <v>7647.000000000001</v>
       </c>
       <c r="S353" t="n">
         <v>36042.83333333334</v>
@@ -27315,10 +27315,10 @@
         <v>9</v>
       </c>
       <c r="F354" t="n">
-        <v>9920.379999999999</v>
+        <v>9920.380000000001</v>
       </c>
       <c r="G354" t="n">
-        <v>658.4212750084308</v>
+        <v>658.4212750084307</v>
       </c>
       <c r="H354" t="n">
         <v>68</v>
@@ -27330,7 +27330,7 @@
         <v>1</v>
       </c>
       <c r="K354" t="n">
-        <v>726.4212750084308</v>
+        <v>726.4212750084307</v>
       </c>
       <c r="L354" t="n">
         <v>171.7868687903904</v>
@@ -27400,7 +27400,7 @@
         <v>102</v>
       </c>
       <c r="I355" t="n">
-        <v>30977.55000000001</v>
+        <v>30977.55</v>
       </c>
       <c r="J355" t="n">
         <v>1</v>
@@ -27424,19 +27424,19 @@
         <v>10996</v>
       </c>
       <c r="Q355" t="n">
-        <v>1659248.128160588</v>
+        <v>1659248.128160589</v>
       </c>
       <c r="R355" t="n">
         <v>12108</v>
       </c>
       <c r="S355" t="n">
-        <v>57139.24999999999</v>
+        <v>57139.25</v>
       </c>
       <c r="T355" t="n">
         <v>1.101127682793743</v>
       </c>
       <c r="U355" t="n">
-        <v>5.196366860676608</v>
+        <v>5.196366860676609</v>
       </c>
       <c r="V355" t="inlineStr">
         <is>
@@ -27561,13 +27561,13 @@
         <v>306.2794281812286</v>
       </c>
       <c r="L357" t="n">
-        <v>186.1205239422934</v>
+        <v>186.1205239422933</v>
       </c>
       <c r="M357" t="n">
         <v>42.559</v>
       </c>
       <c r="N357" t="n">
-        <v>143.5615239422934</v>
+        <v>143.5615239422933</v>
       </c>
       <c r="O357" t="n">
         <v>0.8151999999999999</v>
@@ -27628,7 +27628,7 @@
         <v>27</v>
       </c>
       <c r="I358" t="n">
-        <v>16963.55999999999</v>
+        <v>16963.56</v>
       </c>
       <c r="J358" t="n">
         <v>1</v>
@@ -27707,19 +27707,19 @@
         <v>16216.8</v>
       </c>
       <c r="J359" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K359" t="n">
         <v>2903.664365317966</v>
       </c>
       <c r="L359" t="n">
-        <v>398.5395936856827</v>
+        <v>398.5395936856826</v>
       </c>
       <c r="M359" t="n">
         <v>56.94</v>
       </c>
       <c r="N359" t="n">
-        <v>341.5995936856827</v>
+        <v>341.5995936856826</v>
       </c>
       <c r="O359" t="n">
         <v>0.8347</v>
@@ -27789,13 +27789,13 @@
         <v>2964.06202334389</v>
       </c>
       <c r="L360" t="n">
-        <v>471.1702033482977</v>
+        <v>471.1702033482978</v>
       </c>
       <c r="M360" t="n">
         <v>56.94</v>
       </c>
       <c r="N360" t="n">
-        <v>414.2302033482977</v>
+        <v>414.2302033482978</v>
       </c>
       <c r="O360" t="n">
         <v>0.6445000000000001</v>
@@ -27804,7 +27804,7 @@
         <v>9207</v>
       </c>
       <c r="Q360" t="n">
-        <v>2458005.367295803</v>
+        <v>2458005.367295804</v>
       </c>
       <c r="R360" t="n">
         <v>13640</v>
@@ -27847,7 +27847,7 @@
         <v>4</v>
       </c>
       <c r="F361" t="n">
-        <v>4830.460000000001</v>
+        <v>4830.46</v>
       </c>
       <c r="G361" t="n">
         <v>3042.440733809462</v>
@@ -27859,7 +27859,7 @@
         <v>19321.84</v>
       </c>
       <c r="J361" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K361" t="n">
         <v>3069.440733809462</v>
@@ -27871,7 +27871,7 @@
         <v>56.94</v>
       </c>
       <c r="N361" t="n">
-        <v>326.9826410056636</v>
+        <v>326.9826410056637</v>
       </c>
       <c r="O361" t="n">
         <v>0.8495</v>
@@ -27880,7 +27880,7 @@
         <v>8910</v>
       </c>
       <c r="Q361" t="n">
-        <v>2474946.323990713</v>
+        <v>2474946.323990714</v>
       </c>
       <c r="R361" t="n">
         <v>13200</v>
@@ -27923,7 +27923,7 @@
         <v>5</v>
       </c>
       <c r="F362" t="n">
-        <v>4177.569999999999</v>
+        <v>4177.57</v>
       </c>
       <c r="G362" t="n">
         <v>2787.243919852443</v>
@@ -27941,13 +27941,13 @@
         <v>2814.243919852443</v>
       </c>
       <c r="L362" t="n">
-        <v>430.6433839368169</v>
+        <v>430.6433839368168</v>
       </c>
       <c r="M362" t="n">
         <v>56.94</v>
       </c>
       <c r="N362" t="n">
-        <v>373.7033839368169</v>
+        <v>373.7033839368168</v>
       </c>
       <c r="O362" t="n">
         <v>0.8432999999999999</v>
@@ -27956,7 +27956,7 @@
         <v>9207</v>
       </c>
       <c r="Q362" t="n">
-        <v>2901531.39424576</v>
+        <v>2901531.394245759</v>
       </c>
       <c r="R362" t="n">
         <v>13640</v>
@@ -27999,7 +27999,7 @@
         <v>6</v>
       </c>
       <c r="F363" t="n">
-        <v>4044.670000000001</v>
+        <v>4044.67</v>
       </c>
       <c r="G363" t="n">
         <v>2688.742445095078</v>
@@ -28017,13 +28017,13 @@
         <v>2715.742445095078</v>
       </c>
       <c r="L363" t="n">
-        <v>410.5415197159112</v>
+        <v>410.5415197159111</v>
       </c>
       <c r="M363" t="n">
         <v>56.94</v>
       </c>
       <c r="N363" t="n">
-        <v>353.6015197159112</v>
+        <v>353.6015197159111</v>
       </c>
       <c r="O363" t="n">
         <v>0.8711</v>
@@ -28151,7 +28151,7 @@
         <v>8</v>
       </c>
       <c r="F365" t="n">
-        <v>4728.330000000001</v>
+        <v>4728.33</v>
       </c>
       <c r="G365" t="n">
         <v>2754.615566817552</v>
@@ -28227,7 +28227,7 @@
         <v>9</v>
       </c>
       <c r="F366" t="n">
-        <v>4554.669999999999</v>
+        <v>4554.67</v>
       </c>
       <c r="G366" t="n">
         <v>2945.795341573056</v>
@@ -28239,19 +28239,19 @@
         <v>18218.68</v>
       </c>
       <c r="J366" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K366" t="n">
         <v>2972.795341573056</v>
       </c>
       <c r="L366" t="n">
-        <v>435.3392809048616</v>
+        <v>435.3392809048615</v>
       </c>
       <c r="M366" t="n">
         <v>56.94</v>
       </c>
       <c r="N366" t="n">
-        <v>378.3992809048616</v>
+        <v>378.3992809048615</v>
       </c>
       <c r="O366" t="n">
         <v>0.9248999999999999</v>
@@ -28260,7 +28260,7 @@
         <v>8910</v>
       </c>
       <c r="Q366" t="n">
-        <v>3118335.119638357</v>
+        <v>3118335.119638356</v>
       </c>
       <c r="R366" t="n">
         <v>13200</v>
@@ -28303,7 +28303,7 @@
         <v>10</v>
       </c>
       <c r="F367" t="n">
-        <v>4805.780000000001</v>
+        <v>4805.78</v>
       </c>
       <c r="G367" t="n">
         <v>3106.231503873735</v>
@@ -28315,19 +28315,19 @@
         <v>19223.12</v>
       </c>
       <c r="J367" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K367" t="n">
         <v>3133.231503873735</v>
       </c>
       <c r="L367" t="n">
-        <v>459.8944975555939</v>
+        <v>459.8944975555941</v>
       </c>
       <c r="M367" t="n">
         <v>56.94</v>
       </c>
       <c r="N367" t="n">
-        <v>402.9544975555939</v>
+        <v>402.9544975555941</v>
       </c>
       <c r="O367" t="n">
         <v>0.9398000000000001</v>
@@ -28336,7 +28336,7 @@
         <v>8910</v>
       </c>
       <c r="Q367" t="n">
-        <v>3374187.033912477</v>
+        <v>3374187.033912478</v>
       </c>
       <c r="R367" t="n">
         <v>13200</v>
@@ -28379,7 +28379,7 @@
         <v>11</v>
       </c>
       <c r="F368" t="n">
-        <v>4261.670000000001</v>
+        <v>4261.67</v>
       </c>
       <c r="G368" t="n">
         <v>3080.805813393502</v>
@@ -28391,19 +28391,19 @@
         <v>17046.68</v>
       </c>
       <c r="J368" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K368" t="n">
-        <v>3107.805813393501</v>
+        <v>3107.805813393502</v>
       </c>
       <c r="L368" t="n">
-        <v>472.3798848381562</v>
+        <v>472.3798848381563</v>
       </c>
       <c r="M368" t="n">
         <v>56.94</v>
       </c>
       <c r="N368" t="n">
-        <v>415.4398848381562</v>
+        <v>415.4398848381563</v>
       </c>
       <c r="O368" t="n">
         <v>0.8656999999999999</v>
@@ -28412,7 +28412,7 @@
         <v>8910</v>
       </c>
       <c r="Q368" t="n">
-        <v>3204448.606992131</v>
+        <v>3204448.606992132</v>
       </c>
       <c r="R368" t="n">
         <v>13200</v>
@@ -28455,7 +28455,7 @@
         <v>12</v>
       </c>
       <c r="F369" t="n">
-        <v>3858.899999999999</v>
+        <v>3858.9</v>
       </c>
       <c r="G369" t="n">
         <v>3030.914216556275</v>
@@ -28473,13 +28473,13 @@
         <v>3057.914216556275</v>
       </c>
       <c r="L369" t="n">
-        <v>448.3450098421139</v>
+        <v>448.3450098421138</v>
       </c>
       <c r="M369" t="n">
         <v>56.94</v>
       </c>
       <c r="N369" t="n">
-        <v>391.4050098421139</v>
+        <v>391.4050098421138</v>
       </c>
       <c r="O369" t="n">
         <v>0.757</v>
@@ -28488,7 +28488,7 @@
         <v>9207</v>
       </c>
       <c r="Q369" t="n">
-        <v>2727975.105691572</v>
+        <v>2727975.10569157</v>
       </c>
       <c r="R369" t="n">
         <v>13640</v>
@@ -28531,7 +28531,7 @@
         <v>1</v>
       </c>
       <c r="F370" t="n">
-        <v>16041.49000000001</v>
+        <v>16041.49</v>
       </c>
       <c r="G370" t="n">
         <v>4265.755689095799</v>
@@ -28540,13 +28540,13 @@
         <v>41.15</v>
       </c>
       <c r="I370" t="n">
-        <v>64165.96000000002</v>
+        <v>64165.96</v>
       </c>
       <c r="J370" t="n">
         <v>1</v>
       </c>
       <c r="K370" t="n">
-        <v>4306.905689095798</v>
+        <v>4306.905689095799</v>
       </c>
       <c r="L370" t="n">
         <v>552.4869516982187</v>
@@ -28610,19 +28610,19 @@
         <v>14783.45</v>
       </c>
       <c r="G371" t="n">
-        <v>4190.805182996211</v>
+        <v>4190.805182996212</v>
       </c>
       <c r="H371" t="n">
         <v>41.15</v>
       </c>
       <c r="I371" t="n">
-        <v>59133.79999999999</v>
+        <v>59133.8</v>
       </c>
       <c r="J371" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K371" t="n">
-        <v>4231.955182996211</v>
+        <v>4231.955182996212</v>
       </c>
       <c r="L371" t="n">
         <v>498.0726326029704</v>
@@ -28640,7 +28640,7 @@
         <v>24187</v>
       </c>
       <c r="Q371" t="n">
-        <v>9988949.720739845</v>
+        <v>9988949.720739843</v>
       </c>
       <c r="R371" t="n">
         <v>40532</v>
@@ -28692,22 +28692,22 @@
         <v>41.15</v>
       </c>
       <c r="I372" t="n">
-        <v>56859.15999999999</v>
+        <v>56859.16</v>
       </c>
       <c r="J372" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K372" t="n">
-        <v>4166.624116114787</v>
+        <v>4166.624116114788</v>
       </c>
       <c r="L372" t="n">
-        <v>507.4657137109663</v>
+        <v>507.4657137109661</v>
       </c>
       <c r="M372" t="n">
         <v>56.94</v>
       </c>
       <c r="N372" t="n">
-        <v>450.5257137109663</v>
+        <v>450.5257137109661</v>
       </c>
       <c r="O372" t="n">
         <v>0.8358</v>
@@ -28716,7 +28716,7 @@
         <v>24632</v>
       </c>
       <c r="Q372" t="n">
-        <v>9275164.61191142</v>
+        <v>9275164.611911414</v>
       </c>
       <c r="R372" t="n">
         <v>41190</v>
@@ -28768,7 +28768,7 @@
         <v>41.15</v>
       </c>
       <c r="I373" t="n">
-        <v>51358.32000000001</v>
+        <v>51358.32</v>
       </c>
       <c r="J373" t="n">
         <v>0.9999999999999999</v>
@@ -28777,13 +28777,13 @@
         <v>4356.617651797325</v>
       </c>
       <c r="L373" t="n">
-        <v>541.3759267048679</v>
+        <v>541.3759267048681</v>
       </c>
       <c r="M373" t="n">
         <v>56.94</v>
       </c>
       <c r="N373" t="n">
-        <v>484.4359267048679</v>
+        <v>484.4359267048681</v>
       </c>
       <c r="O373" t="n">
         <v>0.7878000000000001</v>
@@ -28792,7 +28792,7 @@
         <v>22400</v>
       </c>
       <c r="Q373" t="n">
-        <v>8548705.156501327</v>
+        <v>8548705.15650133</v>
       </c>
       <c r="R373" t="n">
         <v>37461</v>
@@ -28835,31 +28835,31 @@
         <v>5</v>
       </c>
       <c r="F374" t="n">
-        <v>13481.86999999999</v>
+        <v>13481.87</v>
       </c>
       <c r="G374" t="n">
-        <v>4142.137800485714</v>
+        <v>4142.137800485713</v>
       </c>
       <c r="H374" t="n">
         <v>41.15</v>
       </c>
       <c r="I374" t="n">
-        <v>53927.47999999994</v>
+        <v>53927.48</v>
       </c>
       <c r="J374" t="n">
         <v>1</v>
       </c>
       <c r="K374" t="n">
-        <v>4183.287800485716</v>
+        <v>4183.287800485713</v>
       </c>
       <c r="L374" t="n">
-        <v>513.2708238096864</v>
+        <v>513.2708238096859</v>
       </c>
       <c r="M374" t="n">
         <v>56.94</v>
       </c>
       <c r="N374" t="n">
-        <v>456.3308238096864</v>
+        <v>456.3308238096859</v>
       </c>
       <c r="O374" t="n">
         <v>0.8292</v>
@@ -28868,7 +28868,7 @@
         <v>23781</v>
       </c>
       <c r="Q374" t="n">
-        <v>8998481.153788252</v>
+        <v>8998481.153788242</v>
       </c>
       <c r="R374" t="n">
         <v>39777</v>
@@ -28880,7 +28880,7 @@
         <v>1.67263782010849</v>
       </c>
       <c r="U374" t="n">
-        <v>7.728179358871929</v>
+        <v>7.728179358871928</v>
       </c>
       <c r="V374" t="inlineStr">
         <is>
@@ -28920,13 +28920,13 @@
         <v>41.15</v>
       </c>
       <c r="I375" t="n">
-        <v>41711.36000000001</v>
+        <v>41711.36</v>
       </c>
       <c r="J375" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K375" t="n">
-        <v>4085.785461994806</v>
+        <v>4085.785461994807</v>
       </c>
       <c r="L375" t="n">
         <v>512.0949440902971</v>
@@ -28987,31 +28987,31 @@
         <v>7</v>
       </c>
       <c r="F376" t="n">
-        <v>13110.63999999999</v>
+        <v>13110.64</v>
       </c>
       <c r="G376" t="n">
-        <v>4497.835604096089</v>
+        <v>4497.835604096088</v>
       </c>
       <c r="H376" t="n">
         <v>41.15</v>
       </c>
       <c r="I376" t="n">
-        <v>52442.55999999997</v>
+        <v>52442.56</v>
       </c>
       <c r="J376" t="n">
         <v>1</v>
       </c>
       <c r="K376" t="n">
-        <v>4538.985604096089</v>
+        <v>4538.985604096088</v>
       </c>
       <c r="L376" t="n">
-        <v>610.8047423120632</v>
+        <v>610.804742312063</v>
       </c>
       <c r="M376" t="n">
         <v>56.94</v>
       </c>
       <c r="N376" t="n">
-        <v>553.8647423120633</v>
+        <v>553.8647423120631</v>
       </c>
       <c r="O376" t="n">
         <v>0.8706</v>
@@ -29020,7 +29020,7 @@
         <v>23765</v>
       </c>
       <c r="Q376" t="n">
-        <v>11459355.73027081</v>
+        <v>11459355.7302708</v>
       </c>
       <c r="R376" t="n">
         <v>39709</v>
@@ -29072,22 +29072,22 @@
         <v>41.15</v>
       </c>
       <c r="I377" t="n">
-        <v>49617.24000000002</v>
+        <v>49617.24000000001</v>
       </c>
       <c r="J377" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K377" t="n">
         <v>4106.971444095802</v>
       </c>
       <c r="L377" t="n">
-        <v>498.4398033770769</v>
+        <v>498.4398033770772</v>
       </c>
       <c r="M377" t="n">
         <v>56.94</v>
       </c>
       <c r="N377" t="n">
-        <v>441.4998033770769</v>
+        <v>441.4998033770772</v>
       </c>
       <c r="O377" t="n">
         <v>0.8531</v>
@@ -29096,7 +29096,7 @@
         <v>23679</v>
       </c>
       <c r="Q377" t="n">
-        <v>8918541.016457848</v>
+        <v>8918541.016457852</v>
       </c>
       <c r="R377" t="n">
         <v>39675</v>
@@ -29142,7 +29142,7 @@
         <v>13008.92</v>
       </c>
       <c r="G378" t="n">
-        <v>4321.359435123499</v>
+        <v>4321.359435123501</v>
       </c>
       <c r="H378" t="n">
         <v>41.15</v>
@@ -29151,10 +29151,10 @@
         <v>52035.68000000001</v>
       </c>
       <c r="J378" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K378" t="n">
-        <v>4362.509435123499</v>
+        <v>4362.5094351235</v>
       </c>
       <c r="L378" t="n">
         <v>555.341993760949</v>
@@ -29215,31 +29215,31 @@
         <v>10</v>
       </c>
       <c r="F379" t="n">
-        <v>14994.17000000001</v>
+        <v>14994.17</v>
       </c>
       <c r="G379" t="n">
-        <v>4357.983394986469</v>
+        <v>4357.983394986468</v>
       </c>
       <c r="H379" t="n">
         <v>41.15</v>
       </c>
       <c r="I379" t="n">
-        <v>59976.68000000003</v>
+        <v>59976.68</v>
       </c>
       <c r="J379" t="n">
         <v>1</v>
       </c>
       <c r="K379" t="n">
-        <v>4399.133394986469</v>
+        <v>4399.133394986467</v>
       </c>
       <c r="L379" t="n">
-        <v>586.2597126009996</v>
+        <v>586.2597126009998</v>
       </c>
       <c r="M379" t="n">
         <v>56.94</v>
       </c>
       <c r="N379" t="n">
-        <v>529.3197126009995</v>
+        <v>529.3197126009998</v>
       </c>
       <c r="O379" t="n">
         <v>0.9390000000000001</v>
@@ -29294,28 +29294,28 @@
         <v>12807.96</v>
       </c>
       <c r="G380" t="n">
-        <v>4179.692591061881</v>
+        <v>4179.692591061883</v>
       </c>
       <c r="H380" t="n">
         <v>41.15</v>
       </c>
       <c r="I380" t="n">
-        <v>51231.84000000002</v>
+        <v>51231.84</v>
       </c>
       <c r="J380" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K380" t="n">
-        <v>4220.842591061882</v>
+        <v>4220.842591061883</v>
       </c>
       <c r="L380" t="n">
-        <v>559.1837652448653</v>
+        <v>559.1837652448655</v>
       </c>
       <c r="M380" t="n">
         <v>56.94</v>
       </c>
       <c r="N380" t="n">
-        <v>502.2437652448653</v>
+        <v>502.2437652448655</v>
       </c>
       <c r="O380" t="n">
         <v>0.8467</v>
@@ -29324,7 +29324,7 @@
         <v>21682</v>
       </c>
       <c r="Q380" t="n">
-        <v>9220266.077583766</v>
+        <v>9220266.077583769</v>
       </c>
       <c r="R380" t="n">
         <v>36506</v>
@@ -29376,22 +29376,22 @@
         <v>41.15</v>
       </c>
       <c r="I381" t="n">
-        <v>50696.20000000001</v>
+        <v>50696.2</v>
       </c>
       <c r="J381" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="K381" t="n">
         <v>4177.088436703116</v>
       </c>
       <c r="L381" t="n">
-        <v>533.0270905247032</v>
+        <v>533.0270905247035</v>
       </c>
       <c r="M381" t="n">
         <v>56.94</v>
       </c>
       <c r="N381" t="n">
-        <v>476.0870905247032</v>
+        <v>476.0870905247035</v>
       </c>
       <c r="O381" t="n">
         <v>0.778</v>
@@ -29400,7 +29400,7 @@
         <v>21726</v>
       </c>
       <c r="Q381" t="n">
-        <v>8047218.204159488</v>
+        <v>8047218.204159492</v>
       </c>
       <c r="R381" t="n">
         <v>36263</v>
@@ -29446,7 +29446,7 @@
         <v>36412.46</v>
       </c>
       <c r="G382" t="n">
-        <v>3716.490187638841</v>
+        <v>3716.490187638842</v>
       </c>
       <c r="H382" t="n">
         <v>29</v>
@@ -29458,7 +29458,7 @@
         <v>1</v>
       </c>
       <c r="K382" t="n">
-        <v>3745.490187638841</v>
+        <v>3745.490187638842</v>
       </c>
       <c r="L382" t="n">
         <v>469.0600827048081</v>
@@ -29537,13 +29537,13 @@
         <v>3706.220716202405</v>
       </c>
       <c r="L383" t="n">
-        <v>433.7300900681919</v>
+        <v>433.7300900681921</v>
       </c>
       <c r="M383" t="n">
         <v>56.94</v>
       </c>
       <c r="N383" t="n">
-        <v>376.7900900681919</v>
+        <v>376.7900900681921</v>
       </c>
       <c r="O383" t="n">
         <v>0.8528</v>
@@ -29552,7 +29552,7 @@
         <v>45916</v>
       </c>
       <c r="Q383" t="n">
-        <v>14754031.65180703</v>
+        <v>14754031.65180704</v>
       </c>
       <c r="R383" t="n">
         <v>93968</v>
@@ -29598,7 +29598,7 @@
         <v>31613.7</v>
       </c>
       <c r="G384" t="n">
-        <v>3813.94379594551</v>
+        <v>3813.943795945511</v>
       </c>
       <c r="H384" t="n">
         <v>29</v>
@@ -29610,16 +29610,16 @@
         <v>1</v>
       </c>
       <c r="K384" t="n">
-        <v>3842.94379594551</v>
+        <v>3842.943795945511</v>
       </c>
       <c r="L384" t="n">
-        <v>464.3027858568598</v>
+        <v>464.3027858568599</v>
       </c>
       <c r="M384" t="n">
         <v>56.94</v>
       </c>
       <c r="N384" t="n">
-        <v>407.3627858568598</v>
+        <v>407.3627858568599</v>
       </c>
       <c r="O384" t="n">
         <v>0.7489</v>
@@ -29674,7 +29674,7 @@
         <v>32935.47</v>
       </c>
       <c r="G385" t="n">
-        <v>3909.056904434283</v>
+        <v>3909.056904434285</v>
       </c>
       <c r="H385" t="n">
         <v>29</v>
@@ -29686,7 +29686,7 @@
         <v>1</v>
       </c>
       <c r="K385" t="n">
-        <v>3938.056904434283</v>
+        <v>3938.056904434285</v>
       </c>
       <c r="L385" t="n">
         <v>456.9640692302859</v>
@@ -29747,7 +29747,7 @@
         <v>5</v>
       </c>
       <c r="F386" t="n">
-        <v>32727.67999999999</v>
+        <v>32727.68</v>
       </c>
       <c r="G386" t="n">
         <v>3784.370911723141</v>
@@ -29765,13 +29765,13 @@
         <v>3813.370911723141</v>
       </c>
       <c r="L386" t="n">
-        <v>460.2975553324496</v>
+        <v>460.2975553324494</v>
       </c>
       <c r="M386" t="n">
         <v>56.94</v>
       </c>
       <c r="N386" t="n">
-        <v>403.3575553324496</v>
+        <v>403.3575553324494</v>
       </c>
       <c r="O386" t="n">
         <v>0.7443000000000001</v>
@@ -29823,7 +29823,7 @@
         <v>6</v>
       </c>
       <c r="F387" t="n">
-        <v>27930.29999999999</v>
+        <v>27930.3</v>
       </c>
       <c r="G387" t="n">
         <v>3508.604977794457</v>
@@ -29835,19 +29835,19 @@
         <v>111721.2</v>
       </c>
       <c r="J387" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K387" t="n">
         <v>3537.604977794457</v>
       </c>
       <c r="L387" t="n">
-        <v>440.9780312046115</v>
+        <v>440.9780312046113</v>
       </c>
       <c r="M387" t="n">
         <v>56.94</v>
       </c>
       <c r="N387" t="n">
-        <v>384.0380312046115</v>
+        <v>384.0380312046113</v>
       </c>
       <c r="O387" t="n">
         <v>0.6768000000000001</v>
@@ -29856,7 +29856,7 @@
         <v>51540</v>
       </c>
       <c r="Q387" t="n">
-        <v>13396119.06282375</v>
+        <v>13396119.06282374</v>
       </c>
       <c r="R387" t="n">
         <v>100680</v>
@@ -29899,7 +29899,7 @@
         <v>7</v>
       </c>
       <c r="F388" t="n">
-        <v>35463.35000000001</v>
+        <v>35463.35</v>
       </c>
       <c r="G388" t="n">
         <v>3668.000082945116</v>
@@ -29908,22 +29908,22 @@
         <v>29</v>
       </c>
       <c r="I388" t="n">
-        <v>141853.4000000001</v>
+        <v>141853.4</v>
       </c>
       <c r="J388" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="K388" t="n">
         <v>3697.000082945116</v>
       </c>
       <c r="L388" t="n">
-        <v>465.2075433395325</v>
+        <v>465.2075433395328</v>
       </c>
       <c r="M388" t="n">
         <v>56.94</v>
       </c>
       <c r="N388" t="n">
-        <v>408.2675433395325</v>
+        <v>408.2675433395328</v>
       </c>
       <c r="O388" t="n">
         <v>0.8472</v>
@@ -29932,7 +29932,7 @@
         <v>53754</v>
       </c>
       <c r="Q388" t="n">
-        <v>18592662.65810316</v>
+        <v>18592662.65810317</v>
       </c>
       <c r="R388" t="n">
         <v>104036</v>
@@ -29975,7 +29975,7 @@
         <v>8</v>
       </c>
       <c r="F389" t="n">
-        <v>32870.15999999998</v>
+        <v>32870.16</v>
       </c>
       <c r="G389" t="n">
         <v>3585.692565407981</v>
@@ -29984,7 +29984,7 @@
         <v>29</v>
       </c>
       <c r="I389" t="n">
-        <v>131480.6399999999</v>
+        <v>131480.64</v>
       </c>
       <c r="J389" t="n">
         <v>1</v>
@@ -29993,13 +29993,13 @@
         <v>3614.692565407981</v>
       </c>
       <c r="L389" t="n">
-        <v>426.3688061069268</v>
+        <v>426.3688061069267</v>
       </c>
       <c r="M389" t="n">
         <v>56.94</v>
       </c>
       <c r="N389" t="n">
-        <v>369.4288061069268</v>
+        <v>369.4288061069267</v>
       </c>
       <c r="O389" t="n">
         <v>0.8146</v>
@@ -30051,10 +30051,10 @@
         <v>9</v>
       </c>
       <c r="F390" t="n">
-        <v>33457.75999999999</v>
+        <v>33457.76</v>
       </c>
       <c r="G390" t="n">
-        <v>3935.033800730714</v>
+        <v>3935.033800730713</v>
       </c>
       <c r="H390" t="n">
         <v>29</v>
@@ -30063,19 +30063,19 @@
         <v>133831.04</v>
       </c>
       <c r="J390" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K390" t="n">
-        <v>3964.033800730714</v>
+        <v>3964.033800730713</v>
       </c>
       <c r="L390" t="n">
-        <v>459.2358195052814</v>
+        <v>459.2358195052813</v>
       </c>
       <c r="M390" t="n">
         <v>56.94</v>
       </c>
       <c r="N390" t="n">
-        <v>402.2958195052814</v>
+        <v>402.2958195052813</v>
       </c>
       <c r="O390" t="n">
         <v>0.8286</v>
@@ -30084,7 +30084,7 @@
         <v>50936</v>
       </c>
       <c r="Q390" t="n">
-        <v>16979124.20991919</v>
+        <v>16979124.20991918</v>
       </c>
       <c r="R390" t="n">
         <v>100680</v>
@@ -30130,7 +30130,7 @@
         <v>37629.82</v>
       </c>
       <c r="G391" t="n">
-        <v>3820.873005521055</v>
+        <v>3820.873005521056</v>
       </c>
       <c r="H391" t="n">
         <v>29</v>
@@ -30142,16 +30142,16 @@
         <v>1</v>
       </c>
       <c r="K391" t="n">
-        <v>3849.873005521055</v>
+        <v>3849.873005521056</v>
       </c>
       <c r="L391" t="n">
-        <v>477.1339697204406</v>
+        <v>477.1339697204405</v>
       </c>
       <c r="M391" t="n">
         <v>56.94</v>
       </c>
       <c r="N391" t="n">
-        <v>420.1939697204406</v>
+        <v>420.1939697204405</v>
       </c>
       <c r="O391" t="n">
         <v>0.8917</v>
@@ -30203,10 +30203,10 @@
         <v>11</v>
       </c>
       <c r="F392" t="n">
-        <v>32415.67000000001</v>
+        <v>32415.67</v>
       </c>
       <c r="G392" t="n">
-        <v>3928.82412900313</v>
+        <v>3928.824129003129</v>
       </c>
       <c r="H392" t="n">
         <v>29</v>
@@ -30215,19 +30215,19 @@
         <v>129662.68</v>
       </c>
       <c r="J392" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K392" t="n">
-        <v>3957.82412900313</v>
+        <v>3957.824129003129</v>
       </c>
       <c r="L392" t="n">
-        <v>504.4989583431917</v>
+        <v>504.4989583431918</v>
       </c>
       <c r="M392" t="n">
         <v>56.94</v>
       </c>
       <c r="N392" t="n">
-        <v>447.5589583431917</v>
+        <v>447.5589583431918</v>
       </c>
       <c r="O392" t="n">
         <v>0.8146</v>
@@ -30279,7 +30279,7 @@
         <v>12</v>
       </c>
       <c r="F393" t="n">
-        <v>29434.90000000002</v>
+        <v>29434.9</v>
       </c>
       <c r="G393" t="n">
         <v>3754.825653705649</v>
@@ -30288,22 +30288,22 @@
         <v>29</v>
       </c>
       <c r="I393" t="n">
-        <v>117739.6000000001</v>
+        <v>117739.6</v>
       </c>
       <c r="J393" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K393" t="n">
         <v>3783.825653705649</v>
       </c>
       <c r="L393" t="n">
-        <v>473.5778403677622</v>
+        <v>473.5778403677626</v>
       </c>
       <c r="M393" t="n">
         <v>56.94</v>
       </c>
       <c r="N393" t="n">
-        <v>416.6378403677622</v>
+        <v>416.6378403677626</v>
       </c>
       <c r="O393" t="n">
         <v>0.7282</v>
@@ -30312,7 +30312,7 @@
         <v>50902</v>
       </c>
       <c r="Q393" t="n">
-        <v>15443446.66696116</v>
+        <v>15443446.66696117</v>
       </c>
       <c r="R393" t="n">
         <v>104036</v>
@@ -30431,7 +30431,7 @@
         <v>2</v>
       </c>
       <c r="F395" t="n">
-        <v>3873.470000000001</v>
+        <v>3873.47</v>
       </c>
       <c r="G395" t="n">
         <v>886.5113114452594</v>
@@ -30440,7 +30440,7 @@
         <v>68</v>
       </c>
       <c r="I395" t="n">
-        <v>7746.940000000002</v>
+        <v>7746.94</v>
       </c>
       <c r="J395" t="n">
         <v>1</v>
@@ -30449,13 +30449,13 @@
         <v>954.5113114452594</v>
       </c>
       <c r="L395" t="n">
-        <v>199.2010443261462</v>
+        <v>199.2010443261463</v>
       </c>
       <c r="M395" t="n">
         <v>56.94</v>
       </c>
       <c r="N395" t="n">
-        <v>142.2610443261462</v>
+        <v>142.2610443261463</v>
       </c>
       <c r="O395" t="n">
         <v>0.9039</v>
@@ -30464,7 +30464,7 @@
         <v>4316</v>
       </c>
       <c r="Q395" t="n">
-        <v>554993.3953829979</v>
+        <v>554993.3953829982</v>
       </c>
       <c r="R395" t="n">
         <v>4884</v>
@@ -30507,16 +30507,16 @@
         <v>3</v>
       </c>
       <c r="F396" t="n">
-        <v>3842.479999999999</v>
+        <v>3842.48</v>
       </c>
       <c r="G396" t="n">
-        <v>620.8114229608385</v>
+        <v>620.8114229608386</v>
       </c>
       <c r="H396" t="n">
         <v>68</v>
       </c>
       <c r="I396" t="n">
-        <v>7684.959999999998</v>
+        <v>7684.96</v>
       </c>
       <c r="J396" t="n">
         <v>1</v>
@@ -30540,10 +30540,10 @@
         <v>4362</v>
       </c>
       <c r="Q396" t="n">
-        <v>419698.8055151665</v>
+        <v>419698.8055151664</v>
       </c>
       <c r="R396" t="n">
-        <v>4923</v>
+        <v>4923.000000000001</v>
       </c>
       <c r="S396" t="n">
         <v>34231.5</v>
@@ -30619,7 +30619,7 @@
         <v>727752.8550661223</v>
       </c>
       <c r="R397" t="n">
-        <v>5226</v>
+        <v>5226.000000000001</v>
       </c>
       <c r="S397" t="n">
         <v>35874.75</v>
@@ -30659,22 +30659,22 @@
         <v>5</v>
       </c>
       <c r="F398" t="n">
-        <v>2490.900000000001</v>
+        <v>2490.9</v>
       </c>
       <c r="G398" t="n">
-        <v>298.5178040186005</v>
+        <v>298.5178040186006</v>
       </c>
       <c r="H398" t="n">
         <v>68</v>
       </c>
       <c r="I398" t="n">
-        <v>4981.800000000001</v>
+        <v>4981.8</v>
       </c>
       <c r="J398" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K398" t="n">
-        <v>366.5178040186005</v>
+        <v>366.5178040186006</v>
       </c>
       <c r="L398" t="n">
         <v>183.8824508837426</v>
@@ -30692,7 +30692,7 @@
         <v>3123</v>
       </c>
       <c r="Q398" t="n">
-        <v>316598.0015041885</v>
+        <v>316598.0015041886</v>
       </c>
       <c r="R398" t="n">
         <v>3546</v>
@@ -30701,7 +30701,7 @@
         <v>24203.25</v>
       </c>
       <c r="T398" t="n">
-        <v>1.135446685878962</v>
+        <v>1.135446685878963</v>
       </c>
       <c r="U398" t="n">
         <v>7.75</v>
@@ -30774,13 +30774,13 @@
         <v>9348</v>
       </c>
       <c r="S399" t="n">
-        <v>63947.58333333333</v>
+        <v>63947.58333333334</v>
       </c>
       <c r="T399" t="n">
         <v>1.129667673716012</v>
       </c>
       <c r="U399" t="n">
-        <v>7.727804632426988</v>
+        <v>7.727804632426989</v>
       </c>
       <c r="V399" t="inlineStr">
         <is>
@@ -30811,10 +30811,10 @@
         <v>7</v>
       </c>
       <c r="F400" t="n">
-        <v>8385.119999999999</v>
+        <v>8385.120000000001</v>
       </c>
       <c r="G400" t="n">
-        <v>991.2426106740404</v>
+        <v>991.2426106740405</v>
       </c>
       <c r="H400" t="n">
         <v>68</v>
@@ -30823,10 +30823,10 @@
         <v>16770.24</v>
       </c>
       <c r="J400" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K400" t="n">
-        <v>1059.24261067404</v>
+        <v>1059.242610674041</v>
       </c>
       <c r="L400" t="n">
         <v>262.0528522879002</v>
@@ -30905,13 +30905,13 @@
         <v>1020.726304339614</v>
       </c>
       <c r="L401" t="n">
-        <v>249.4224428026323</v>
+        <v>249.4224428026324</v>
       </c>
       <c r="M401" t="n">
         <v>56.94</v>
       </c>
       <c r="N401" t="n">
-        <v>192.4824428026323</v>
+        <v>192.4824428026324</v>
       </c>
       <c r="O401" t="n">
         <v>0.6836</v>
@@ -30920,10 +30920,10 @@
         <v>5373</v>
       </c>
       <c r="Q401" t="n">
-        <v>706984.7017160524</v>
+        <v>706984.7017160525</v>
       </c>
       <c r="R401" t="n">
-        <v>6066</v>
+        <v>6066.000000000001</v>
       </c>
       <c r="S401" t="n">
         <v>41640.75</v>
@@ -30963,31 +30963,31 @@
         <v>9</v>
       </c>
       <c r="F402" t="n">
-        <v>8069.829999999997</v>
+        <v>8069.83</v>
       </c>
       <c r="G402" t="n">
-        <v>877.6819873650414</v>
+        <v>877.6819873650416</v>
       </c>
       <c r="H402" t="n">
         <v>68</v>
       </c>
       <c r="I402" t="n">
-        <v>16139.65999999999</v>
+        <v>16139.66</v>
       </c>
       <c r="J402" t="n">
         <v>1</v>
       </c>
       <c r="K402" t="n">
-        <v>945.6819873650414</v>
+        <v>945.6819873650416</v>
       </c>
       <c r="L402" t="n">
-        <v>226.5502198107644</v>
+        <v>226.5502198107643</v>
       </c>
       <c r="M402" t="n">
         <v>56.94</v>
       </c>
       <c r="N402" t="n">
-        <v>169.6102198107644</v>
+        <v>169.6102198107643</v>
       </c>
       <c r="O402" t="n">
         <v>0.6993</v>
@@ -30996,7 +30996,7 @@
         <v>6031</v>
       </c>
       <c r="Q402" t="n">
-        <v>715327.4215101289</v>
+        <v>715327.4215101287</v>
       </c>
       <c r="R402" t="n">
         <v>6828</v>
@@ -31115,7 +31115,7 @@
         <v>11</v>
       </c>
       <c r="F404" t="n">
-        <v>7243.250000000002</v>
+        <v>7243.25</v>
       </c>
       <c r="G404" t="n">
         <v>248.7800079325569</v>
@@ -31133,13 +31133,13 @@
         <v>316.7800079325569</v>
       </c>
       <c r="L404" t="n">
-        <v>184.0137776092047</v>
+        <v>184.0137776092048</v>
       </c>
       <c r="M404" t="n">
         <v>56.94</v>
       </c>
       <c r="N404" t="n">
-        <v>127.0737776092047</v>
+        <v>127.0737776092048</v>
       </c>
       <c r="O404" t="n">
         <v>0.7104</v>
@@ -31148,7 +31148,7 @@
         <v>10371</v>
       </c>
       <c r="Q404" t="n">
-        <v>936223.4776444284</v>
+        <v>936223.4776444285</v>
       </c>
       <c r="R404" t="n">
         <v>11712</v>
@@ -31209,13 +31209,13 @@
         <v>446.0638182190413</v>
       </c>
       <c r="L405" t="n">
-        <v>290.815471222424</v>
+        <v>290.8154712224239</v>
       </c>
       <c r="M405" t="n">
         <v>56.94</v>
       </c>
       <c r="N405" t="n">
-        <v>233.875471222424</v>
+        <v>233.8754712224239</v>
       </c>
       <c r="O405" t="n">
         <v>0.8158</v>
